--- a/Surgical_Cases_Master.xlsx
+++ b/Surgical_Cases_Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dcode\nov_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dcode\nov_26\flexsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F808D5D-897F-48E0-93A6-836AA4771CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64872387-EB81-4450-9ED7-083C388E017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllCases" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
   <si>
     <t>Row#</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>OR1</t>
+  </si>
+  <si>
+    <t>OR2</t>
+  </si>
+  <si>
+    <t>OR3</t>
   </si>
 </sst>
 </file>
@@ -1393,35 +1399,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" customWidth="1"/>
-    <col min="19" max="19" width="22.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="35" width="9.109375" customWidth="1"/>
+    <col min="21" max="35" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1504,7 @@
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="e">
         <f>IF(EXACT(B2,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -1578,7 +1584,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="e">
         <f>IF(EXACT(B3,""),"",A2+1)</f>
         <v>#REF!</v>
@@ -1658,7 +1664,7 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="e">
         <f t="shared" ref="A4" si="2">IF(EXACT(B4,""),"",A3+1)</f>
         <v>#REF!</v>
@@ -1738,7 +1744,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="e">
         <f>IF(EXACT(B5,""),"",A1+1)</f>
         <v>#VALUE!</v>
@@ -1818,7 +1824,7 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1843,7 +1849,9 @@
       <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="J6" s="11">
         <v>20</v>
       </c>
@@ -1873,7 +1881,9 @@
       <c r="R6" s="16">
         <v>1321</v>
       </c>
-      <c r="S6" s="17"/>
+      <c r="S6" s="17">
+        <v>5</v>
+      </c>
       <c r="T6" s="18">
         <v>0</v>
       </c>
@@ -1893,7 +1903,7 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <f t="shared" ref="A7:A36" si="9">IF(EXACT(B7,""),"",A6+1)</f>
         <v>2</v>
@@ -1919,7 +1929,9 @@
       <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="J7" s="24">
         <v>20</v>
       </c>
@@ -1949,7 +1961,9 @@
       <c r="R7" s="27">
         <v>3116</v>
       </c>
-      <c r="S7" s="28"/>
+      <c r="S7" s="28">
+        <v>6</v>
+      </c>
       <c r="T7" s="18">
         <v>0</v>
       </c>
@@ -1969,7 +1983,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <f t="shared" si="9"/>
         <v>3</v>
@@ -1995,7 +2009,9 @@
       <c r="H8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="J8" s="24">
         <v>20</v>
       </c>
@@ -2025,7 +2041,9 @@
       <c r="R8" s="27">
         <v>1994</v>
       </c>
-      <c r="S8" s="17"/>
+      <c r="S8" s="17">
+        <v>7</v>
+      </c>
       <c r="T8" s="18">
         <v>0</v>
       </c>
@@ -2045,7 +2063,7 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -2071,7 +2089,9 @@
       <c r="H9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="J9" s="24">
         <v>20</v>
       </c>
@@ -2101,7 +2121,9 @@
       <c r="R9" s="27">
         <v>4005</v>
       </c>
-      <c r="S9" s="28"/>
+      <c r="S9" s="28">
+        <v>8</v>
+      </c>
       <c r="T9" s="18">
         <v>0</v>
       </c>
@@ -2121,7 +2143,7 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -2147,7 +2169,9 @@
       <c r="H10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="J10" s="24">
         <v>20</v>
       </c>
@@ -2177,7 +2201,9 @@
       <c r="R10" s="27">
         <v>3054</v>
       </c>
-      <c r="S10" s="17"/>
+      <c r="S10" s="17">
+        <v>9</v>
+      </c>
       <c r="T10" s="18">
         <v>0</v>
       </c>
@@ -2197,7 +2223,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -2223,7 +2249,9 @@
       <c r="H11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="J11" s="24">
         <v>20</v>
       </c>
@@ -2253,7 +2281,9 @@
       <c r="R11" s="27">
         <v>2443</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="28">
+        <v>10</v>
+      </c>
       <c r="T11" s="18">
         <v>0</v>
       </c>
@@ -2273,7 +2303,7 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -2299,7 +2329,9 @@
       <c r="H12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="J12" s="24">
         <v>20</v>
       </c>
@@ -2329,7 +2361,9 @@
       <c r="R12" s="27">
         <v>4134</v>
       </c>
-      <c r="S12" s="17"/>
+      <c r="S12" s="17">
+        <v>11</v>
+      </c>
       <c r="T12" s="18">
         <v>0</v>
       </c>
@@ -2349,7 +2383,7 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="e">
         <f>IF(EXACT(B13,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -2425,7 +2459,7 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2501,7 +2535,7 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2577,7 +2611,7 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2653,7 +2687,7 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2729,7 +2763,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2805,7 +2839,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2881,7 +2915,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2957,7 +2991,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3033,7 +3067,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3109,7 +3143,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3185,7 +3219,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3261,7 +3295,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3337,7 +3371,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="e">
         <f>IF(EXACT(B26,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -3413,7 +3447,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3489,7 +3523,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3565,7 +3599,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3641,7 +3675,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3717,7 +3751,7 @@
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3793,7 +3827,7 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3869,7 +3903,7 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3945,7 +3979,7 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4021,7 +4055,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4097,7 +4131,7 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4173,7 +4207,7 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
@@ -4210,7 +4244,7 @@
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
@@ -4247,7 +4281,7 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44"/>
@@ -4284,7 +4318,7 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
@@ -4321,7 +4355,7 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
     </row>
-    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44"/>
@@ -4358,7 +4392,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44"/>
@@ -4395,7 +4429,7 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
@@ -4432,7 +4466,7 @@
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="6"/>
@@ -4469,7 +4503,7 @@
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
     </row>
-    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="6"/>
@@ -4506,7 +4540,7 @@
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="6"/>
@@ -4543,7 +4577,7 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="6"/>
@@ -4580,7 +4614,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="6"/>
@@ -4617,7 +4651,7 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="6"/>
@@ -4654,7 +4688,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="6"/>
@@ -4691,7 +4725,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="6"/>
@@ -4728,7 +4762,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="6"/>
@@ -4765,7 +4799,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="6"/>
@@ -4802,7 +4836,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="6"/>
@@ -4839,7 +4873,7 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="6"/>
@@ -4876,7 +4910,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="6"/>
@@ -4913,7 +4947,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
     </row>
-    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="6"/>
@@ -4950,7 +4984,7 @@
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
     </row>
-    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="6"/>
@@ -4987,7 +5021,7 @@
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
     </row>
-    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="6"/>
@@ -5024,7 +5058,7 @@
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
     </row>
-    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="6"/>
@@ -5061,7 +5095,7 @@
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
     </row>
-    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="6"/>
@@ -5098,7 +5132,7 @@
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
     </row>
-    <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="6"/>
@@ -5135,7 +5169,7 @@
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
     </row>
-    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="6"/>
@@ -5172,7 +5206,7 @@
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
     </row>
-    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="6"/>
@@ -5209,7 +5243,7 @@
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="6"/>
@@ -5246,7 +5280,7 @@
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
     </row>
-    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="6"/>
@@ -5283,7 +5317,7 @@
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
     </row>
-    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="6"/>
@@ -5320,7 +5354,7 @@
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
     </row>
-    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="6"/>
@@ -5357,7 +5391,7 @@
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
     </row>
-    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="6"/>
@@ -5394,7 +5428,7 @@
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
     </row>
-    <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="6"/>
@@ -5431,7 +5465,7 @@
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
     </row>
-    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="6"/>
@@ -5468,7 +5502,7 @@
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
     </row>
-    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="6"/>
@@ -5505,7 +5539,7 @@
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
     </row>
-    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="6"/>
@@ -5542,7 +5576,7 @@
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
     </row>
-    <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="6"/>
@@ -5579,7 +5613,7 @@
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
     </row>
-    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="6"/>
@@ -5616,7 +5650,7 @@
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
     </row>
-    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="6"/>
@@ -5653,7 +5687,7 @@
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
     </row>
-    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="6"/>
@@ -5690,7 +5724,7 @@
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
     </row>
-    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="6"/>
@@ -5727,7 +5761,7 @@
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
     </row>
-    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="6"/>
@@ -5764,7 +5798,7 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
     </row>
-    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="6"/>
@@ -5801,7 +5835,7 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
     </row>
-    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="6"/>
@@ -5838,7 +5872,7 @@
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
     </row>
-    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="6"/>
@@ -5875,7 +5909,7 @@
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
     </row>
-    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="6"/>
@@ -5912,7 +5946,7 @@
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
     </row>
-    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="6"/>
@@ -5949,7 +5983,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
     </row>
-    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="6"/>
@@ -5986,7 +6020,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
     </row>
-    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="6"/>
@@ -6023,7 +6057,7 @@
       <c r="AH86" s="6"/>
       <c r="AI86" s="6"/>
     </row>
-    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="6"/>
@@ -6060,7 +6094,7 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
     </row>
-    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="6"/>
@@ -6097,7 +6131,7 @@
       <c r="AH88" s="6"/>
       <c r="AI88" s="6"/>
     </row>
-    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="6"/>
@@ -6134,7 +6168,7 @@
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
     </row>
-    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="6"/>
@@ -6171,7 +6205,7 @@
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
     </row>
-    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="6"/>
@@ -6208,7 +6242,7 @@
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
     </row>
-    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="6"/>
@@ -6245,7 +6279,7 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
     </row>
-    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="6"/>
@@ -6282,7 +6316,7 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
     </row>
-    <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="6"/>
@@ -6319,7 +6353,7 @@
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
     </row>
-    <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="6"/>
@@ -6356,7 +6390,7 @@
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
     </row>
-    <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="6"/>
@@ -6393,7 +6427,7 @@
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
     </row>
-    <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="6"/>
@@ -6430,7 +6464,7 @@
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
     </row>
-    <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="6"/>
@@ -6467,7 +6501,7 @@
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
     </row>
-    <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="6"/>
@@ -6504,7 +6538,7 @@
       <c r="AH99" s="6"/>
       <c r="AI99" s="6"/>
     </row>
-    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="6"/>
@@ -6541,7 +6575,7 @@
       <c r="AH100" s="6"/>
       <c r="AI100" s="6"/>
     </row>
-    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="6"/>
@@ -6578,7 +6612,7 @@
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
     </row>
-    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="6"/>
@@ -6615,7 +6649,7 @@
       <c r="AH102" s="6"/>
       <c r="AI102" s="6"/>
     </row>
-    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="6"/>
@@ -6652,7 +6686,7 @@
       <c r="AH103" s="6"/>
       <c r="AI103" s="6"/>
     </row>
-    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="6"/>
@@ -6689,7 +6723,7 @@
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
     </row>
-    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="6"/>
@@ -6726,7 +6760,7 @@
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
     </row>
-    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="6"/>
@@ -6763,7 +6797,7 @@
       <c r="AH106" s="6"/>
       <c r="AI106" s="6"/>
     </row>
-    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="6"/>
@@ -6800,7 +6834,7 @@
       <c r="AH107" s="6"/>
       <c r="AI107" s="6"/>
     </row>
-    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="6"/>
@@ -6837,7 +6871,7 @@
       <c r="AH108" s="6"/>
       <c r="AI108" s="6"/>
     </row>
-    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="6"/>
@@ -6874,7 +6908,7 @@
       <c r="AH109" s="6"/>
       <c r="AI109" s="6"/>
     </row>
-    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="6"/>
@@ -6911,7 +6945,7 @@
       <c r="AH110" s="6"/>
       <c r="AI110" s="6"/>
     </row>
-    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="6"/>
@@ -6948,7 +6982,7 @@
       <c r="AH111" s="6"/>
       <c r="AI111" s="6"/>
     </row>
-    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="6"/>
@@ -6985,7 +7019,7 @@
       <c r="AH112" s="6"/>
       <c r="AI112" s="6"/>
     </row>
-    <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="6"/>
@@ -7022,7 +7056,7 @@
       <c r="AH113" s="6"/>
       <c r="AI113" s="6"/>
     </row>
-    <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="6"/>
@@ -7059,7 +7093,7 @@
       <c r="AH114" s="6"/>
       <c r="AI114" s="6"/>
     </row>
-    <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="6"/>
@@ -7096,7 +7130,7 @@
       <c r="AH115" s="6"/>
       <c r="AI115" s="6"/>
     </row>
-    <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="6"/>
@@ -7133,7 +7167,7 @@
       <c r="AH116" s="6"/>
       <c r="AI116" s="6"/>
     </row>
-    <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="6"/>
@@ -7170,7 +7204,7 @@
       <c r="AH117" s="6"/>
       <c r="AI117" s="6"/>
     </row>
-    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="6"/>
@@ -7207,7 +7241,7 @@
       <c r="AH118" s="6"/>
       <c r="AI118" s="6"/>
     </row>
-    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="C119" s="6"/>
@@ -7244,7 +7278,7 @@
       <c r="AH119" s="6"/>
       <c r="AI119" s="6"/>
     </row>
-    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="C120" s="6"/>
@@ -7281,7 +7315,7 @@
       <c r="AH120" s="6"/>
       <c r="AI120" s="6"/>
     </row>
-    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="6"/>
@@ -7318,7 +7352,7 @@
       <c r="AH121" s="6"/>
       <c r="AI121" s="6"/>
     </row>
-    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="6"/>
@@ -7355,7 +7389,7 @@
       <c r="AH122" s="6"/>
       <c r="AI122" s="6"/>
     </row>
-    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="6"/>
@@ -7392,7 +7426,7 @@
       <c r="AH123" s="6"/>
       <c r="AI123" s="6"/>
     </row>
-    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="6"/>
@@ -7429,7 +7463,7 @@
       <c r="AH124" s="6"/>
       <c r="AI124" s="6"/>
     </row>
-    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="6"/>
@@ -7466,7 +7500,7 @@
       <c r="AH125" s="6"/>
       <c r="AI125" s="6"/>
     </row>
-    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="6"/>
@@ -7503,7 +7537,7 @@
       <c r="AH126" s="6"/>
       <c r="AI126" s="6"/>
     </row>
-    <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="6"/>
@@ -7540,7 +7574,7 @@
       <c r="AH127" s="6"/>
       <c r="AI127" s="6"/>
     </row>
-    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="6"/>
@@ -7577,7 +7611,7 @@
       <c r="AH128" s="6"/>
       <c r="AI128" s="6"/>
     </row>
-    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="6"/>
@@ -7614,7 +7648,7 @@
       <c r="AH129" s="6"/>
       <c r="AI129" s="6"/>
     </row>
-    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="C130" s="6"/>
@@ -7651,7 +7685,7 @@
       <c r="AH130" s="6"/>
       <c r="AI130" s="6"/>
     </row>
-    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="C131" s="6"/>
@@ -7688,7 +7722,7 @@
       <c r="AH131" s="6"/>
       <c r="AI131" s="6"/>
     </row>
-    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="6"/>
@@ -7725,7 +7759,7 @@
       <c r="AH132" s="6"/>
       <c r="AI132" s="6"/>
     </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="C133" s="6"/>
@@ -7762,7 +7796,7 @@
       <c r="AH133" s="6"/>
       <c r="AI133" s="6"/>
     </row>
-    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="C134" s="6"/>
@@ -7799,7 +7833,7 @@
       <c r="AH134" s="6"/>
       <c r="AI134" s="6"/>
     </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="C135" s="6"/>
@@ -7836,7 +7870,7 @@
       <c r="AH135" s="6"/>
       <c r="AI135" s="6"/>
     </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="C136" s="6"/>
@@ -7873,7 +7907,7 @@
       <c r="AH136" s="6"/>
       <c r="AI136" s="6"/>
     </row>
-    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="C137" s="6"/>
@@ -7910,7 +7944,7 @@
       <c r="AH137" s="6"/>
       <c r="AI137" s="6"/>
     </row>
-    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="6"/>
@@ -7947,7 +7981,7 @@
       <c r="AH138" s="6"/>
       <c r="AI138" s="6"/>
     </row>
-    <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="C139" s="6"/>
@@ -7984,7 +8018,7 @@
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
     </row>
-    <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="C140" s="6"/>
@@ -8021,7 +8055,7 @@
       <c r="AH140" s="6"/>
       <c r="AI140" s="6"/>
     </row>
-    <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="C141" s="6"/>
@@ -8058,7 +8092,7 @@
       <c r="AH141" s="6"/>
       <c r="AI141" s="6"/>
     </row>
-    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="C142" s="6"/>
@@ -8095,7 +8129,7 @@
       <c r="AH142" s="6"/>
       <c r="AI142" s="6"/>
     </row>
-    <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="C143" s="6"/>
@@ -8132,7 +8166,7 @@
       <c r="AH143" s="6"/>
       <c r="AI143" s="6"/>
     </row>
-    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="C144" s="6"/>
@@ -8169,7 +8203,7 @@
       <c r="AH144" s="6"/>
       <c r="AI144" s="6"/>
     </row>
-    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="C145" s="6"/>
@@ -8206,7 +8240,7 @@
       <c r="AH145" s="6"/>
       <c r="AI145" s="6"/>
     </row>
-    <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="C146" s="6"/>
@@ -8243,7 +8277,7 @@
       <c r="AH146" s="6"/>
       <c r="AI146" s="6"/>
     </row>
-    <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="C147" s="6"/>
@@ -8280,7 +8314,7 @@
       <c r="AH147" s="6"/>
       <c r="AI147" s="6"/>
     </row>
-    <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="C148" s="6"/>
@@ -8317,7 +8351,7 @@
       <c r="AH148" s="6"/>
       <c r="AI148" s="6"/>
     </row>
-    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="C149" s="6"/>
@@ -8354,7 +8388,7 @@
       <c r="AH149" s="6"/>
       <c r="AI149" s="6"/>
     </row>
-    <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="C150" s="6"/>
@@ -8391,7 +8425,7 @@
       <c r="AH150" s="6"/>
       <c r="AI150" s="6"/>
     </row>
-    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="C151" s="6"/>
@@ -8428,7 +8462,7 @@
       <c r="AH151" s="6"/>
       <c r="AI151" s="6"/>
     </row>
-    <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="C152" s="6"/>
@@ -8465,7 +8499,7 @@
       <c r="AH152" s="6"/>
       <c r="AI152" s="6"/>
     </row>
-    <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="C153" s="6"/>
@@ -8502,7 +8536,7 @@
       <c r="AH153" s="6"/>
       <c r="AI153" s="6"/>
     </row>
-    <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="C154" s="6"/>
@@ -8539,7 +8573,7 @@
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
     </row>
-    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="C155" s="6"/>
@@ -8576,7 +8610,7 @@
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
     </row>
-    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="C156" s="6"/>
@@ -8613,7 +8647,7 @@
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
     </row>
-    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="C157" s="6"/>
@@ -8650,7 +8684,7 @@
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
     </row>
-    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="C158" s="6"/>
@@ -8687,7 +8721,7 @@
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
     </row>
-    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="C159" s="6"/>
@@ -8724,7 +8758,7 @@
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
     </row>
-    <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="C160" s="6"/>
@@ -8761,7 +8795,7 @@
       <c r="AH160" s="6"/>
       <c r="AI160" s="6"/>
     </row>
-    <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="C161" s="6"/>
@@ -8798,7 +8832,7 @@
       <c r="AH161" s="6"/>
       <c r="AI161" s="6"/>
     </row>
-    <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="C162" s="6"/>
@@ -8835,7 +8869,7 @@
       <c r="AH162" s="6"/>
       <c r="AI162" s="6"/>
     </row>
-    <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="C163" s="6"/>
@@ -8872,7 +8906,7 @@
       <c r="AH163" s="6"/>
       <c r="AI163" s="6"/>
     </row>
-    <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="C164" s="6"/>
@@ -8909,7 +8943,7 @@
       <c r="AH164" s="6"/>
       <c r="AI164" s="6"/>
     </row>
-    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="C165" s="6"/>
@@ -8946,7 +8980,7 @@
       <c r="AH165" s="6"/>
       <c r="AI165" s="6"/>
     </row>
-    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="C166" s="6"/>
@@ -8983,7 +9017,7 @@
       <c r="AH166" s="6"/>
       <c r="AI166" s="6"/>
     </row>
-    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="C167" s="6"/>
@@ -9020,7 +9054,7 @@
       <c r="AH167" s="6"/>
       <c r="AI167" s="6"/>
     </row>
-    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="C168" s="6"/>
@@ -9057,7 +9091,7 @@
       <c r="AH168" s="6"/>
       <c r="AI168" s="6"/>
     </row>
-    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="C169" s="6"/>
@@ -9094,7 +9128,7 @@
       <c r="AH169" s="6"/>
       <c r="AI169" s="6"/>
     </row>
-    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="C170" s="6"/>
@@ -9131,7 +9165,7 @@
       <c r="AH170" s="6"/>
       <c r="AI170" s="6"/>
     </row>
-    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="C171" s="6"/>
@@ -9168,7 +9202,7 @@
       <c r="AH171" s="6"/>
       <c r="AI171" s="6"/>
     </row>
-    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="C172" s="6"/>
@@ -9205,7 +9239,7 @@
       <c r="AH172" s="6"/>
       <c r="AI172" s="6"/>
     </row>
-    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="C173" s="6"/>
@@ -9242,7 +9276,7 @@
       <c r="AH173" s="6"/>
       <c r="AI173" s="6"/>
     </row>
-    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="C174" s="6"/>
@@ -9279,7 +9313,7 @@
       <c r="AH174" s="6"/>
       <c r="AI174" s="6"/>
     </row>
-    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="C175" s="6"/>
@@ -9316,7 +9350,7 @@
       <c r="AH175" s="6"/>
       <c r="AI175" s="6"/>
     </row>
-    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="C176" s="6"/>
@@ -9353,7 +9387,7 @@
       <c r="AH176" s="6"/>
       <c r="AI176" s="6"/>
     </row>
-    <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="C177" s="6"/>
@@ -9390,7 +9424,7 @@
       <c r="AH177" s="6"/>
       <c r="AI177" s="6"/>
     </row>
-    <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="C178" s="6"/>
@@ -9427,7 +9461,7 @@
       <c r="AH178" s="6"/>
       <c r="AI178" s="6"/>
     </row>
-    <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="C179" s="6"/>
@@ -9464,7 +9498,7 @@
       <c r="AH179" s="6"/>
       <c r="AI179" s="6"/>
     </row>
-    <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="C180" s="6"/>
@@ -9501,7 +9535,7 @@
       <c r="AH180" s="6"/>
       <c r="AI180" s="6"/>
     </row>
-    <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="C181" s="6"/>
@@ -9538,7 +9572,7 @@
       <c r="AH181" s="6"/>
       <c r="AI181" s="6"/>
     </row>
-    <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="C182" s="6"/>
@@ -9575,7 +9609,7 @@
       <c r="AH182" s="6"/>
       <c r="AI182" s="6"/>
     </row>
-    <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="C183" s="6"/>
@@ -9612,7 +9646,7 @@
       <c r="AH183" s="6"/>
       <c r="AI183" s="6"/>
     </row>
-    <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="C184" s="6"/>
@@ -9649,7 +9683,7 @@
       <c r="AH184" s="6"/>
       <c r="AI184" s="6"/>
     </row>
-    <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="C185" s="6"/>
@@ -9686,7 +9720,7 @@
       <c r="AH185" s="6"/>
       <c r="AI185" s="6"/>
     </row>
-    <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="C186" s="6"/>
@@ -9723,7 +9757,7 @@
       <c r="AH186" s="6"/>
       <c r="AI186" s="6"/>
     </row>
-    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="C187" s="6"/>
@@ -9760,7 +9794,7 @@
       <c r="AH187" s="6"/>
       <c r="AI187" s="6"/>
     </row>
-    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="C188" s="6"/>
@@ -9797,7 +9831,7 @@
       <c r="AH188" s="6"/>
       <c r="AI188" s="6"/>
     </row>
-    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="C189" s="6"/>
@@ -9834,7 +9868,7 @@
       <c r="AH189" s="6"/>
       <c r="AI189" s="6"/>
     </row>
-    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="C190" s="6"/>
@@ -9871,7 +9905,7 @@
       <c r="AH190" s="6"/>
       <c r="AI190" s="6"/>
     </row>
-    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="C191" s="6"/>
@@ -9908,7 +9942,7 @@
       <c r="AH191" s="6"/>
       <c r="AI191" s="6"/>
     </row>
-    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="C192" s="6"/>
@@ -9945,7 +9979,7 @@
       <c r="AH192" s="6"/>
       <c r="AI192" s="6"/>
     </row>
-    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="C193" s="6"/>
@@ -9982,7 +10016,7 @@
       <c r="AH193" s="6"/>
       <c r="AI193" s="6"/>
     </row>
-    <row r="194" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="C194" s="6"/>
@@ -10019,7 +10053,7 @@
       <c r="AH194" s="6"/>
       <c r="AI194" s="6"/>
     </row>
-    <row r="195" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="C195" s="6"/>
@@ -10056,7 +10090,7 @@
       <c r="AH195" s="6"/>
       <c r="AI195" s="6"/>
     </row>
-    <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="C196" s="6"/>
@@ -10093,7 +10127,7 @@
       <c r="AH196" s="6"/>
       <c r="AI196" s="6"/>
     </row>
-    <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="C197" s="6"/>
@@ -10130,7 +10164,7 @@
       <c r="AH197" s="6"/>
       <c r="AI197" s="6"/>
     </row>
-    <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="C198" s="6"/>
@@ -10167,7 +10201,7 @@
       <c r="AH198" s="6"/>
       <c r="AI198" s="6"/>
     </row>
-    <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="C199" s="6"/>
@@ -10204,7 +10238,7 @@
       <c r="AH199" s="6"/>
       <c r="AI199" s="6"/>
     </row>
-    <row r="200" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="6"/>
@@ -10241,7 +10275,7 @@
       <c r="AH200" s="6"/>
       <c r="AI200" s="6"/>
     </row>
-    <row r="201" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="6"/>
@@ -10278,7 +10312,7 @@
       <c r="AH201" s="6"/>
       <c r="AI201" s="6"/>
     </row>
-    <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="C202" s="6"/>
@@ -10315,7 +10349,7 @@
       <c r="AH202" s="6"/>
       <c r="AI202" s="6"/>
     </row>
-    <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="C203" s="6"/>
@@ -10352,7 +10386,7 @@
       <c r="AH203" s="6"/>
       <c r="AI203" s="6"/>
     </row>
-    <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="C204" s="6"/>
@@ -10389,7 +10423,7 @@
       <c r="AH204" s="6"/>
       <c r="AI204" s="6"/>
     </row>
-    <row r="205" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="C205" s="6"/>
@@ -10426,7 +10460,7 @@
       <c r="AH205" s="6"/>
       <c r="AI205" s="6"/>
     </row>
-    <row r="206" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="C206" s="6"/>
@@ -10463,7 +10497,7 @@
       <c r="AH206" s="6"/>
       <c r="AI206" s="6"/>
     </row>
-    <row r="207" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="C207" s="6"/>
@@ -10500,7 +10534,7 @@
       <c r="AH207" s="6"/>
       <c r="AI207" s="6"/>
     </row>
-    <row r="208" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="C208" s="6"/>
@@ -10537,7 +10571,7 @@
       <c r="AH208" s="6"/>
       <c r="AI208" s="6"/>
     </row>
-    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="C209" s="6"/>
@@ -10574,7 +10608,7 @@
       <c r="AH209" s="6"/>
       <c r="AI209" s="6"/>
     </row>
-    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="C210" s="6"/>
@@ -10611,7 +10645,7 @@
       <c r="AH210" s="6"/>
       <c r="AI210" s="6"/>
     </row>
-    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="C211" s="6"/>
@@ -10648,7 +10682,7 @@
       <c r="AH211" s="6"/>
       <c r="AI211" s="6"/>
     </row>
-    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="C212" s="6"/>
@@ -10685,7 +10719,7 @@
       <c r="AH212" s="6"/>
       <c r="AI212" s="6"/>
     </row>
-    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="C213" s="6"/>
@@ -10722,7 +10756,7 @@
       <c r="AH213" s="6"/>
       <c r="AI213" s="6"/>
     </row>
-    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="C214" s="6"/>
@@ -10759,7 +10793,7 @@
       <c r="AH214" s="6"/>
       <c r="AI214" s="6"/>
     </row>
-    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="C215" s="6"/>
@@ -10796,7 +10830,7 @@
       <c r="AH215" s="6"/>
       <c r="AI215" s="6"/>
     </row>
-    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="C216" s="6"/>
@@ -10833,7 +10867,7 @@
       <c r="AH216" s="6"/>
       <c r="AI216" s="6"/>
     </row>
-    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="C217" s="6"/>
@@ -10870,7 +10904,7 @@
       <c r="AH217" s="6"/>
       <c r="AI217" s="6"/>
     </row>
-    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="C218" s="6"/>
@@ -10907,7 +10941,7 @@
       <c r="AH218" s="6"/>
       <c r="AI218" s="6"/>
     </row>
-    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="C219" s="6"/>
@@ -10944,7 +10978,7 @@
       <c r="AH219" s="6"/>
       <c r="AI219" s="6"/>
     </row>
-    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="C220" s="6"/>
@@ -10981,7 +11015,7 @@
       <c r="AH220" s="6"/>
       <c r="AI220" s="6"/>
     </row>
-    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="C221" s="6"/>
@@ -11018,7 +11052,7 @@
       <c r="AH221" s="6"/>
       <c r="AI221" s="6"/>
     </row>
-    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="C222" s="6"/>
@@ -11055,7 +11089,7 @@
       <c r="AH222" s="6"/>
       <c r="AI222" s="6"/>
     </row>
-    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="C223" s="6"/>
@@ -11092,7 +11126,7 @@
       <c r="AH223" s="6"/>
       <c r="AI223" s="6"/>
     </row>
-    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="C224" s="6"/>
@@ -11129,7 +11163,7 @@
       <c r="AH224" s="6"/>
       <c r="AI224" s="6"/>
     </row>
-    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="C225" s="6"/>
@@ -11166,7 +11200,7 @@
       <c r="AH225" s="6"/>
       <c r="AI225" s="6"/>
     </row>
-    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="C226" s="6"/>
@@ -11203,7 +11237,7 @@
       <c r="AH226" s="6"/>
       <c r="AI226" s="6"/>
     </row>
-    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="C227" s="6"/>
@@ -11240,7 +11274,7 @@
       <c r="AH227" s="6"/>
       <c r="AI227" s="6"/>
     </row>
-    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="C228" s="6"/>
@@ -11277,7 +11311,7 @@
       <c r="AH228" s="6"/>
       <c r="AI228" s="6"/>
     </row>
-    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="C229" s="6"/>
@@ -11314,7 +11348,7 @@
       <c r="AH229" s="6"/>
       <c r="AI229" s="6"/>
     </row>
-    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="C230" s="6"/>
@@ -11351,7 +11385,7 @@
       <c r="AH230" s="6"/>
       <c r="AI230" s="6"/>
     </row>
-    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="C231" s="6"/>
@@ -11388,7 +11422,7 @@
       <c r="AH231" s="6"/>
       <c r="AI231" s="6"/>
     </row>
-    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="C232" s="6"/>
@@ -11425,7 +11459,7 @@
       <c r="AH232" s="6"/>
       <c r="AI232" s="6"/>
     </row>
-    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="C233" s="6"/>
@@ -11462,7 +11496,7 @@
       <c r="AH233" s="6"/>
       <c r="AI233" s="6"/>
     </row>
-    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="C234" s="6"/>
@@ -11499,7 +11533,7 @@
       <c r="AH234" s="6"/>
       <c r="AI234" s="6"/>
     </row>
-    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="C235" s="6"/>
@@ -11536,7 +11570,7 @@
       <c r="AH235" s="6"/>
       <c r="AI235" s="6"/>
     </row>
-    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="C236" s="6"/>
@@ -11573,7 +11607,7 @@
       <c r="AH236" s="6"/>
       <c r="AI236" s="6"/>
     </row>
-    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="C237" s="6"/>
@@ -11610,7 +11644,7 @@
       <c r="AH237" s="6"/>
       <c r="AI237" s="6"/>
     </row>
-    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="C238" s="6"/>
@@ -11647,7 +11681,7 @@
       <c r="AH238" s="6"/>
       <c r="AI238" s="6"/>
     </row>
-    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="C239" s="6"/>
@@ -11684,7 +11718,7 @@
       <c r="AH239" s="6"/>
       <c r="AI239" s="6"/>
     </row>
-    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="C240" s="6"/>
@@ -11721,7 +11755,7 @@
       <c r="AH240" s="6"/>
       <c r="AI240" s="6"/>
     </row>
-    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="C241" s="6"/>
@@ -11758,7 +11792,7 @@
       <c r="AH241" s="6"/>
       <c r="AI241" s="6"/>
     </row>
-    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="C242" s="6"/>
@@ -11795,7 +11829,7 @@
       <c r="AH242" s="6"/>
       <c r="AI242" s="6"/>
     </row>
-    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="6"/>
@@ -11832,7 +11866,7 @@
       <c r="AH243" s="6"/>
       <c r="AI243" s="6"/>
     </row>
-    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="C244" s="6"/>
@@ -11869,7 +11903,7 @@
       <c r="AH244" s="6"/>
       <c r="AI244" s="6"/>
     </row>
-    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="C245" s="6"/>
@@ -11906,7 +11940,7 @@
       <c r="AH245" s="6"/>
       <c r="AI245" s="6"/>
     </row>
-    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="C246" s="6"/>
@@ -11943,7 +11977,7 @@
       <c r="AH246" s="6"/>
       <c r="AI246" s="6"/>
     </row>
-    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="C247" s="6"/>
@@ -11980,7 +12014,7 @@
       <c r="AH247" s="6"/>
       <c r="AI247" s="6"/>
     </row>
-    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="C248" s="6"/>
@@ -12017,7 +12051,7 @@
       <c r="AH248" s="6"/>
       <c r="AI248" s="6"/>
     </row>
-    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="C249" s="6"/>
@@ -12054,7 +12088,7 @@
       <c r="AH249" s="6"/>
       <c r="AI249" s="6"/>
     </row>
-    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="C250" s="6"/>
@@ -12091,7 +12125,7 @@
       <c r="AH250" s="6"/>
       <c r="AI250" s="6"/>
     </row>
-    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="C251" s="6"/>
@@ -12128,7 +12162,7 @@
       <c r="AH251" s="6"/>
       <c r="AI251" s="6"/>
     </row>
-    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="C252" s="6"/>
@@ -12165,7 +12199,7 @@
       <c r="AH252" s="6"/>
       <c r="AI252" s="6"/>
     </row>
-    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="C253" s="6"/>
@@ -12202,7 +12236,7 @@
       <c r="AH253" s="6"/>
       <c r="AI253" s="6"/>
     </row>
-    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="C254" s="6"/>
@@ -12239,7 +12273,7 @@
       <c r="AH254" s="6"/>
       <c r="AI254" s="6"/>
     </row>
-    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="C255" s="6"/>
@@ -12276,7 +12310,7 @@
       <c r="AH255" s="6"/>
       <c r="AI255" s="6"/>
     </row>
-    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="C256" s="6"/>
@@ -12313,7 +12347,7 @@
       <c r="AH256" s="6"/>
       <c r="AI256" s="6"/>
     </row>
-    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="C257" s="6"/>
@@ -12350,7 +12384,7 @@
       <c r="AH257" s="6"/>
       <c r="AI257" s="6"/>
     </row>
-    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="C258" s="6"/>
@@ -12387,7 +12421,7 @@
       <c r="AH258" s="6"/>
       <c r="AI258" s="6"/>
     </row>
-    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="C259" s="6"/>
@@ -12424,7 +12458,7 @@
       <c r="AH259" s="6"/>
       <c r="AI259" s="6"/>
     </row>
-    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="C260" s="6"/>
@@ -12461,7 +12495,7 @@
       <c r="AH260" s="6"/>
       <c r="AI260" s="6"/>
     </row>
-    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="C261" s="6"/>
@@ -12498,7 +12532,7 @@
       <c r="AH261" s="6"/>
       <c r="AI261" s="6"/>
     </row>
-    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="C262" s="6"/>
@@ -12535,7 +12569,7 @@
       <c r="AH262" s="6"/>
       <c r="AI262" s="6"/>
     </row>
-    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="C263" s="6"/>
@@ -12572,7 +12606,7 @@
       <c r="AH263" s="6"/>
       <c r="AI263" s="6"/>
     </row>
-    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="C264" s="6"/>
@@ -12609,7 +12643,7 @@
       <c r="AH264" s="6"/>
       <c r="AI264" s="6"/>
     </row>
-    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="C265" s="6"/>
@@ -12646,7 +12680,7 @@
       <c r="AH265" s="6"/>
       <c r="AI265" s="6"/>
     </row>
-    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="C266" s="6"/>
@@ -12683,7 +12717,7 @@
       <c r="AH266" s="6"/>
       <c r="AI266" s="6"/>
     </row>
-    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="C267" s="6"/>
@@ -12720,7 +12754,7 @@
       <c r="AH267" s="6"/>
       <c r="AI267" s="6"/>
     </row>
-    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="C268" s="6"/>
@@ -12757,7 +12791,7 @@
       <c r="AH268" s="6"/>
       <c r="AI268" s="6"/>
     </row>
-    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="C269" s="6"/>
@@ -12794,7 +12828,7 @@
       <c r="AH269" s="6"/>
       <c r="AI269" s="6"/>
     </row>
-    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="C270" s="6"/>
@@ -12831,7 +12865,7 @@
       <c r="AH270" s="6"/>
       <c r="AI270" s="6"/>
     </row>
-    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="C271" s="6"/>
@@ -12868,7 +12902,7 @@
       <c r="AH271" s="6"/>
       <c r="AI271" s="6"/>
     </row>
-    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="C272" s="6"/>
@@ -12905,7 +12939,7 @@
       <c r="AH272" s="6"/>
       <c r="AI272" s="6"/>
     </row>
-    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="C273" s="6"/>
@@ -12942,7 +12976,7 @@
       <c r="AH273" s="6"/>
       <c r="AI273" s="6"/>
     </row>
-    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="C274" s="6"/>
@@ -12979,7 +13013,7 @@
       <c r="AH274" s="6"/>
       <c r="AI274" s="6"/>
     </row>
-    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="C275" s="6"/>
@@ -13016,7 +13050,7 @@
       <c r="AH275" s="6"/>
       <c r="AI275" s="6"/>
     </row>
-    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="C276" s="6"/>
@@ -13053,7 +13087,7 @@
       <c r="AH276" s="6"/>
       <c r="AI276" s="6"/>
     </row>
-    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="C277" s="6"/>
@@ -13090,7 +13124,7 @@
       <c r="AH277" s="6"/>
       <c r="AI277" s="6"/>
     </row>
-    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="C278" s="6"/>
@@ -13127,7 +13161,7 @@
       <c r="AH278" s="6"/>
       <c r="AI278" s="6"/>
     </row>
-    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="C279" s="6"/>
@@ -13164,7 +13198,7 @@
       <c r="AH279" s="6"/>
       <c r="AI279" s="6"/>
     </row>
-    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="C280" s="6"/>
@@ -13201,7 +13235,7 @@
       <c r="AH280" s="6"/>
       <c r="AI280" s="6"/>
     </row>
-    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="C281" s="6"/>
@@ -13238,7 +13272,7 @@
       <c r="AH281" s="6"/>
       <c r="AI281" s="6"/>
     </row>
-    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="C282" s="6"/>
@@ -13275,7 +13309,7 @@
       <c r="AH282" s="6"/>
       <c r="AI282" s="6"/>
     </row>
-    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="C283" s="6"/>
@@ -13312,7 +13346,7 @@
       <c r="AH283" s="6"/>
       <c r="AI283" s="6"/>
     </row>
-    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="C284" s="6"/>
@@ -13349,7 +13383,7 @@
       <c r="AH284" s="6"/>
       <c r="AI284" s="6"/>
     </row>
-    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="C285" s="6"/>
@@ -13386,7 +13420,7 @@
       <c r="AH285" s="6"/>
       <c r="AI285" s="6"/>
     </row>
-    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="C286" s="6"/>
@@ -13423,7 +13457,7 @@
       <c r="AH286" s="6"/>
       <c r="AI286" s="6"/>
     </row>
-    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="C287" s="6"/>
@@ -13460,7 +13494,7 @@
       <c r="AH287" s="6"/>
       <c r="AI287" s="6"/>
     </row>
-    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="C288" s="6"/>
@@ -13497,7 +13531,7 @@
       <c r="AH288" s="6"/>
       <c r="AI288" s="6"/>
     </row>
-    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="C289" s="6"/>
@@ -13534,7 +13568,7 @@
       <c r="AH289" s="6"/>
       <c r="AI289" s="6"/>
     </row>
-    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="C290" s="6"/>
@@ -13571,7 +13605,7 @@
       <c r="AH290" s="6"/>
       <c r="AI290" s="6"/>
     </row>
-    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="C291" s="6"/>
@@ -13608,7 +13642,7 @@
       <c r="AH291" s="6"/>
       <c r="AI291" s="6"/>
     </row>
-    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="C292" s="6"/>
@@ -13645,7 +13679,7 @@
       <c r="AH292" s="6"/>
       <c r="AI292" s="6"/>
     </row>
-    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="C293" s="6"/>
@@ -13682,7 +13716,7 @@
       <c r="AH293" s="6"/>
       <c r="AI293" s="6"/>
     </row>
-    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="C294" s="6"/>
@@ -13719,7 +13753,7 @@
       <c r="AH294" s="6"/>
       <c r="AI294" s="6"/>
     </row>
-    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="C295" s="6"/>
@@ -13756,7 +13790,7 @@
       <c r="AH295" s="6"/>
       <c r="AI295" s="6"/>
     </row>
-    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="C296" s="6"/>
@@ -13793,7 +13827,7 @@
       <c r="AH296" s="6"/>
       <c r="AI296" s="6"/>
     </row>
-    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="C297" s="6"/>
@@ -13830,7 +13864,7 @@
       <c r="AH297" s="6"/>
       <c r="AI297" s="6"/>
     </row>
-    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="C298" s="6"/>
@@ -13867,7 +13901,7 @@
       <c r="AH298" s="6"/>
       <c r="AI298" s="6"/>
     </row>
-    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="C299" s="6"/>
@@ -13904,7 +13938,7 @@
       <c r="AH299" s="6"/>
       <c r="AI299" s="6"/>
     </row>
-    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="C300" s="6"/>
@@ -13941,7 +13975,7 @@
       <c r="AH300" s="6"/>
       <c r="AI300" s="6"/>
     </row>
-    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="C301" s="6"/>
@@ -13978,7 +14012,7 @@
       <c r="AH301" s="6"/>
       <c r="AI301" s="6"/>
     </row>
-    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="C302" s="6"/>
@@ -14015,7 +14049,7 @@
       <c r="AH302" s="6"/>
       <c r="AI302" s="6"/>
     </row>
-    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="C303" s="6"/>
@@ -14052,7 +14086,7 @@
       <c r="AH303" s="6"/>
       <c r="AI303" s="6"/>
     </row>
-    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="C304" s="6"/>
@@ -14089,7 +14123,7 @@
       <c r="AH304" s="6"/>
       <c r="AI304" s="6"/>
     </row>
-    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="C305" s="6"/>
@@ -14126,7 +14160,7 @@
       <c r="AH305" s="6"/>
       <c r="AI305" s="6"/>
     </row>
-    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="C306" s="6"/>
@@ -14163,7 +14197,7 @@
       <c r="AH306" s="6"/>
       <c r="AI306" s="6"/>
     </row>
-    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="C307" s="6"/>
@@ -14200,7 +14234,7 @@
       <c r="AH307" s="6"/>
       <c r="AI307" s="6"/>
     </row>
-    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="C308" s="6"/>
@@ -14237,7 +14271,7 @@
       <c r="AH308" s="6"/>
       <c r="AI308" s="6"/>
     </row>
-    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="C309" s="6"/>
@@ -14274,7 +14308,7 @@
       <c r="AH309" s="6"/>
       <c r="AI309" s="6"/>
     </row>
-    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="C310" s="6"/>
@@ -14311,7 +14345,7 @@
       <c r="AH310" s="6"/>
       <c r="AI310" s="6"/>
     </row>
-    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="C311" s="6"/>
@@ -14348,7 +14382,7 @@
       <c r="AH311" s="6"/>
       <c r="AI311" s="6"/>
     </row>
-    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="C312" s="6"/>
@@ -14385,7 +14419,7 @@
       <c r="AH312" s="6"/>
       <c r="AI312" s="6"/>
     </row>
-    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="C313" s="6"/>
@@ -14422,7 +14456,7 @@
       <c r="AH313" s="6"/>
       <c r="AI313" s="6"/>
     </row>
-    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="C314" s="6"/>
@@ -14459,7 +14493,7 @@
       <c r="AH314" s="6"/>
       <c r="AI314" s="6"/>
     </row>
-    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="C315" s="6"/>
@@ -14496,7 +14530,7 @@
       <c r="AH315" s="6"/>
       <c r="AI315" s="6"/>
     </row>
-    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="C316" s="6"/>
@@ -14533,7 +14567,7 @@
       <c r="AH316" s="6"/>
       <c r="AI316" s="6"/>
     </row>
-    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="C317" s="6"/>
@@ -14570,7 +14604,7 @@
       <c r="AH317" s="6"/>
       <c r="AI317" s="6"/>
     </row>
-    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="C318" s="6"/>
@@ -14607,7 +14641,7 @@
       <c r="AH318" s="6"/>
       <c r="AI318" s="6"/>
     </row>
-    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="C319" s="6"/>
@@ -14644,7 +14678,7 @@
       <c r="AH319" s="6"/>
       <c r="AI319" s="6"/>
     </row>
-    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="C320" s="6"/>
@@ -14681,7 +14715,7 @@
       <c r="AH320" s="6"/>
       <c r="AI320" s="6"/>
     </row>
-    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="C321" s="6"/>
@@ -14718,7 +14752,7 @@
       <c r="AH321" s="6"/>
       <c r="AI321" s="6"/>
     </row>
-    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="C322" s="6"/>
@@ -14755,7 +14789,7 @@
       <c r="AH322" s="6"/>
       <c r="AI322" s="6"/>
     </row>
-    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="C323" s="6"/>
@@ -14792,7 +14826,7 @@
       <c r="AH323" s="6"/>
       <c r="AI323" s="6"/>
     </row>
-    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="C324" s="6"/>
@@ -14829,7 +14863,7 @@
       <c r="AH324" s="6"/>
       <c r="AI324" s="6"/>
     </row>
-    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="C325" s="6"/>
@@ -14866,7 +14900,7 @@
       <c r="AH325" s="6"/>
       <c r="AI325" s="6"/>
     </row>
-    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="C326" s="6"/>
@@ -14903,7 +14937,7 @@
       <c r="AH326" s="6"/>
       <c r="AI326" s="6"/>
     </row>
-    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="C327" s="6"/>
@@ -14940,7 +14974,7 @@
       <c r="AH327" s="6"/>
       <c r="AI327" s="6"/>
     </row>
-    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="C328" s="6"/>
@@ -14977,7 +15011,7 @@
       <c r="AH328" s="6"/>
       <c r="AI328" s="6"/>
     </row>
-    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="C329" s="6"/>
@@ -15014,7 +15048,7 @@
       <c r="AH329" s="6"/>
       <c r="AI329" s="6"/>
     </row>
-    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="C330" s="6"/>
@@ -15051,7 +15085,7 @@
       <c r="AH330" s="6"/>
       <c r="AI330" s="6"/>
     </row>
-    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="C331" s="6"/>
@@ -15088,7 +15122,7 @@
       <c r="AH331" s="6"/>
       <c r="AI331" s="6"/>
     </row>
-    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="C332" s="6"/>
@@ -15125,7 +15159,7 @@
       <c r="AH332" s="6"/>
       <c r="AI332" s="6"/>
     </row>
-    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="C333" s="6"/>
@@ -15162,7 +15196,7 @@
       <c r="AH333" s="6"/>
       <c r="AI333" s="6"/>
     </row>
-    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="C334" s="6"/>
@@ -15199,7 +15233,7 @@
       <c r="AH334" s="6"/>
       <c r="AI334" s="6"/>
     </row>
-    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="C335" s="6"/>
@@ -15236,7 +15270,7 @@
       <c r="AH335" s="6"/>
       <c r="AI335" s="6"/>
     </row>
-    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="C336" s="6"/>
@@ -15273,7 +15307,7 @@
       <c r="AH336" s="6"/>
       <c r="AI336" s="6"/>
     </row>
-    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="C337" s="6"/>
@@ -15310,7 +15344,7 @@
       <c r="AH337" s="6"/>
       <c r="AI337" s="6"/>
     </row>
-    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="C338" s="6"/>
@@ -15347,7 +15381,7 @@
       <c r="AH338" s="6"/>
       <c r="AI338" s="6"/>
     </row>
-    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="C339" s="6"/>
@@ -15384,7 +15418,7 @@
       <c r="AH339" s="6"/>
       <c r="AI339" s="6"/>
     </row>
-    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="C340" s="6"/>
@@ -15421,7 +15455,7 @@
       <c r="AH340" s="6"/>
       <c r="AI340" s="6"/>
     </row>
-    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="C341" s="6"/>
@@ -15458,7 +15492,7 @@
       <c r="AH341" s="6"/>
       <c r="AI341" s="6"/>
     </row>
-    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="C342" s="6"/>
@@ -15495,7 +15529,7 @@
       <c r="AH342" s="6"/>
       <c r="AI342" s="6"/>
     </row>
-    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="C343" s="6"/>
@@ -15532,7 +15566,7 @@
       <c r="AH343" s="6"/>
       <c r="AI343" s="6"/>
     </row>
-    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="C344" s="6"/>
@@ -15569,7 +15603,7 @@
       <c r="AH344" s="6"/>
       <c r="AI344" s="6"/>
     </row>
-    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="C345" s="6"/>
@@ -15606,7 +15640,7 @@
       <c r="AH345" s="6"/>
       <c r="AI345" s="6"/>
     </row>
-    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="C346" s="6"/>
@@ -15643,7 +15677,7 @@
       <c r="AH346" s="6"/>
       <c r="AI346" s="6"/>
     </row>
-    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="C347" s="6"/>
@@ -15680,7 +15714,7 @@
       <c r="AH347" s="6"/>
       <c r="AI347" s="6"/>
     </row>
-    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="C348" s="6"/>
@@ -15717,7 +15751,7 @@
       <c r="AH348" s="6"/>
       <c r="AI348" s="6"/>
     </row>
-    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="C349" s="6"/>
@@ -15754,7 +15788,7 @@
       <c r="AH349" s="6"/>
       <c r="AI349" s="6"/>
     </row>
-    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="C350" s="6"/>
@@ -15791,7 +15825,7 @@
       <c r="AH350" s="6"/>
       <c r="AI350" s="6"/>
     </row>
-    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="C351" s="6"/>
@@ -15828,7 +15862,7 @@
       <c r="AH351" s="6"/>
       <c r="AI351" s="6"/>
     </row>
-    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="C352" s="6"/>
@@ -15865,7 +15899,7 @@
       <c r="AH352" s="6"/>
       <c r="AI352" s="6"/>
     </row>
-    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="C353" s="6"/>
@@ -15902,7 +15936,7 @@
       <c r="AH353" s="6"/>
       <c r="AI353" s="6"/>
     </row>
-    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="C354" s="6"/>
@@ -15939,7 +15973,7 @@
       <c r="AH354" s="6"/>
       <c r="AI354" s="6"/>
     </row>
-    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="C355" s="6"/>
@@ -15976,7 +16010,7 @@
       <c r="AH355" s="6"/>
       <c r="AI355" s="6"/>
     </row>
-    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="C356" s="6"/>
@@ -16013,7 +16047,7 @@
       <c r="AH356" s="6"/>
       <c r="AI356" s="6"/>
     </row>
-    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="C357" s="6"/>
@@ -16050,7 +16084,7 @@
       <c r="AH357" s="6"/>
       <c r="AI357" s="6"/>
     </row>
-    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="C358" s="6"/>
@@ -16087,7 +16121,7 @@
       <c r="AH358" s="6"/>
       <c r="AI358" s="6"/>
     </row>
-    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="C359" s="6"/>
@@ -16124,7 +16158,7 @@
       <c r="AH359" s="6"/>
       <c r="AI359" s="6"/>
     </row>
-    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="C360" s="6"/>
@@ -16161,7 +16195,7 @@
       <c r="AH360" s="6"/>
       <c r="AI360" s="6"/>
     </row>
-    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="C361" s="6"/>
@@ -16198,7 +16232,7 @@
       <c r="AH361" s="6"/>
       <c r="AI361" s="6"/>
     </row>
-    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="C362" s="6"/>
@@ -16235,7 +16269,7 @@
       <c r="AH362" s="6"/>
       <c r="AI362" s="6"/>
     </row>
-    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="C363" s="6"/>
@@ -16272,7 +16306,7 @@
       <c r="AH363" s="6"/>
       <c r="AI363" s="6"/>
     </row>
-    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="C364" s="6"/>
@@ -16309,7 +16343,7 @@
       <c r="AH364" s="6"/>
       <c r="AI364" s="6"/>
     </row>
-    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="C365" s="6"/>
@@ -16346,7 +16380,7 @@
       <c r="AH365" s="6"/>
       <c r="AI365" s="6"/>
     </row>
-    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="C366" s="6"/>
@@ -16383,7 +16417,7 @@
       <c r="AH366" s="6"/>
       <c r="AI366" s="6"/>
     </row>
-    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="C367" s="6"/>
@@ -16420,7 +16454,7 @@
       <c r="AH367" s="6"/>
       <c r="AI367" s="6"/>
     </row>
-    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="C368" s="6"/>
@@ -16457,7 +16491,7 @@
       <c r="AH368" s="6"/>
       <c r="AI368" s="6"/>
     </row>
-    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="C369" s="6"/>
@@ -16494,7 +16528,7 @@
       <c r="AH369" s="6"/>
       <c r="AI369" s="6"/>
     </row>
-    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="C370" s="6"/>
@@ -16531,7 +16565,7 @@
       <c r="AH370" s="6"/>
       <c r="AI370" s="6"/>
     </row>
-    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="C371" s="6"/>
@@ -16568,7 +16602,7 @@
       <c r="AH371" s="6"/>
       <c r="AI371" s="6"/>
     </row>
-    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="C372" s="6"/>
@@ -16605,7 +16639,7 @@
       <c r="AH372" s="6"/>
       <c r="AI372" s="6"/>
     </row>
-    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="C373" s="6"/>
@@ -16642,7 +16676,7 @@
       <c r="AH373" s="6"/>
       <c r="AI373" s="6"/>
     </row>
-    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="C374" s="6"/>
@@ -16679,7 +16713,7 @@
       <c r="AH374" s="6"/>
       <c r="AI374" s="6"/>
     </row>
-    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="C375" s="6"/>
@@ -16716,7 +16750,7 @@
       <c r="AH375" s="6"/>
       <c r="AI375" s="6"/>
     </row>
-    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="C376" s="6"/>
@@ -16753,7 +16787,7 @@
       <c r="AH376" s="6"/>
       <c r="AI376" s="6"/>
     </row>
-    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="C377" s="6"/>
@@ -16790,7 +16824,7 @@
       <c r="AH377" s="6"/>
       <c r="AI377" s="6"/>
     </row>
-    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="C378" s="6"/>
@@ -16827,7 +16861,7 @@
       <c r="AH378" s="6"/>
       <c r="AI378" s="6"/>
     </row>
-    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="C379" s="6"/>
@@ -16864,7 +16898,7 @@
       <c r="AH379" s="6"/>
       <c r="AI379" s="6"/>
     </row>
-    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="C380" s="6"/>
@@ -16901,7 +16935,7 @@
       <c r="AH380" s="6"/>
       <c r="AI380" s="6"/>
     </row>
-    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="C381" s="6"/>
@@ -16938,7 +16972,7 @@
       <c r="AH381" s="6"/>
       <c r="AI381" s="6"/>
     </row>
-    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="C382" s="6"/>
@@ -16975,7 +17009,7 @@
       <c r="AH382" s="6"/>
       <c r="AI382" s="6"/>
     </row>
-    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="C383" s="6"/>
@@ -17012,7 +17046,7 @@
       <c r="AH383" s="6"/>
       <c r="AI383" s="6"/>
     </row>
-    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="C384" s="6"/>
@@ -17049,7 +17083,7 @@
       <c r="AH384" s="6"/>
       <c r="AI384" s="6"/>
     </row>
-    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="C385" s="6"/>
@@ -17086,7 +17120,7 @@
       <c r="AH385" s="6"/>
       <c r="AI385" s="6"/>
     </row>
-    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="C386" s="6"/>
@@ -17123,7 +17157,7 @@
       <c r="AH386" s="6"/>
       <c r="AI386" s="6"/>
     </row>
-    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="C387" s="6"/>
@@ -17160,7 +17194,7 @@
       <c r="AH387" s="6"/>
       <c r="AI387" s="6"/>
     </row>
-    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="C388" s="6"/>
@@ -17197,7 +17231,7 @@
       <c r="AH388" s="6"/>
       <c r="AI388" s="6"/>
     </row>
-    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="C389" s="6"/>
@@ -17234,7 +17268,7 @@
       <c r="AH389" s="6"/>
       <c r="AI389" s="6"/>
     </row>
-    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="C390" s="6"/>
@@ -17271,7 +17305,7 @@
       <c r="AH390" s="6"/>
       <c r="AI390" s="6"/>
     </row>
-    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="C391" s="6"/>
@@ -17308,7 +17342,7 @@
       <c r="AH391" s="6"/>
       <c r="AI391" s="6"/>
     </row>
-    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="C392" s="6"/>
@@ -17345,7 +17379,7 @@
       <c r="AH392" s="6"/>
       <c r="AI392" s="6"/>
     </row>
-    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="C393" s="6"/>
@@ -17382,7 +17416,7 @@
       <c r="AH393" s="6"/>
       <c r="AI393" s="6"/>
     </row>
-    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="C394" s="6"/>
@@ -17419,7 +17453,7 @@
       <c r="AH394" s="6"/>
       <c r="AI394" s="6"/>
     </row>
-    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="C395" s="6"/>
@@ -17456,7 +17490,7 @@
       <c r="AH395" s="6"/>
       <c r="AI395" s="6"/>
     </row>
-    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="C396" s="6"/>
@@ -17493,7 +17527,7 @@
       <c r="AH396" s="6"/>
       <c r="AI396" s="6"/>
     </row>
-    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="C397" s="6"/>
@@ -17530,7 +17564,7 @@
       <c r="AH397" s="6"/>
       <c r="AI397" s="6"/>
     </row>
-    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="C398" s="6"/>
@@ -17567,7 +17601,7 @@
       <c r="AH398" s="6"/>
       <c r="AI398" s="6"/>
     </row>
-    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="C399" s="6"/>
@@ -17604,7 +17638,7 @@
       <c r="AH399" s="6"/>
       <c r="AI399" s="6"/>
     </row>
-    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="C400" s="6"/>
@@ -17641,7 +17675,7 @@
       <c r="AH400" s="6"/>
       <c r="AI400" s="6"/>
     </row>
-    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="C401" s="6"/>
@@ -17678,7 +17712,7 @@
       <c r="AH401" s="6"/>
       <c r="AI401" s="6"/>
     </row>
-    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="C402" s="6"/>
@@ -17715,7 +17749,7 @@
       <c r="AH402" s="6"/>
       <c r="AI402" s="6"/>
     </row>
-    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="C403" s="6"/>
@@ -17752,7 +17786,7 @@
       <c r="AH403" s="6"/>
       <c r="AI403" s="6"/>
     </row>
-    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="C404" s="6"/>
@@ -17789,7 +17823,7 @@
       <c r="AH404" s="6"/>
       <c r="AI404" s="6"/>
     </row>
-    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="C405" s="6"/>
@@ -17826,7 +17860,7 @@
       <c r="AH405" s="6"/>
       <c r="AI405" s="6"/>
     </row>
-    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="C406" s="6"/>
@@ -17863,7 +17897,7 @@
       <c r="AH406" s="6"/>
       <c r="AI406" s="6"/>
     </row>
-    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="C407" s="6"/>
@@ -17900,7 +17934,7 @@
       <c r="AH407" s="6"/>
       <c r="AI407" s="6"/>
     </row>
-    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="C408" s="6"/>
@@ -17937,7 +17971,7 @@
       <c r="AH408" s="6"/>
       <c r="AI408" s="6"/>
     </row>
-    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="C409" s="6"/>
@@ -17974,7 +18008,7 @@
       <c r="AH409" s="6"/>
       <c r="AI409" s="6"/>
     </row>
-    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="C410" s="6"/>
@@ -18011,7 +18045,7 @@
       <c r="AH410" s="6"/>
       <c r="AI410" s="6"/>
     </row>
-    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="C411" s="6"/>
@@ -18048,7 +18082,7 @@
       <c r="AH411" s="6"/>
       <c r="AI411" s="6"/>
     </row>
-    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="C412" s="6"/>
@@ -18085,7 +18119,7 @@
       <c r="AH412" s="6"/>
       <c r="AI412" s="6"/>
     </row>
-    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="C413" s="6"/>
@@ -18122,7 +18156,7 @@
       <c r="AH413" s="6"/>
       <c r="AI413" s="6"/>
     </row>
-    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="C414" s="6"/>
@@ -18159,7 +18193,7 @@
       <c r="AH414" s="6"/>
       <c r="AI414" s="6"/>
     </row>
-    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="C415" s="6"/>
@@ -18196,7 +18230,7 @@
       <c r="AH415" s="6"/>
       <c r="AI415" s="6"/>
     </row>
-    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="C416" s="6"/>
@@ -18233,7 +18267,7 @@
       <c r="AH416" s="6"/>
       <c r="AI416" s="6"/>
     </row>
-    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="C417" s="6"/>
@@ -18270,7 +18304,7 @@
       <c r="AH417" s="6"/>
       <c r="AI417" s="6"/>
     </row>
-    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="C418" s="6"/>
@@ -18307,7 +18341,7 @@
       <c r="AH418" s="6"/>
       <c r="AI418" s="6"/>
     </row>
-    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="C419" s="6"/>
@@ -18344,7 +18378,7 @@
       <c r="AH419" s="6"/>
       <c r="AI419" s="6"/>
     </row>
-    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="C420" s="6"/>
@@ -18381,7 +18415,7 @@
       <c r="AH420" s="6"/>
       <c r="AI420" s="6"/>
     </row>
-    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="C421" s="6"/>
@@ -18418,7 +18452,7 @@
       <c r="AH421" s="6"/>
       <c r="AI421" s="6"/>
     </row>
-    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="C422" s="6"/>
@@ -18455,7 +18489,7 @@
       <c r="AH422" s="6"/>
       <c r="AI422" s="6"/>
     </row>
-    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="C423" s="6"/>
@@ -18492,7 +18526,7 @@
       <c r="AH423" s="6"/>
       <c r="AI423" s="6"/>
     </row>
-    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="C424" s="6"/>
@@ -18529,7 +18563,7 @@
       <c r="AH424" s="6"/>
       <c r="AI424" s="6"/>
     </row>
-    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="C425" s="6"/>
@@ -18566,7 +18600,7 @@
       <c r="AH425" s="6"/>
       <c r="AI425" s="6"/>
     </row>
-    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="C426" s="6"/>
@@ -18603,7 +18637,7 @@
       <c r="AH426" s="6"/>
       <c r="AI426" s="6"/>
     </row>
-    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="C427" s="6"/>
@@ -18640,7 +18674,7 @@
       <c r="AH427" s="6"/>
       <c r="AI427" s="6"/>
     </row>
-    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="C428" s="6"/>
@@ -18677,7 +18711,7 @@
       <c r="AH428" s="6"/>
       <c r="AI428" s="6"/>
     </row>
-    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="C429" s="6"/>
@@ -18714,7 +18748,7 @@
       <c r="AH429" s="6"/>
       <c r="AI429" s="6"/>
     </row>
-    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="C430" s="6"/>
@@ -18751,7 +18785,7 @@
       <c r="AH430" s="6"/>
       <c r="AI430" s="6"/>
     </row>
-    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="C431" s="6"/>
@@ -18788,7 +18822,7 @@
       <c r="AH431" s="6"/>
       <c r="AI431" s="6"/>
     </row>
-    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="C432" s="6"/>
@@ -18825,7 +18859,7 @@
       <c r="AH432" s="6"/>
       <c r="AI432" s="6"/>
     </row>
-    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="C433" s="6"/>
@@ -18862,7 +18896,7 @@
       <c r="AH433" s="6"/>
       <c r="AI433" s="6"/>
     </row>
-    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="C434" s="6"/>
@@ -18899,7 +18933,7 @@
       <c r="AH434" s="6"/>
       <c r="AI434" s="6"/>
     </row>
-    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="C435" s="6"/>
@@ -18936,7 +18970,7 @@
       <c r="AH435" s="6"/>
       <c r="AI435" s="6"/>
     </row>
-    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="C436" s="6"/>
@@ -18973,7 +19007,7 @@
       <c r="AH436" s="6"/>
       <c r="AI436" s="6"/>
     </row>
-    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="C437" s="6"/>
@@ -19010,7 +19044,7 @@
       <c r="AH437" s="6"/>
       <c r="AI437" s="6"/>
     </row>
-    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="C438" s="6"/>
@@ -19047,7 +19081,7 @@
       <c r="AH438" s="6"/>
       <c r="AI438" s="6"/>
     </row>
-    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="C439" s="6"/>
@@ -19084,7 +19118,7 @@
       <c r="AH439" s="6"/>
       <c r="AI439" s="6"/>
     </row>
-    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="C440" s="6"/>
@@ -19121,7 +19155,7 @@
       <c r="AH440" s="6"/>
       <c r="AI440" s="6"/>
     </row>
-    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="C441" s="6"/>
@@ -19158,7 +19192,7 @@
       <c r="AH441" s="6"/>
       <c r="AI441" s="6"/>
     </row>
-    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="C442" s="6"/>
@@ -19195,7 +19229,7 @@
       <c r="AH442" s="6"/>
       <c r="AI442" s="6"/>
     </row>
-    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="C443" s="6"/>
@@ -19232,7 +19266,7 @@
       <c r="AH443" s="6"/>
       <c r="AI443" s="6"/>
     </row>
-    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="C444" s="6"/>
@@ -19269,7 +19303,7 @@
       <c r="AH444" s="6"/>
       <c r="AI444" s="6"/>
     </row>
-    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="C445" s="6"/>
@@ -19306,7 +19340,7 @@
       <c r="AH445" s="6"/>
       <c r="AI445" s="6"/>
     </row>
-    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="C446" s="6"/>
@@ -19343,7 +19377,7 @@
       <c r="AH446" s="6"/>
       <c r="AI446" s="6"/>
     </row>
-    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="C447" s="6"/>
@@ -19380,7 +19414,7 @@
       <c r="AH447" s="6"/>
       <c r="AI447" s="6"/>
     </row>
-    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="C448" s="6"/>
@@ -19417,7 +19451,7 @@
       <c r="AH448" s="6"/>
       <c r="AI448" s="6"/>
     </row>
-    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="C449" s="6"/>
@@ -19454,7 +19488,7 @@
       <c r="AH449" s="6"/>
       <c r="AI449" s="6"/>
     </row>
-    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="C450" s="6"/>
@@ -19491,7 +19525,7 @@
       <c r="AH450" s="6"/>
       <c r="AI450" s="6"/>
     </row>
-    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="C451" s="6"/>
@@ -19528,7 +19562,7 @@
       <c r="AH451" s="6"/>
       <c r="AI451" s="6"/>
     </row>
-    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="C452" s="6"/>
@@ -19565,7 +19599,7 @@
       <c r="AH452" s="6"/>
       <c r="AI452" s="6"/>
     </row>
-    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="C453" s="6"/>
@@ -19602,7 +19636,7 @@
       <c r="AH453" s="6"/>
       <c r="AI453" s="6"/>
     </row>
-    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="C454" s="6"/>
@@ -19639,7 +19673,7 @@
       <c r="AH454" s="6"/>
       <c r="AI454" s="6"/>
     </row>
-    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="C455" s="6"/>
@@ -19676,7 +19710,7 @@
       <c r="AH455" s="6"/>
       <c r="AI455" s="6"/>
     </row>
-    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="C456" s="6"/>
@@ -19713,7 +19747,7 @@
       <c r="AH456" s="6"/>
       <c r="AI456" s="6"/>
     </row>
-    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="C457" s="6"/>
@@ -19750,7 +19784,7 @@
       <c r="AH457" s="6"/>
       <c r="AI457" s="6"/>
     </row>
-    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="C458" s="6"/>
@@ -19787,7 +19821,7 @@
       <c r="AH458" s="6"/>
       <c r="AI458" s="6"/>
     </row>
-    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="C459" s="6"/>
@@ -19824,7 +19858,7 @@
       <c r="AH459" s="6"/>
       <c r="AI459" s="6"/>
     </row>
-    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="C460" s="6"/>
@@ -19861,7 +19895,7 @@
       <c r="AH460" s="6"/>
       <c r="AI460" s="6"/>
     </row>
-    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="C461" s="6"/>
@@ -19898,7 +19932,7 @@
       <c r="AH461" s="6"/>
       <c r="AI461" s="6"/>
     </row>
-    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="C462" s="6"/>
@@ -19935,7 +19969,7 @@
       <c r="AH462" s="6"/>
       <c r="AI462" s="6"/>
     </row>
-    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="C463" s="6"/>
@@ -19972,7 +20006,7 @@
       <c r="AH463" s="6"/>
       <c r="AI463" s="6"/>
     </row>
-    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="C464" s="6"/>
@@ -20009,7 +20043,7 @@
       <c r="AH464" s="6"/>
       <c r="AI464" s="6"/>
     </row>
-    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="C465" s="6"/>
@@ -20046,7 +20080,7 @@
       <c r="AH465" s="6"/>
       <c r="AI465" s="6"/>
     </row>
-    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="C466" s="6"/>
@@ -20083,7 +20117,7 @@
       <c r="AH466" s="6"/>
       <c r="AI466" s="6"/>
     </row>
-    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="C467" s="6"/>
@@ -20120,7 +20154,7 @@
       <c r="AH467" s="6"/>
       <c r="AI467" s="6"/>
     </row>
-    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="C468" s="6"/>
@@ -20157,7 +20191,7 @@
       <c r="AH468" s="6"/>
       <c r="AI468" s="6"/>
     </row>
-    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="C469" s="6"/>
@@ -20194,7 +20228,7 @@
       <c r="AH469" s="6"/>
       <c r="AI469" s="6"/>
     </row>
-    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="C470" s="6"/>
@@ -20231,7 +20265,7 @@
       <c r="AH470" s="6"/>
       <c r="AI470" s="6"/>
     </row>
-    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="C471" s="6"/>
@@ -20268,7 +20302,7 @@
       <c r="AH471" s="6"/>
       <c r="AI471" s="6"/>
     </row>
-    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="C472" s="6"/>
@@ -20305,7 +20339,7 @@
       <c r="AH472" s="6"/>
       <c r="AI472" s="6"/>
     </row>
-    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="C473" s="6"/>
@@ -20342,7 +20376,7 @@
       <c r="AH473" s="6"/>
       <c r="AI473" s="6"/>
     </row>
-    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="C474" s="6"/>
@@ -20379,7 +20413,7 @@
       <c r="AH474" s="6"/>
       <c r="AI474" s="6"/>
     </row>
-    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="C475" s="6"/>
@@ -20416,7 +20450,7 @@
       <c r="AH475" s="6"/>
       <c r="AI475" s="6"/>
     </row>
-    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="C476" s="6"/>
@@ -20453,7 +20487,7 @@
       <c r="AH476" s="6"/>
       <c r="AI476" s="6"/>
     </row>
-    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="C477" s="6"/>
@@ -20490,7 +20524,7 @@
       <c r="AH477" s="6"/>
       <c r="AI477" s="6"/>
     </row>
-    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="C478" s="6"/>
@@ -20527,7 +20561,7 @@
       <c r="AH478" s="6"/>
       <c r="AI478" s="6"/>
     </row>
-    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="C479" s="6"/>
@@ -20564,7 +20598,7 @@
       <c r="AH479" s="6"/>
       <c r="AI479" s="6"/>
     </row>
-    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="C480" s="6"/>
@@ -20601,7 +20635,7 @@
       <c r="AH480" s="6"/>
       <c r="AI480" s="6"/>
     </row>
-    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="C481" s="6"/>
@@ -20638,7 +20672,7 @@
       <c r="AH481" s="6"/>
       <c r="AI481" s="6"/>
     </row>
-    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="C482" s="6"/>
@@ -20675,7 +20709,7 @@
       <c r="AH482" s="6"/>
       <c r="AI482" s="6"/>
     </row>
-    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="C483" s="6"/>
@@ -20712,7 +20746,7 @@
       <c r="AH483" s="6"/>
       <c r="AI483" s="6"/>
     </row>
-    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="C484" s="6"/>
@@ -20749,7 +20783,7 @@
       <c r="AH484" s="6"/>
       <c r="AI484" s="6"/>
     </row>
-    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="C485" s="6"/>
@@ -20786,7 +20820,7 @@
       <c r="AH485" s="6"/>
       <c r="AI485" s="6"/>
     </row>
-    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="C486" s="6"/>
@@ -20823,7 +20857,7 @@
       <c r="AH486" s="6"/>
       <c r="AI486" s="6"/>
     </row>
-    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="C487" s="6"/>
@@ -20860,7 +20894,7 @@
       <c r="AH487" s="6"/>
       <c r="AI487" s="6"/>
     </row>
-    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="C488" s="6"/>
@@ -20897,7 +20931,7 @@
       <c r="AH488" s="6"/>
       <c r="AI488" s="6"/>
     </row>
-    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="C489" s="6"/>
@@ -20934,7 +20968,7 @@
       <c r="AH489" s="6"/>
       <c r="AI489" s="6"/>
     </row>
-    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="C490" s="6"/>
@@ -20971,7 +21005,7 @@
       <c r="AH490" s="6"/>
       <c r="AI490" s="6"/>
     </row>
-    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="C491" s="6"/>
@@ -21008,7 +21042,7 @@
       <c r="AH491" s="6"/>
       <c r="AI491" s="6"/>
     </row>
-    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="C492" s="6"/>
@@ -21045,7 +21079,7 @@
       <c r="AH492" s="6"/>
       <c r="AI492" s="6"/>
     </row>
-    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="C493" s="6"/>
@@ -21082,7 +21116,7 @@
       <c r="AH493" s="6"/>
       <c r="AI493" s="6"/>
     </row>
-    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="C494" s="6"/>
@@ -21119,7 +21153,7 @@
       <c r="AH494" s="6"/>
       <c r="AI494" s="6"/>
     </row>
-    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="C495" s="6"/>
@@ -21156,7 +21190,7 @@
       <c r="AH495" s="6"/>
       <c r="AI495" s="6"/>
     </row>
-    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="C496" s="6"/>
@@ -21193,7 +21227,7 @@
       <c r="AH496" s="6"/>
       <c r="AI496" s="6"/>
     </row>
-    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="C497" s="6"/>
@@ -21230,7 +21264,7 @@
       <c r="AH497" s="6"/>
       <c r="AI497" s="6"/>
     </row>
-    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="C498" s="6"/>
@@ -21267,7 +21301,7 @@
       <c r="AH498" s="6"/>
       <c r="AI498" s="6"/>
     </row>
-    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="C499" s="6"/>
@@ -21304,7 +21338,7 @@
       <c r="AH499" s="6"/>
       <c r="AI499" s="6"/>
     </row>
-    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="C500" s="6"/>
@@ -21341,7 +21375,7 @@
       <c r="AH500" s="6"/>
       <c r="AI500" s="6"/>
     </row>
-    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="C501" s="6"/>
@@ -21378,7 +21412,7 @@
       <c r="AH501" s="6"/>
       <c r="AI501" s="6"/>
     </row>
-    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="C502" s="6"/>
@@ -21415,7 +21449,7 @@
       <c r="AH502" s="6"/>
       <c r="AI502" s="6"/>
     </row>
-    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="C503" s="6"/>
@@ -21452,7 +21486,7 @@
       <c r="AH503" s="6"/>
       <c r="AI503" s="6"/>
     </row>
-    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="C504" s="6"/>
@@ -21489,7 +21523,7 @@
       <c r="AH504" s="6"/>
       <c r="AI504" s="6"/>
     </row>
-    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="C505" s="6"/>
@@ -21526,7 +21560,7 @@
       <c r="AH505" s="6"/>
       <c r="AI505" s="6"/>
     </row>
-    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="C506" s="6"/>
@@ -21563,7 +21597,7 @@
       <c r="AH506" s="6"/>
       <c r="AI506" s="6"/>
     </row>
-    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="C507" s="6"/>
@@ -21600,7 +21634,7 @@
       <c r="AH507" s="6"/>
       <c r="AI507" s="6"/>
     </row>
-    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="C508" s="6"/>
@@ -21637,7 +21671,7 @@
       <c r="AH508" s="6"/>
       <c r="AI508" s="6"/>
     </row>
-    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="C509" s="6"/>
@@ -21674,7 +21708,7 @@
       <c r="AH509" s="6"/>
       <c r="AI509" s="6"/>
     </row>
-    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="C510" s="6"/>
@@ -21711,7 +21745,7 @@
       <c r="AH510" s="6"/>
       <c r="AI510" s="6"/>
     </row>
-    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="C511" s="6"/>
@@ -21748,7 +21782,7 @@
       <c r="AH511" s="6"/>
       <c r="AI511" s="6"/>
     </row>
-    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="C512" s="6"/>
@@ -21785,7 +21819,7 @@
       <c r="AH512" s="6"/>
       <c r="AI512" s="6"/>
     </row>
-    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="C513" s="6"/>
@@ -21822,7 +21856,7 @@
       <c r="AH513" s="6"/>
       <c r="AI513" s="6"/>
     </row>
-    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="C514" s="6"/>
@@ -21859,7 +21893,7 @@
       <c r="AH514" s="6"/>
       <c r="AI514" s="6"/>
     </row>
-    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="C515" s="6"/>
@@ -21896,7 +21930,7 @@
       <c r="AH515" s="6"/>
       <c r="AI515" s="6"/>
     </row>
-    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="C516" s="6"/>
@@ -21933,7 +21967,7 @@
       <c r="AH516" s="6"/>
       <c r="AI516" s="6"/>
     </row>
-    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="C517" s="6"/>
@@ -21970,7 +22004,7 @@
       <c r="AH517" s="6"/>
       <c r="AI517" s="6"/>
     </row>
-    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="C518" s="6"/>
@@ -22007,7 +22041,7 @@
       <c r="AH518" s="6"/>
       <c r="AI518" s="6"/>
     </row>
-    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="C519" s="6"/>
@@ -22044,7 +22078,7 @@
       <c r="AH519" s="6"/>
       <c r="AI519" s="6"/>
     </row>
-    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="C520" s="6"/>
@@ -22081,7 +22115,7 @@
       <c r="AH520" s="6"/>
       <c r="AI520" s="6"/>
     </row>
-    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="C521" s="6"/>
@@ -22118,7 +22152,7 @@
       <c r="AH521" s="6"/>
       <c r="AI521" s="6"/>
     </row>
-    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="C522" s="6"/>
@@ -22155,7 +22189,7 @@
       <c r="AH522" s="6"/>
       <c r="AI522" s="6"/>
     </row>
-    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="C523" s="6"/>
@@ -22192,7 +22226,7 @@
       <c r="AH523" s="6"/>
       <c r="AI523" s="6"/>
     </row>
-    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="C524" s="6"/>
@@ -22229,7 +22263,7 @@
       <c r="AH524" s="6"/>
       <c r="AI524" s="6"/>
     </row>
-    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="C525" s="6"/>
@@ -22266,7 +22300,7 @@
       <c r="AH525" s="6"/>
       <c r="AI525" s="6"/>
     </row>
-    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="C526" s="6"/>
@@ -22303,7 +22337,7 @@
       <c r="AH526" s="6"/>
       <c r="AI526" s="6"/>
     </row>
-    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="C527" s="6"/>
@@ -22340,7 +22374,7 @@
       <c r="AH527" s="6"/>
       <c r="AI527" s="6"/>
     </row>
-    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="C528" s="6"/>
@@ -22377,7 +22411,7 @@
       <c r="AH528" s="6"/>
       <c r="AI528" s="6"/>
     </row>
-    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="C529" s="6"/>
@@ -22414,7 +22448,7 @@
       <c r="AH529" s="6"/>
       <c r="AI529" s="6"/>
     </row>
-    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="C530" s="6"/>
@@ -22451,7 +22485,7 @@
       <c r="AH530" s="6"/>
       <c r="AI530" s="6"/>
     </row>
-    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="C531" s="6"/>
@@ -22488,7 +22522,7 @@
       <c r="AH531" s="6"/>
       <c r="AI531" s="6"/>
     </row>
-    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="C532" s="6"/>
@@ -22525,7 +22559,7 @@
       <c r="AH532" s="6"/>
       <c r="AI532" s="6"/>
     </row>
-    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="C533" s="6"/>
@@ -22562,7 +22596,7 @@
       <c r="AH533" s="6"/>
       <c r="AI533" s="6"/>
     </row>
-    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="C534" s="6"/>
@@ -22599,7 +22633,7 @@
       <c r="AH534" s="6"/>
       <c r="AI534" s="6"/>
     </row>
-    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="C535" s="6"/>
@@ -22636,7 +22670,7 @@
       <c r="AH535" s="6"/>
       <c r="AI535" s="6"/>
     </row>
-    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="C536" s="6"/>
@@ -22673,7 +22707,7 @@
       <c r="AH536" s="6"/>
       <c r="AI536" s="6"/>
     </row>
-    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="C537" s="6"/>
@@ -22710,7 +22744,7 @@
       <c r="AH537" s="6"/>
       <c r="AI537" s="6"/>
     </row>
-    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="C538" s="6"/>
@@ -22747,7 +22781,7 @@
       <c r="AH538" s="6"/>
       <c r="AI538" s="6"/>
     </row>
-    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="C539" s="6"/>
@@ -22784,7 +22818,7 @@
       <c r="AH539" s="6"/>
       <c r="AI539" s="6"/>
     </row>
-    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="C540" s="6"/>
@@ -22821,7 +22855,7 @@
       <c r="AH540" s="6"/>
       <c r="AI540" s="6"/>
     </row>
-    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="C541" s="6"/>
@@ -22858,7 +22892,7 @@
       <c r="AH541" s="6"/>
       <c r="AI541" s="6"/>
     </row>
-    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="C542" s="6"/>
@@ -22895,7 +22929,7 @@
       <c r="AH542" s="6"/>
       <c r="AI542" s="6"/>
     </row>
-    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="C543" s="6"/>
@@ -22932,7 +22966,7 @@
       <c r="AH543" s="6"/>
       <c r="AI543" s="6"/>
     </row>
-    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="C544" s="6"/>
@@ -22969,7 +23003,7 @@
       <c r="AH544" s="6"/>
       <c r="AI544" s="6"/>
     </row>
-    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="C545" s="6"/>
@@ -23006,7 +23040,7 @@
       <c r="AH545" s="6"/>
       <c r="AI545" s="6"/>
     </row>
-    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="C546" s="6"/>
@@ -23043,7 +23077,7 @@
       <c r="AH546" s="6"/>
       <c r="AI546" s="6"/>
     </row>
-    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="C547" s="6"/>
@@ -23080,7 +23114,7 @@
       <c r="AH547" s="6"/>
       <c r="AI547" s="6"/>
     </row>
-    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="C548" s="6"/>
@@ -23117,7 +23151,7 @@
       <c r="AH548" s="6"/>
       <c r="AI548" s="6"/>
     </row>
-    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="C549" s="6"/>
@@ -23154,7 +23188,7 @@
       <c r="AH549" s="6"/>
       <c r="AI549" s="6"/>
     </row>
-    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="C550" s="6"/>
@@ -23191,7 +23225,7 @@
       <c r="AH550" s="6"/>
       <c r="AI550" s="6"/>
     </row>
-    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="C551" s="6"/>
@@ -23228,7 +23262,7 @@
       <c r="AH551" s="6"/>
       <c r="AI551" s="6"/>
     </row>
-    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="C552" s="6"/>
@@ -23265,7 +23299,7 @@
       <c r="AH552" s="6"/>
       <c r="AI552" s="6"/>
     </row>
-    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="C553" s="6"/>
@@ -23302,7 +23336,7 @@
       <c r="AH553" s="6"/>
       <c r="AI553" s="6"/>
     </row>
-    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="C554" s="6"/>
@@ -23339,7 +23373,7 @@
       <c r="AH554" s="6"/>
       <c r="AI554" s="6"/>
     </row>
-    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="C555" s="6"/>
@@ -23376,7 +23410,7 @@
       <c r="AH555" s="6"/>
       <c r="AI555" s="6"/>
     </row>
-    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="C556" s="6"/>
@@ -23413,7 +23447,7 @@
       <c r="AH556" s="6"/>
       <c r="AI556" s="6"/>
     </row>
-    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="C557" s="6"/>
@@ -23450,7 +23484,7 @@
       <c r="AH557" s="6"/>
       <c r="AI557" s="6"/>
     </row>
-    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="C558" s="6"/>
@@ -23487,7 +23521,7 @@
       <c r="AH558" s="6"/>
       <c r="AI558" s="6"/>
     </row>
-    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="C559" s="6"/>
@@ -23524,7 +23558,7 @@
       <c r="AH559" s="6"/>
       <c r="AI559" s="6"/>
     </row>
-    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="C560" s="6"/>
@@ -23561,7 +23595,7 @@
       <c r="AH560" s="6"/>
       <c r="AI560" s="6"/>
     </row>
-    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="C561" s="6"/>
@@ -23598,7 +23632,7 @@
       <c r="AH561" s="6"/>
       <c r="AI561" s="6"/>
     </row>
-    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="C562" s="6"/>
@@ -23635,7 +23669,7 @@
       <c r="AH562" s="6"/>
       <c r="AI562" s="6"/>
     </row>
-    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="C563" s="6"/>
@@ -23672,7 +23706,7 @@
       <c r="AH563" s="6"/>
       <c r="AI563" s="6"/>
     </row>
-    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="C564" s="6"/>
@@ -23709,7 +23743,7 @@
       <c r="AH564" s="6"/>
       <c r="AI564" s="6"/>
     </row>
-    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="C565" s="6"/>
@@ -23746,7 +23780,7 @@
       <c r="AH565" s="6"/>
       <c r="AI565" s="6"/>
     </row>
-    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="C566" s="6"/>
@@ -23783,7 +23817,7 @@
       <c r="AH566" s="6"/>
       <c r="AI566" s="6"/>
     </row>
-    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="C567" s="6"/>
@@ -23820,7 +23854,7 @@
       <c r="AH567" s="6"/>
       <c r="AI567" s="6"/>
     </row>
-    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="C568" s="6"/>
@@ -23857,7 +23891,7 @@
       <c r="AH568" s="6"/>
       <c r="AI568" s="6"/>
     </row>
-    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="C569" s="6"/>
@@ -23894,7 +23928,7 @@
       <c r="AH569" s="6"/>
       <c r="AI569" s="6"/>
     </row>
-    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="C570" s="6"/>
@@ -23931,7 +23965,7 @@
       <c r="AH570" s="6"/>
       <c r="AI570" s="6"/>
     </row>
-    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="C571" s="6"/>
@@ -23968,7 +24002,7 @@
       <c r="AH571" s="6"/>
       <c r="AI571" s="6"/>
     </row>
-    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="C572" s="6"/>
@@ -24005,7 +24039,7 @@
       <c r="AH572" s="6"/>
       <c r="AI572" s="6"/>
     </row>
-    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="C573" s="6"/>
@@ -24042,7 +24076,7 @@
       <c r="AH573" s="6"/>
       <c r="AI573" s="6"/>
     </row>
-    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="C574" s="6"/>
@@ -24079,7 +24113,7 @@
       <c r="AH574" s="6"/>
       <c r="AI574" s="6"/>
     </row>
-    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="C575" s="6"/>
@@ -24116,7 +24150,7 @@
       <c r="AH575" s="6"/>
       <c r="AI575" s="6"/>
     </row>
-    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="C576" s="6"/>
@@ -24153,7 +24187,7 @@
       <c r="AH576" s="6"/>
       <c r="AI576" s="6"/>
     </row>
-    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="C577" s="6"/>
@@ -24190,7 +24224,7 @@
       <c r="AH577" s="6"/>
       <c r="AI577" s="6"/>
     </row>
-    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="C578" s="6"/>
@@ -24227,7 +24261,7 @@
       <c r="AH578" s="6"/>
       <c r="AI578" s="6"/>
     </row>
-    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="C579" s="6"/>
@@ -24264,7 +24298,7 @@
       <c r="AH579" s="6"/>
       <c r="AI579" s="6"/>
     </row>
-    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="C580" s="6"/>
@@ -24301,7 +24335,7 @@
       <c r="AH580" s="6"/>
       <c r="AI580" s="6"/>
     </row>
-    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="C581" s="6"/>
@@ -24338,7 +24372,7 @@
       <c r="AH581" s="6"/>
       <c r="AI581" s="6"/>
     </row>
-    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="C582" s="6"/>
@@ -24375,7 +24409,7 @@
       <c r="AH582" s="6"/>
       <c r="AI582" s="6"/>
     </row>
-    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="C583" s="6"/>
@@ -24412,7 +24446,7 @@
       <c r="AH583" s="6"/>
       <c r="AI583" s="6"/>
     </row>
-    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="C584" s="6"/>
@@ -24449,7 +24483,7 @@
       <c r="AH584" s="6"/>
       <c r="AI584" s="6"/>
     </row>
-    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="C585" s="6"/>
@@ -24486,7 +24520,7 @@
       <c r="AH585" s="6"/>
       <c r="AI585" s="6"/>
     </row>
-    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="C586" s="6"/>
@@ -24523,7 +24557,7 @@
       <c r="AH586" s="6"/>
       <c r="AI586" s="6"/>
     </row>
-    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="C587" s="6"/>
@@ -24560,7 +24594,7 @@
       <c r="AH587" s="6"/>
       <c r="AI587" s="6"/>
     </row>
-    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="C588" s="6"/>
@@ -24597,7 +24631,7 @@
       <c r="AH588" s="6"/>
       <c r="AI588" s="6"/>
     </row>
-    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="C589" s="6"/>
@@ -24634,7 +24668,7 @@
       <c r="AH589" s="6"/>
       <c r="AI589" s="6"/>
     </row>
-    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="C590" s="6"/>
@@ -24671,7 +24705,7 @@
       <c r="AH590" s="6"/>
       <c r="AI590" s="6"/>
     </row>
-    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="C591" s="6"/>
@@ -24708,7 +24742,7 @@
       <c r="AH591" s="6"/>
       <c r="AI591" s="6"/>
     </row>
-    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="C592" s="6"/>
@@ -24745,7 +24779,7 @@
       <c r="AH592" s="6"/>
       <c r="AI592" s="6"/>
     </row>
-    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="C593" s="6"/>
@@ -24782,7 +24816,7 @@
       <c r="AH593" s="6"/>
       <c r="AI593" s="6"/>
     </row>
-    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="C594" s="6"/>
@@ -24819,7 +24853,7 @@
       <c r="AH594" s="6"/>
       <c r="AI594" s="6"/>
     </row>
-    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="C595" s="6"/>
@@ -24856,7 +24890,7 @@
       <c r="AH595" s="6"/>
       <c r="AI595" s="6"/>
     </row>
-    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="C596" s="6"/>
@@ -24893,7 +24927,7 @@
       <c r="AH596" s="6"/>
       <c r="AI596" s="6"/>
     </row>
-    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="C597" s="6"/>
@@ -24930,7 +24964,7 @@
       <c r="AH597" s="6"/>
       <c r="AI597" s="6"/>
     </row>
-    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="C598" s="6"/>
@@ -24967,7 +25001,7 @@
       <c r="AH598" s="6"/>
       <c r="AI598" s="6"/>
     </row>
-    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="C599" s="6"/>
@@ -25004,7 +25038,7 @@
       <c r="AH599" s="6"/>
       <c r="AI599" s="6"/>
     </row>
-    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="C600" s="6"/>
@@ -25041,7 +25075,7 @@
       <c r="AH600" s="6"/>
       <c r="AI600" s="6"/>
     </row>
-    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="C601" s="6"/>
@@ -25078,7 +25112,7 @@
       <c r="AH601" s="6"/>
       <c r="AI601" s="6"/>
     </row>
-    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="C602" s="6"/>
@@ -25115,7 +25149,7 @@
       <c r="AH602" s="6"/>
       <c r="AI602" s="6"/>
     </row>
-    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="C603" s="6"/>
@@ -25152,7 +25186,7 @@
       <c r="AH603" s="6"/>
       <c r="AI603" s="6"/>
     </row>
-    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="C604" s="6"/>
@@ -25189,7 +25223,7 @@
       <c r="AH604" s="6"/>
       <c r="AI604" s="6"/>
     </row>
-    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="C605" s="6"/>
@@ -25226,7 +25260,7 @@
       <c r="AH605" s="6"/>
       <c r="AI605" s="6"/>
     </row>
-    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="C606" s="6"/>
@@ -25263,7 +25297,7 @@
       <c r="AH606" s="6"/>
       <c r="AI606" s="6"/>
     </row>
-    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="C607" s="6"/>
@@ -25300,7 +25334,7 @@
       <c r="AH607" s="6"/>
       <c r="AI607" s="6"/>
     </row>
-    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="C608" s="6"/>
@@ -25337,7 +25371,7 @@
       <c r="AH608" s="6"/>
       <c r="AI608" s="6"/>
     </row>
-    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="C609" s="6"/>
@@ -25374,7 +25408,7 @@
       <c r="AH609" s="6"/>
       <c r="AI609" s="6"/>
     </row>
-    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="C610" s="6"/>
@@ -25411,7 +25445,7 @@
       <c r="AH610" s="6"/>
       <c r="AI610" s="6"/>
     </row>
-    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="C611" s="6"/>
@@ -25448,7 +25482,7 @@
       <c r="AH611" s="6"/>
       <c r="AI611" s="6"/>
     </row>
-    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="C612" s="6"/>
@@ -25485,7 +25519,7 @@
       <c r="AH612" s="6"/>
       <c r="AI612" s="6"/>
     </row>
-    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="C613" s="6"/>
@@ -25522,7 +25556,7 @@
       <c r="AH613" s="6"/>
       <c r="AI613" s="6"/>
     </row>
-    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="C614" s="6"/>
@@ -25559,7 +25593,7 @@
       <c r="AH614" s="6"/>
       <c r="AI614" s="6"/>
     </row>
-    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="C615" s="6"/>
@@ -25596,7 +25630,7 @@
       <c r="AH615" s="6"/>
       <c r="AI615" s="6"/>
     </row>
-    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="C616" s="6"/>
@@ -25633,7 +25667,7 @@
       <c r="AH616" s="6"/>
       <c r="AI616" s="6"/>
     </row>
-    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="C617" s="6"/>
@@ -25670,7 +25704,7 @@
       <c r="AH617" s="6"/>
       <c r="AI617" s="6"/>
     </row>
-    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="C618" s="6"/>
@@ -25707,7 +25741,7 @@
       <c r="AH618" s="6"/>
       <c r="AI618" s="6"/>
     </row>
-    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="C619" s="6"/>
@@ -25744,7 +25778,7 @@
       <c r="AH619" s="6"/>
       <c r="AI619" s="6"/>
     </row>
-    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="C620" s="6"/>
@@ -25781,7 +25815,7 @@
       <c r="AH620" s="6"/>
       <c r="AI620" s="6"/>
     </row>
-    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="C621" s="6"/>
@@ -25818,7 +25852,7 @@
       <c r="AH621" s="6"/>
       <c r="AI621" s="6"/>
     </row>
-    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="C622" s="6"/>
@@ -25855,7 +25889,7 @@
       <c r="AH622" s="6"/>
       <c r="AI622" s="6"/>
     </row>
-    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="C623" s="6"/>
@@ -25892,7 +25926,7 @@
       <c r="AH623" s="6"/>
       <c r="AI623" s="6"/>
     </row>
-    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="C624" s="6"/>
@@ -25929,7 +25963,7 @@
       <c r="AH624" s="6"/>
       <c r="AI624" s="6"/>
     </row>
-    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="C625" s="6"/>
@@ -25966,7 +26000,7 @@
       <c r="AH625" s="6"/>
       <c r="AI625" s="6"/>
     </row>
-    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="C626" s="6"/>
@@ -26003,7 +26037,7 @@
       <c r="AH626" s="6"/>
       <c r="AI626" s="6"/>
     </row>
-    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="C627" s="6"/>
@@ -26040,7 +26074,7 @@
       <c r="AH627" s="6"/>
       <c r="AI627" s="6"/>
     </row>
-    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="C628" s="6"/>
@@ -26077,7 +26111,7 @@
       <c r="AH628" s="6"/>
       <c r="AI628" s="6"/>
     </row>
-    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="C629" s="6"/>
@@ -26114,7 +26148,7 @@
       <c r="AH629" s="6"/>
       <c r="AI629" s="6"/>
     </row>
-    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="C630" s="6"/>
@@ -26151,7 +26185,7 @@
       <c r="AH630" s="6"/>
       <c r="AI630" s="6"/>
     </row>
-    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="C631" s="6"/>
@@ -26188,7 +26222,7 @@
       <c r="AH631" s="6"/>
       <c r="AI631" s="6"/>
     </row>
-    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="C632" s="6"/>
@@ -26225,7 +26259,7 @@
       <c r="AH632" s="6"/>
       <c r="AI632" s="6"/>
     </row>
-    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="C633" s="6"/>
@@ -26262,7 +26296,7 @@
       <c r="AH633" s="6"/>
       <c r="AI633" s="6"/>
     </row>
-    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="C634" s="6"/>
@@ -26299,7 +26333,7 @@
       <c r="AH634" s="6"/>
       <c r="AI634" s="6"/>
     </row>
-    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="C635" s="6"/>
@@ -26336,7 +26370,7 @@
       <c r="AH635" s="6"/>
       <c r="AI635" s="6"/>
     </row>
-    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="C636" s="6"/>
@@ -26373,7 +26407,7 @@
       <c r="AH636" s="6"/>
       <c r="AI636" s="6"/>
     </row>
-    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="C637" s="6"/>
@@ -26410,7 +26444,7 @@
       <c r="AH637" s="6"/>
       <c r="AI637" s="6"/>
     </row>
-    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="C638" s="6"/>
@@ -26447,7 +26481,7 @@
       <c r="AH638" s="6"/>
       <c r="AI638" s="6"/>
     </row>
-    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="C639" s="6"/>
@@ -26484,7 +26518,7 @@
       <c r="AH639" s="6"/>
       <c r="AI639" s="6"/>
     </row>
-    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="C640" s="6"/>
@@ -26521,7 +26555,7 @@
       <c r="AH640" s="6"/>
       <c r="AI640" s="6"/>
     </row>
-    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="C641" s="6"/>
@@ -26558,7 +26592,7 @@
       <c r="AH641" s="6"/>
       <c r="AI641" s="6"/>
     </row>
-    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="C642" s="6"/>
@@ -26595,7 +26629,7 @@
       <c r="AH642" s="6"/>
       <c r="AI642" s="6"/>
     </row>
-    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="C643" s="6"/>
@@ -26632,7 +26666,7 @@
       <c r="AH643" s="6"/>
       <c r="AI643" s="6"/>
     </row>
-    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="C644" s="6"/>
@@ -26669,7 +26703,7 @@
       <c r="AH644" s="6"/>
       <c r="AI644" s="6"/>
     </row>
-    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="C645" s="6"/>
@@ -26706,7 +26740,7 @@
       <c r="AH645" s="6"/>
       <c r="AI645" s="6"/>
     </row>
-    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="C646" s="6"/>
@@ -26743,7 +26777,7 @@
       <c r="AH646" s="6"/>
       <c r="AI646" s="6"/>
     </row>
-    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="C647" s="6"/>
@@ -26780,7 +26814,7 @@
       <c r="AH647" s="6"/>
       <c r="AI647" s="6"/>
     </row>
-    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="C648" s="6"/>
@@ -26817,7 +26851,7 @@
       <c r="AH648" s="6"/>
       <c r="AI648" s="6"/>
     </row>
-    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="C649" s="6"/>
@@ -26854,7 +26888,7 @@
       <c r="AH649" s="6"/>
       <c r="AI649" s="6"/>
     </row>
-    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="C650" s="6"/>
@@ -26891,7 +26925,7 @@
       <c r="AH650" s="6"/>
       <c r="AI650" s="6"/>
     </row>
-    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="C651" s="6"/>
@@ -26928,7 +26962,7 @@
       <c r="AH651" s="6"/>
       <c r="AI651" s="6"/>
     </row>
-    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="C652" s="6"/>
@@ -26965,7 +26999,7 @@
       <c r="AH652" s="6"/>
       <c r="AI652" s="6"/>
     </row>
-    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="C653" s="6"/>
@@ -27002,7 +27036,7 @@
       <c r="AH653" s="6"/>
       <c r="AI653" s="6"/>
     </row>
-    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="C654" s="6"/>
@@ -27039,7 +27073,7 @@
       <c r="AH654" s="6"/>
       <c r="AI654" s="6"/>
     </row>
-    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="C655" s="6"/>
@@ -27076,7 +27110,7 @@
       <c r="AH655" s="6"/>
       <c r="AI655" s="6"/>
     </row>
-    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="C656" s="6"/>
@@ -27113,7 +27147,7 @@
       <c r="AH656" s="6"/>
       <c r="AI656" s="6"/>
     </row>
-    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="C657" s="6"/>
@@ -27150,7 +27184,7 @@
       <c r="AH657" s="6"/>
       <c r="AI657" s="6"/>
     </row>
-    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="C658" s="6"/>
@@ -27187,7 +27221,7 @@
       <c r="AH658" s="6"/>
       <c r="AI658" s="6"/>
     </row>
-    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="C659" s="6"/>
@@ -27224,7 +27258,7 @@
       <c r="AH659" s="6"/>
       <c r="AI659" s="6"/>
     </row>
-    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="C660" s="6"/>
@@ -27261,7 +27295,7 @@
       <c r="AH660" s="6"/>
       <c r="AI660" s="6"/>
     </row>
-    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="C661" s="6"/>
@@ -27298,7 +27332,7 @@
       <c r="AH661" s="6"/>
       <c r="AI661" s="6"/>
     </row>
-    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="C662" s="6"/>
@@ -27335,7 +27369,7 @@
       <c r="AH662" s="6"/>
       <c r="AI662" s="6"/>
     </row>
-    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="C663" s="6"/>
@@ -27372,7 +27406,7 @@
       <c r="AH663" s="6"/>
       <c r="AI663" s="6"/>
     </row>
-    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="C664" s="6"/>
@@ -27409,7 +27443,7 @@
       <c r="AH664" s="6"/>
       <c r="AI664" s="6"/>
     </row>
-    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="C665" s="6"/>
@@ -27446,7 +27480,7 @@
       <c r="AH665" s="6"/>
       <c r="AI665" s="6"/>
     </row>
-    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="C666" s="6"/>
@@ -27483,7 +27517,7 @@
       <c r="AH666" s="6"/>
       <c r="AI666" s="6"/>
     </row>
-    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="C667" s="6"/>
@@ -27520,7 +27554,7 @@
       <c r="AH667" s="6"/>
       <c r="AI667" s="6"/>
     </row>
-    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="C668" s="6"/>
@@ -27557,7 +27591,7 @@
       <c r="AH668" s="6"/>
       <c r="AI668" s="6"/>
     </row>
-    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="C669" s="6"/>
@@ -27594,7 +27628,7 @@
       <c r="AH669" s="6"/>
       <c r="AI669" s="6"/>
     </row>
-    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="C670" s="6"/>
@@ -27631,7 +27665,7 @@
       <c r="AH670" s="6"/>
       <c r="AI670" s="6"/>
     </row>
-    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="C671" s="6"/>
@@ -27668,7 +27702,7 @@
       <c r="AH671" s="6"/>
       <c r="AI671" s="6"/>
     </row>
-    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="C672" s="6"/>
@@ -27705,7 +27739,7 @@
       <c r="AH672" s="6"/>
       <c r="AI672" s="6"/>
     </row>
-    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="C673" s="6"/>
@@ -27742,7 +27776,7 @@
       <c r="AH673" s="6"/>
       <c r="AI673" s="6"/>
     </row>
-    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="C674" s="6"/>
@@ -27779,7 +27813,7 @@
       <c r="AH674" s="6"/>
       <c r="AI674" s="6"/>
     </row>
-    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="C675" s="6"/>
@@ -27816,7 +27850,7 @@
       <c r="AH675" s="6"/>
       <c r="AI675" s="6"/>
     </row>
-    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="C676" s="6"/>
@@ -27853,7 +27887,7 @@
       <c r="AH676" s="6"/>
       <c r="AI676" s="6"/>
     </row>
-    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="C677" s="6"/>
@@ -27890,7 +27924,7 @@
       <c r="AH677" s="6"/>
       <c r="AI677" s="6"/>
     </row>
-    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="C678" s="6"/>
@@ -27927,7 +27961,7 @@
       <c r="AH678" s="6"/>
       <c r="AI678" s="6"/>
     </row>
-    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="C679" s="6"/>
@@ -27964,7 +27998,7 @@
       <c r="AH679" s="6"/>
       <c r="AI679" s="6"/>
     </row>
-    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="C680" s="6"/>
@@ -28001,7 +28035,7 @@
       <c r="AH680" s="6"/>
       <c r="AI680" s="6"/>
     </row>
-    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="C681" s="6"/>
@@ -28038,7 +28072,7 @@
       <c r="AH681" s="6"/>
       <c r="AI681" s="6"/>
     </row>
-    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="C682" s="6"/>
@@ -28075,7 +28109,7 @@
       <c r="AH682" s="6"/>
       <c r="AI682" s="6"/>
     </row>
-    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="C683" s="6"/>
@@ -28112,7 +28146,7 @@
       <c r="AH683" s="6"/>
       <c r="AI683" s="6"/>
     </row>
-    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="C684" s="6"/>
@@ -28149,7 +28183,7 @@
       <c r="AH684" s="6"/>
       <c r="AI684" s="6"/>
     </row>
-    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="C685" s="6"/>
@@ -28186,7 +28220,7 @@
       <c r="AH685" s="6"/>
       <c r="AI685" s="6"/>
     </row>
-    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="C686" s="6"/>
@@ -28223,7 +28257,7 @@
       <c r="AH686" s="6"/>
       <c r="AI686" s="6"/>
     </row>
-    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="C687" s="6"/>
@@ -28260,7 +28294,7 @@
       <c r="AH687" s="6"/>
       <c r="AI687" s="6"/>
     </row>
-    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="C688" s="6"/>
@@ -28297,7 +28331,7 @@
       <c r="AH688" s="6"/>
       <c r="AI688" s="6"/>
     </row>
-    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="C689" s="6"/>
@@ -28334,7 +28368,7 @@
       <c r="AH689" s="6"/>
       <c r="AI689" s="6"/>
     </row>
-    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="C690" s="6"/>
@@ -28371,7 +28405,7 @@
       <c r="AH690" s="6"/>
       <c r="AI690" s="6"/>
     </row>
-    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="C691" s="6"/>
@@ -28408,7 +28442,7 @@
       <c r="AH691" s="6"/>
       <c r="AI691" s="6"/>
     </row>
-    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="C692" s="6"/>
@@ -28445,7 +28479,7 @@
       <c r="AH692" s="6"/>
       <c r="AI692" s="6"/>
     </row>
-    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="C693" s="6"/>
@@ -28482,7 +28516,7 @@
       <c r="AH693" s="6"/>
       <c r="AI693" s="6"/>
     </row>
-    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="C694" s="6"/>
@@ -28519,7 +28553,7 @@
       <c r="AH694" s="6"/>
       <c r="AI694" s="6"/>
     </row>
-    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="C695" s="6"/>
@@ -28556,7 +28590,7 @@
       <c r="AH695" s="6"/>
       <c r="AI695" s="6"/>
     </row>
-    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="C696" s="6"/>
@@ -28593,7 +28627,7 @@
       <c r="AH696" s="6"/>
       <c r="AI696" s="6"/>
     </row>
-    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="C697" s="6"/>
@@ -28630,7 +28664,7 @@
       <c r="AH697" s="6"/>
       <c r="AI697" s="6"/>
     </row>
-    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="C698" s="6"/>
@@ -28667,7 +28701,7 @@
       <c r="AH698" s="6"/>
       <c r="AI698" s="6"/>
     </row>
-    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="C699" s="6"/>
@@ -28704,7 +28738,7 @@
       <c r="AH699" s="6"/>
       <c r="AI699" s="6"/>
     </row>
-    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="C700" s="6"/>
@@ -28741,7 +28775,7 @@
       <c r="AH700" s="6"/>
       <c r="AI700" s="6"/>
     </row>
-    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="C701" s="6"/>
@@ -28778,7 +28812,7 @@
       <c r="AH701" s="6"/>
       <c r="AI701" s="6"/>
     </row>
-    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="C702" s="6"/>
@@ -28815,7 +28849,7 @@
       <c r="AH702" s="6"/>
       <c r="AI702" s="6"/>
     </row>
-    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="C703" s="6"/>
@@ -28852,7 +28886,7 @@
       <c r="AH703" s="6"/>
       <c r="AI703" s="6"/>
     </row>
-    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="C704" s="6"/>
@@ -28889,7 +28923,7 @@
       <c r="AH704" s="6"/>
       <c r="AI704" s="6"/>
     </row>
-    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="C705" s="6"/>
@@ -28926,7 +28960,7 @@
       <c r="AH705" s="6"/>
       <c r="AI705" s="6"/>
     </row>
-    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="C706" s="6"/>
@@ -28963,7 +28997,7 @@
       <c r="AH706" s="6"/>
       <c r="AI706" s="6"/>
     </row>
-    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="C707" s="6"/>
@@ -29000,7 +29034,7 @@
       <c r="AH707" s="6"/>
       <c r="AI707" s="6"/>
     </row>
-    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="C708" s="6"/>
@@ -29037,7 +29071,7 @@
       <c r="AH708" s="6"/>
       <c r="AI708" s="6"/>
     </row>
-    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="C709" s="6"/>
@@ -29074,7 +29108,7 @@
       <c r="AH709" s="6"/>
       <c r="AI709" s="6"/>
     </row>
-    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="C710" s="6"/>
@@ -29111,7 +29145,7 @@
       <c r="AH710" s="6"/>
       <c r="AI710" s="6"/>
     </row>
-    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="C711" s="6"/>
@@ -29148,7 +29182,7 @@
       <c r="AH711" s="6"/>
       <c r="AI711" s="6"/>
     </row>
-    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="C712" s="6"/>
@@ -29185,7 +29219,7 @@
       <c r="AH712" s="6"/>
       <c r="AI712" s="6"/>
     </row>
-    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="C713" s="6"/>
@@ -29222,7 +29256,7 @@
       <c r="AH713" s="6"/>
       <c r="AI713" s="6"/>
     </row>
-    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="C714" s="6"/>
@@ -29259,7 +29293,7 @@
       <c r="AH714" s="6"/>
       <c r="AI714" s="6"/>
     </row>
-    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="C715" s="6"/>
@@ -29296,7 +29330,7 @@
       <c r="AH715" s="6"/>
       <c r="AI715" s="6"/>
     </row>
-    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="C716" s="6"/>
@@ -29333,7 +29367,7 @@
       <c r="AH716" s="6"/>
       <c r="AI716" s="6"/>
     </row>
-    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="C717" s="6"/>
@@ -29370,7 +29404,7 @@
       <c r="AH717" s="6"/>
       <c r="AI717" s="6"/>
     </row>
-    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="C718" s="6"/>
@@ -29407,7 +29441,7 @@
       <c r="AH718" s="6"/>
       <c r="AI718" s="6"/>
     </row>
-    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="C719" s="6"/>
@@ -29444,7 +29478,7 @@
       <c r="AH719" s="6"/>
       <c r="AI719" s="6"/>
     </row>
-    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="C720" s="6"/>
@@ -29481,7 +29515,7 @@
       <c r="AH720" s="6"/>
       <c r="AI720" s="6"/>
     </row>
-    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="C721" s="6"/>
@@ -29518,7 +29552,7 @@
       <c r="AH721" s="6"/>
       <c r="AI721" s="6"/>
     </row>
-    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="C722" s="6"/>
@@ -29555,7 +29589,7 @@
       <c r="AH722" s="6"/>
       <c r="AI722" s="6"/>
     </row>
-    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="C723" s="6"/>
@@ -29592,7 +29626,7 @@
       <c r="AH723" s="6"/>
       <c r="AI723" s="6"/>
     </row>
-    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="C724" s="6"/>
@@ -29629,7 +29663,7 @@
       <c r="AH724" s="6"/>
       <c r="AI724" s="6"/>
     </row>
-    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="C725" s="6"/>
@@ -29666,7 +29700,7 @@
       <c r="AH725" s="6"/>
       <c r="AI725" s="6"/>
     </row>
-    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="C726" s="6"/>
@@ -29703,7 +29737,7 @@
       <c r="AH726" s="6"/>
       <c r="AI726" s="6"/>
     </row>
-    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="C727" s="6"/>
@@ -29740,7 +29774,7 @@
       <c r="AH727" s="6"/>
       <c r="AI727" s="6"/>
     </row>
-    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="C728" s="6"/>
@@ -29777,7 +29811,7 @@
       <c r="AH728" s="6"/>
       <c r="AI728" s="6"/>
     </row>
-    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="C729" s="6"/>
@@ -29814,7 +29848,7 @@
       <c r="AH729" s="6"/>
       <c r="AI729" s="6"/>
     </row>
-    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="C730" s="6"/>
@@ -29851,7 +29885,7 @@
       <c r="AH730" s="6"/>
       <c r="AI730" s="6"/>
     </row>
-    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="C731" s="6"/>
@@ -29888,7 +29922,7 @@
       <c r="AH731" s="6"/>
       <c r="AI731" s="6"/>
     </row>
-    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="C732" s="6"/>
@@ -29925,7 +29959,7 @@
       <c r="AH732" s="6"/>
       <c r="AI732" s="6"/>
     </row>
-    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="C733" s="6"/>
@@ -29962,7 +29996,7 @@
       <c r="AH733" s="6"/>
       <c r="AI733" s="6"/>
     </row>
-    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="C734" s="6"/>
@@ -29999,7 +30033,7 @@
       <c r="AH734" s="6"/>
       <c r="AI734" s="6"/>
     </row>
-    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="C735" s="6"/>
@@ -30036,7 +30070,7 @@
       <c r="AH735" s="6"/>
       <c r="AI735" s="6"/>
     </row>
-    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="C736" s="6"/>
@@ -30073,7 +30107,7 @@
       <c r="AH736" s="6"/>
       <c r="AI736" s="6"/>
     </row>
-    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="C737" s="6"/>
@@ -30110,7 +30144,7 @@
       <c r="AH737" s="6"/>
       <c r="AI737" s="6"/>
     </row>
-    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="C738" s="6"/>
@@ -30147,7 +30181,7 @@
       <c r="AH738" s="6"/>
       <c r="AI738" s="6"/>
     </row>
-    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="C739" s="6"/>
@@ -30184,7 +30218,7 @@
       <c r="AH739" s="6"/>
       <c r="AI739" s="6"/>
     </row>
-    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="C740" s="6"/>
@@ -30221,7 +30255,7 @@
       <c r="AH740" s="6"/>
       <c r="AI740" s="6"/>
     </row>
-    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="C741" s="6"/>
@@ -30258,7 +30292,7 @@
       <c r="AH741" s="6"/>
       <c r="AI741" s="6"/>
     </row>
-    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="C742" s="6"/>
@@ -30295,7 +30329,7 @@
       <c r="AH742" s="6"/>
       <c r="AI742" s="6"/>
     </row>
-    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="C743" s="6"/>
@@ -30332,7 +30366,7 @@
       <c r="AH743" s="6"/>
       <c r="AI743" s="6"/>
     </row>
-    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="C744" s="6"/>
@@ -30369,7 +30403,7 @@
       <c r="AH744" s="6"/>
       <c r="AI744" s="6"/>
     </row>
-    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="C745" s="6"/>
@@ -30406,7 +30440,7 @@
       <c r="AH745" s="6"/>
       <c r="AI745" s="6"/>
     </row>
-    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="C746" s="6"/>
@@ -30443,7 +30477,7 @@
       <c r="AH746" s="6"/>
       <c r="AI746" s="6"/>
     </row>
-    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="C747" s="6"/>
@@ -30480,7 +30514,7 @@
       <c r="AH747" s="6"/>
       <c r="AI747" s="6"/>
     </row>
-    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="C748" s="6"/>
@@ -30517,7 +30551,7 @@
       <c r="AH748" s="6"/>
       <c r="AI748" s="6"/>
     </row>
-    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="C749" s="6"/>
@@ -30554,7 +30588,7 @@
       <c r="AH749" s="6"/>
       <c r="AI749" s="6"/>
     </row>
-    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="C750" s="6"/>
@@ -30591,7 +30625,7 @@
       <c r="AH750" s="6"/>
       <c r="AI750" s="6"/>
     </row>
-    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="C751" s="6"/>
@@ -30628,7 +30662,7 @@
       <c r="AH751" s="6"/>
       <c r="AI751" s="6"/>
     </row>
-    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="C752" s="6"/>
@@ -30665,7 +30699,7 @@
       <c r="AH752" s="6"/>
       <c r="AI752" s="6"/>
     </row>
-    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="C753" s="6"/>
@@ -30702,7 +30736,7 @@
       <c r="AH753" s="6"/>
       <c r="AI753" s="6"/>
     </row>
-    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="C754" s="6"/>
@@ -30739,7 +30773,7 @@
       <c r="AH754" s="6"/>
       <c r="AI754" s="6"/>
     </row>
-    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="C755" s="6"/>
@@ -30776,7 +30810,7 @@
       <c r="AH755" s="6"/>
       <c r="AI755" s="6"/>
     </row>
-    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="C756" s="6"/>
@@ -30813,7 +30847,7 @@
       <c r="AH756" s="6"/>
       <c r="AI756" s="6"/>
     </row>
-    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="C757" s="6"/>
@@ -30850,7 +30884,7 @@
       <c r="AH757" s="6"/>
       <c r="AI757" s="6"/>
     </row>
-    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="C758" s="6"/>
@@ -30887,7 +30921,7 @@
       <c r="AH758" s="6"/>
       <c r="AI758" s="6"/>
     </row>
-    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="C759" s="6"/>
@@ -30924,7 +30958,7 @@
       <c r="AH759" s="6"/>
       <c r="AI759" s="6"/>
     </row>
-    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="C760" s="6"/>
@@ -30961,7 +30995,7 @@
       <c r="AH760" s="6"/>
       <c r="AI760" s="6"/>
     </row>
-    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="C761" s="6"/>
@@ -30998,7 +31032,7 @@
       <c r="AH761" s="6"/>
       <c r="AI761" s="6"/>
     </row>
-    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="C762" s="6"/>
@@ -31035,7 +31069,7 @@
       <c r="AH762" s="6"/>
       <c r="AI762" s="6"/>
     </row>
-    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="C763" s="6"/>
@@ -31072,7 +31106,7 @@
       <c r="AH763" s="6"/>
       <c r="AI763" s="6"/>
     </row>
-    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="C764" s="6"/>
@@ -31109,7 +31143,7 @@
       <c r="AH764" s="6"/>
       <c r="AI764" s="6"/>
     </row>
-    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="C765" s="6"/>
@@ -31146,7 +31180,7 @@
       <c r="AH765" s="6"/>
       <c r="AI765" s="6"/>
     </row>
-    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="C766" s="6"/>
@@ -31183,7 +31217,7 @@
       <c r="AH766" s="6"/>
       <c r="AI766" s="6"/>
     </row>
-    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="C767" s="6"/>
@@ -31220,7 +31254,7 @@
       <c r="AH767" s="6"/>
       <c r="AI767" s="6"/>
     </row>
-    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="C768" s="6"/>
@@ -31257,7 +31291,7 @@
       <c r="AH768" s="6"/>
       <c r="AI768" s="6"/>
     </row>
-    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="C769" s="6"/>
@@ -31294,7 +31328,7 @@
       <c r="AH769" s="6"/>
       <c r="AI769" s="6"/>
     </row>
-    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="C770" s="6"/>
@@ -31331,7 +31365,7 @@
       <c r="AH770" s="6"/>
       <c r="AI770" s="6"/>
     </row>
-    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="C771" s="6"/>
@@ -31368,7 +31402,7 @@
       <c r="AH771" s="6"/>
       <c r="AI771" s="6"/>
     </row>
-    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="C772" s="6"/>
@@ -31405,7 +31439,7 @@
       <c r="AH772" s="6"/>
       <c r="AI772" s="6"/>
     </row>
-    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="C773" s="6"/>
@@ -31442,7 +31476,7 @@
       <c r="AH773" s="6"/>
       <c r="AI773" s="6"/>
     </row>
-    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="C774" s="6"/>
@@ -31479,7 +31513,7 @@
       <c r="AH774" s="6"/>
       <c r="AI774" s="6"/>
     </row>
-    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="C775" s="6"/>
@@ -31516,7 +31550,7 @@
       <c r="AH775" s="6"/>
       <c r="AI775" s="6"/>
     </row>
-    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="C776" s="6"/>
@@ -31553,7 +31587,7 @@
       <c r="AH776" s="6"/>
       <c r="AI776" s="6"/>
     </row>
-    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="C777" s="6"/>
@@ -31590,7 +31624,7 @@
       <c r="AH777" s="6"/>
       <c r="AI777" s="6"/>
     </row>
-    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="C778" s="6"/>
@@ -31627,7 +31661,7 @@
       <c r="AH778" s="6"/>
       <c r="AI778" s="6"/>
     </row>
-    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="C779" s="6"/>
@@ -31664,7 +31698,7 @@
       <c r="AH779" s="6"/>
       <c r="AI779" s="6"/>
     </row>
-    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="C780" s="6"/>
@@ -31701,7 +31735,7 @@
       <c r="AH780" s="6"/>
       <c r="AI780" s="6"/>
     </row>
-    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="C781" s="6"/>
@@ -31738,7 +31772,7 @@
       <c r="AH781" s="6"/>
       <c r="AI781" s="6"/>
     </row>
-    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="C782" s="6"/>
@@ -31775,7 +31809,7 @@
       <c r="AH782" s="6"/>
       <c r="AI782" s="6"/>
     </row>
-    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="C783" s="6"/>
@@ -31812,7 +31846,7 @@
       <c r="AH783" s="6"/>
       <c r="AI783" s="6"/>
     </row>
-    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="C784" s="6"/>
@@ -31849,7 +31883,7 @@
       <c r="AH784" s="6"/>
       <c r="AI784" s="6"/>
     </row>
-    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="C785" s="6"/>
@@ -31886,7 +31920,7 @@
       <c r="AH785" s="6"/>
       <c r="AI785" s="6"/>
     </row>
-    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="C786" s="6"/>
@@ -31923,7 +31957,7 @@
       <c r="AH786" s="6"/>
       <c r="AI786" s="6"/>
     </row>
-    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="C787" s="6"/>
@@ -31960,7 +31994,7 @@
       <c r="AH787" s="6"/>
       <c r="AI787" s="6"/>
     </row>
-    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="C788" s="6"/>
@@ -31997,7 +32031,7 @@
       <c r="AH788" s="6"/>
       <c r="AI788" s="6"/>
     </row>
-    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="C789" s="6"/>
@@ -32034,7 +32068,7 @@
       <c r="AH789" s="6"/>
       <c r="AI789" s="6"/>
     </row>
-    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="C790" s="6"/>
@@ -32071,7 +32105,7 @@
       <c r="AH790" s="6"/>
       <c r="AI790" s="6"/>
     </row>
-    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="C791" s="6"/>
@@ -32108,7 +32142,7 @@
       <c r="AH791" s="6"/>
       <c r="AI791" s="6"/>
     </row>
-    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="C792" s="6"/>
@@ -32145,7 +32179,7 @@
       <c r="AH792" s="6"/>
       <c r="AI792" s="6"/>
     </row>
-    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="C793" s="6"/>
@@ -32182,7 +32216,7 @@
       <c r="AH793" s="6"/>
       <c r="AI793" s="6"/>
     </row>
-    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="C794" s="6"/>
@@ -32219,7 +32253,7 @@
       <c r="AH794" s="6"/>
       <c r="AI794" s="6"/>
     </row>
-    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="C795" s="6"/>
@@ -32256,7 +32290,7 @@
       <c r="AH795" s="6"/>
       <c r="AI795" s="6"/>
     </row>
-    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="C796" s="6"/>
@@ -32293,7 +32327,7 @@
       <c r="AH796" s="6"/>
       <c r="AI796" s="6"/>
     </row>
-    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="C797" s="6"/>
@@ -32330,7 +32364,7 @@
       <c r="AH797" s="6"/>
       <c r="AI797" s="6"/>
     </row>
-    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="C798" s="6"/>
@@ -32367,7 +32401,7 @@
       <c r="AH798" s="6"/>
       <c r="AI798" s="6"/>
     </row>
-    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="C799" s="6"/>
@@ -32404,7 +32438,7 @@
       <c r="AH799" s="6"/>
       <c r="AI799" s="6"/>
     </row>
-    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="C800" s="6"/>
@@ -32441,7 +32475,7 @@
       <c r="AH800" s="6"/>
       <c r="AI800" s="6"/>
     </row>
-    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="C801" s="6"/>
@@ -32478,7 +32512,7 @@
       <c r="AH801" s="6"/>
       <c r="AI801" s="6"/>
     </row>
-    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="43"/>
       <c r="B802" s="43"/>
       <c r="C802" s="6"/>
@@ -32515,7 +32549,7 @@
       <c r="AH802" s="6"/>
       <c r="AI802" s="6"/>
     </row>
-    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="43"/>
       <c r="B803" s="43"/>
       <c r="C803" s="6"/>
@@ -32552,7 +32586,7 @@
       <c r="AH803" s="6"/>
       <c r="AI803" s="6"/>
     </row>
-    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="43"/>
       <c r="B804" s="43"/>
       <c r="C804" s="6"/>
@@ -32589,7 +32623,7 @@
       <c r="AH804" s="6"/>
       <c r="AI804" s="6"/>
     </row>
-    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="43"/>
       <c r="B805" s="43"/>
       <c r="C805" s="6"/>
@@ -32626,7 +32660,7 @@
       <c r="AH805" s="6"/>
       <c r="AI805" s="6"/>
     </row>
-    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="43"/>
       <c r="B806" s="43"/>
       <c r="C806" s="6"/>
@@ -32663,7 +32697,7 @@
       <c r="AH806" s="6"/>
       <c r="AI806" s="6"/>
     </row>
-    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="43"/>
       <c r="B807" s="43"/>
       <c r="C807" s="6"/>
@@ -32700,7 +32734,7 @@
       <c r="AH807" s="6"/>
       <c r="AI807" s="6"/>
     </row>
-    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="43"/>
       <c r="B808" s="43"/>
       <c r="C808" s="6"/>
@@ -32737,7 +32771,7 @@
       <c r="AH808" s="6"/>
       <c r="AI808" s="6"/>
     </row>
-    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="43"/>
       <c r="B809" s="43"/>
       <c r="C809" s="6"/>
@@ -32774,7 +32808,7 @@
       <c r="AH809" s="6"/>
       <c r="AI809" s="6"/>
     </row>
-    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="43"/>
       <c r="B810" s="43"/>
       <c r="C810" s="6"/>
@@ -32811,7 +32845,7 @@
       <c r="AH810" s="6"/>
       <c r="AI810" s="6"/>
     </row>
-    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="43"/>
       <c r="B811" s="43"/>
       <c r="C811" s="6"/>
@@ -32848,7 +32882,7 @@
       <c r="AH811" s="6"/>
       <c r="AI811" s="6"/>
     </row>
-    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="43"/>
       <c r="B812" s="43"/>
       <c r="C812" s="6"/>
@@ -32885,7 +32919,7 @@
       <c r="AH812" s="6"/>
       <c r="AI812" s="6"/>
     </row>
-    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="43"/>
       <c r="B813" s="43"/>
       <c r="C813" s="6"/>
@@ -32922,7 +32956,7 @@
       <c r="AH813" s="6"/>
       <c r="AI813" s="6"/>
     </row>
-    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="43"/>
       <c r="B814" s="43"/>
       <c r="C814" s="6"/>
@@ -32959,7 +32993,7 @@
       <c r="AH814" s="6"/>
       <c r="AI814" s="6"/>
     </row>
-    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="43"/>
       <c r="B815" s="43"/>
       <c r="C815" s="6"/>
@@ -32996,7 +33030,7 @@
       <c r="AH815" s="6"/>
       <c r="AI815" s="6"/>
     </row>
-    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="43"/>
       <c r="B816" s="43"/>
       <c r="C816" s="6"/>
@@ -33033,7 +33067,7 @@
       <c r="AH816" s="6"/>
       <c r="AI816" s="6"/>
     </row>
-    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="43"/>
       <c r="B817" s="43"/>
       <c r="C817" s="6"/>
@@ -33070,7 +33104,7 @@
       <c r="AH817" s="6"/>
       <c r="AI817" s="6"/>
     </row>
-    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="43"/>
       <c r="B818" s="43"/>
       <c r="C818" s="6"/>
@@ -33107,7 +33141,7 @@
       <c r="AH818" s="6"/>
       <c r="AI818" s="6"/>
     </row>
-    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="43"/>
       <c r="B819" s="43"/>
       <c r="C819" s="6"/>
@@ -33144,7 +33178,7 @@
       <c r="AH819" s="6"/>
       <c r="AI819" s="6"/>
     </row>
-    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="43"/>
       <c r="B820" s="43"/>
       <c r="C820" s="6"/>
@@ -33181,7 +33215,7 @@
       <c r="AH820" s="6"/>
       <c r="AI820" s="6"/>
     </row>
-    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="43"/>
       <c r="B821" s="43"/>
       <c r="C821" s="6"/>
@@ -33218,7 +33252,7 @@
       <c r="AH821" s="6"/>
       <c r="AI821" s="6"/>
     </row>
-    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="43"/>
       <c r="B822" s="43"/>
       <c r="C822" s="6"/>
@@ -33255,7 +33289,7 @@
       <c r="AH822" s="6"/>
       <c r="AI822" s="6"/>
     </row>
-    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="43"/>
       <c r="B823" s="43"/>
       <c r="C823" s="6"/>
@@ -33292,7 +33326,7 @@
       <c r="AH823" s="6"/>
       <c r="AI823" s="6"/>
     </row>
-    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="43"/>
       <c r="B824" s="43"/>
       <c r="C824" s="6"/>
@@ -33329,7 +33363,7 @@
       <c r="AH824" s="6"/>
       <c r="AI824" s="6"/>
     </row>
-    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="43"/>
       <c r="B825" s="43"/>
       <c r="C825" s="6"/>
@@ -33366,7 +33400,7 @@
       <c r="AH825" s="6"/>
       <c r="AI825" s="6"/>
     </row>
-    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="43"/>
       <c r="B826" s="43"/>
       <c r="C826" s="6"/>
@@ -33403,7 +33437,7 @@
       <c r="AH826" s="6"/>
       <c r="AI826" s="6"/>
     </row>
-    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="43"/>
       <c r="B827" s="43"/>
       <c r="C827" s="6"/>
@@ -33440,7 +33474,7 @@
       <c r="AH827" s="6"/>
       <c r="AI827" s="6"/>
     </row>
-    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="43"/>
       <c r="B828" s="43"/>
       <c r="C828" s="6"/>
@@ -33477,7 +33511,7 @@
       <c r="AH828" s="6"/>
       <c r="AI828" s="6"/>
     </row>
-    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="43"/>
       <c r="B829" s="43"/>
       <c r="C829" s="6"/>
@@ -33514,7 +33548,7 @@
       <c r="AH829" s="6"/>
       <c r="AI829" s="6"/>
     </row>
-    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="43"/>
       <c r="B830" s="43"/>
       <c r="C830" s="6"/>
@@ -33551,7 +33585,7 @@
       <c r="AH830" s="6"/>
       <c r="AI830" s="6"/>
     </row>
-    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="43"/>
       <c r="B831" s="43"/>
       <c r="C831" s="6"/>
@@ -33588,7 +33622,7 @@
       <c r="AH831" s="6"/>
       <c r="AI831" s="6"/>
     </row>
-    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="43"/>
       <c r="B832" s="43"/>
       <c r="C832" s="6"/>
@@ -33625,7 +33659,7 @@
       <c r="AH832" s="6"/>
       <c r="AI832" s="6"/>
     </row>
-    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="43"/>
       <c r="B833" s="43"/>
       <c r="C833" s="6"/>
@@ -33662,7 +33696,7 @@
       <c r="AH833" s="6"/>
       <c r="AI833" s="6"/>
     </row>
-    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="43"/>
       <c r="B834" s="43"/>
       <c r="C834" s="6"/>
@@ -33699,7 +33733,7 @@
       <c r="AH834" s="6"/>
       <c r="AI834" s="6"/>
     </row>
-    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="43"/>
       <c r="B835" s="43"/>
       <c r="C835" s="6"/>
@@ -33736,7 +33770,7 @@
       <c r="AH835" s="6"/>
       <c r="AI835" s="6"/>
     </row>
-    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="43"/>
       <c r="B836" s="43"/>
       <c r="C836" s="6"/>
@@ -33773,7 +33807,7 @@
       <c r="AH836" s="6"/>
       <c r="AI836" s="6"/>
     </row>
-    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="43"/>
       <c r="B837" s="43"/>
       <c r="C837" s="6"/>
@@ -33810,7 +33844,7 @@
       <c r="AH837" s="6"/>
       <c r="AI837" s="6"/>
     </row>
-    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="43"/>
       <c r="B838" s="43"/>
       <c r="C838" s="6"/>
@@ -33847,7 +33881,7 @@
       <c r="AH838" s="6"/>
       <c r="AI838" s="6"/>
     </row>
-    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="43"/>
       <c r="B839" s="43"/>
       <c r="C839" s="6"/>
@@ -33884,7 +33918,7 @@
       <c r="AH839" s="6"/>
       <c r="AI839" s="6"/>
     </row>
-    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="43"/>
       <c r="B840" s="43"/>
       <c r="C840" s="6"/>
@@ -33921,7 +33955,7 @@
       <c r="AH840" s="6"/>
       <c r="AI840" s="6"/>
     </row>
-    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="43"/>
       <c r="B841" s="43"/>
       <c r="C841" s="6"/>
@@ -33958,7 +33992,7 @@
       <c r="AH841" s="6"/>
       <c r="AI841" s="6"/>
     </row>
-    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="43"/>
       <c r="B842" s="43"/>
       <c r="C842" s="6"/>
@@ -33995,7 +34029,7 @@
       <c r="AH842" s="6"/>
       <c r="AI842" s="6"/>
     </row>
-    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="43"/>
       <c r="B843" s="43"/>
       <c r="C843" s="6"/>
@@ -34032,7 +34066,7 @@
       <c r="AH843" s="6"/>
       <c r="AI843" s="6"/>
     </row>
-    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="43"/>
       <c r="B844" s="43"/>
       <c r="C844" s="6"/>
@@ -34069,7 +34103,7 @@
       <c r="AH844" s="6"/>
       <c r="AI844" s="6"/>
     </row>
-    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="43"/>
       <c r="B845" s="43"/>
       <c r="C845" s="6"/>
@@ -34106,7 +34140,7 @@
       <c r="AH845" s="6"/>
       <c r="AI845" s="6"/>
     </row>
-    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="43"/>
       <c r="B846" s="43"/>
       <c r="C846" s="6"/>
@@ -34143,7 +34177,7 @@
       <c r="AH846" s="6"/>
       <c r="AI846" s="6"/>
     </row>
-    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="43"/>
       <c r="B847" s="43"/>
       <c r="C847" s="6"/>
@@ -34180,7 +34214,7 @@
       <c r="AH847" s="6"/>
       <c r="AI847" s="6"/>
     </row>
-    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="43"/>
       <c r="B848" s="43"/>
       <c r="C848" s="6"/>
@@ -34217,7 +34251,7 @@
       <c r="AH848" s="6"/>
       <c r="AI848" s="6"/>
     </row>
-    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="43"/>
       <c r="B849" s="43"/>
       <c r="C849" s="6"/>
@@ -34254,7 +34288,7 @@
       <c r="AH849" s="6"/>
       <c r="AI849" s="6"/>
     </row>
-    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="43"/>
       <c r="B850" s="43"/>
       <c r="C850" s="6"/>
@@ -34291,7 +34325,7 @@
       <c r="AH850" s="6"/>
       <c r="AI850" s="6"/>
     </row>
-    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="43"/>
       <c r="B851" s="43"/>
       <c r="C851" s="6"/>
@@ -34328,7 +34362,7 @@
       <c r="AH851" s="6"/>
       <c r="AI851" s="6"/>
     </row>
-    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="43"/>
       <c r="B852" s="43"/>
       <c r="C852" s="6"/>
@@ -34365,7 +34399,7 @@
       <c r="AH852" s="6"/>
       <c r="AI852" s="6"/>
     </row>
-    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="43"/>
       <c r="B853" s="43"/>
       <c r="C853" s="6"/>
@@ -34402,7 +34436,7 @@
       <c r="AH853" s="6"/>
       <c r="AI853" s="6"/>
     </row>
-    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="43"/>
       <c r="B854" s="43"/>
       <c r="C854" s="6"/>
@@ -34439,7 +34473,7 @@
       <c r="AH854" s="6"/>
       <c r="AI854" s="6"/>
     </row>
-    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="43"/>
       <c r="B855" s="43"/>
       <c r="C855" s="6"/>
@@ -34476,7 +34510,7 @@
       <c r="AH855" s="6"/>
       <c r="AI855" s="6"/>
     </row>
-    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="43"/>
       <c r="B856" s="43"/>
       <c r="C856" s="6"/>
@@ -34513,7 +34547,7 @@
       <c r="AH856" s="6"/>
       <c r="AI856" s="6"/>
     </row>
-    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="43"/>
       <c r="B857" s="43"/>
       <c r="C857" s="6"/>
@@ -34550,7 +34584,7 @@
       <c r="AH857" s="6"/>
       <c r="AI857" s="6"/>
     </row>
-    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="43"/>
       <c r="B858" s="43"/>
       <c r="C858" s="6"/>
@@ -34587,7 +34621,7 @@
       <c r="AH858" s="6"/>
       <c r="AI858" s="6"/>
     </row>
-    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="43"/>
       <c r="B859" s="43"/>
       <c r="C859" s="6"/>
@@ -34624,7 +34658,7 @@
       <c r="AH859" s="6"/>
       <c r="AI859" s="6"/>
     </row>
-    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="43"/>
       <c r="B860" s="43"/>
       <c r="C860" s="6"/>
@@ -34661,7 +34695,7 @@
       <c r="AH860" s="6"/>
       <c r="AI860" s="6"/>
     </row>
-    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="43"/>
       <c r="B861" s="43"/>
       <c r="C861" s="6"/>
@@ -34698,7 +34732,7 @@
       <c r="AH861" s="6"/>
       <c r="AI861" s="6"/>
     </row>
-    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="43"/>
       <c r="B862" s="43"/>
       <c r="C862" s="6"/>
@@ -34735,7 +34769,7 @@
       <c r="AH862" s="6"/>
       <c r="AI862" s="6"/>
     </row>
-    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="43"/>
       <c r="B863" s="43"/>
       <c r="C863" s="6"/>
@@ -34772,7 +34806,7 @@
       <c r="AH863" s="6"/>
       <c r="AI863" s="6"/>
     </row>
-    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="43"/>
       <c r="B864" s="43"/>
       <c r="C864" s="6"/>
@@ -34809,7 +34843,7 @@
       <c r="AH864" s="6"/>
       <c r="AI864" s="6"/>
     </row>
-    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="43"/>
       <c r="B865" s="43"/>
       <c r="C865" s="6"/>
@@ -34846,7 +34880,7 @@
       <c r="AH865" s="6"/>
       <c r="AI865" s="6"/>
     </row>
-    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="43"/>
       <c r="B866" s="43"/>
       <c r="C866" s="6"/>
@@ -34883,7 +34917,7 @@
       <c r="AH866" s="6"/>
       <c r="AI866" s="6"/>
     </row>
-    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="43"/>
       <c r="B867" s="43"/>
       <c r="C867" s="6"/>
@@ -34920,7 +34954,7 @@
       <c r="AH867" s="6"/>
       <c r="AI867" s="6"/>
     </row>
-    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="43"/>
       <c r="B868" s="43"/>
       <c r="C868" s="6"/>
@@ -34957,7 +34991,7 @@
       <c r="AH868" s="6"/>
       <c r="AI868" s="6"/>
     </row>
-    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="43"/>
       <c r="B869" s="43"/>
       <c r="C869" s="6"/>
@@ -34994,7 +35028,7 @@
       <c r="AH869" s="6"/>
       <c r="AI869" s="6"/>
     </row>
-    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="43"/>
       <c r="B870" s="43"/>
       <c r="C870" s="6"/>
@@ -35031,7 +35065,7 @@
       <c r="AH870" s="6"/>
       <c r="AI870" s="6"/>
     </row>
-    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="43"/>
       <c r="B871" s="43"/>
       <c r="C871" s="6"/>
@@ -35068,7 +35102,7 @@
       <c r="AH871" s="6"/>
       <c r="AI871" s="6"/>
     </row>
-    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="43"/>
       <c r="B872" s="43"/>
       <c r="C872" s="6"/>
@@ -35105,7 +35139,7 @@
       <c r="AH872" s="6"/>
       <c r="AI872" s="6"/>
     </row>
-    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="43"/>
       <c r="B873" s="43"/>
       <c r="C873" s="6"/>
@@ -35142,7 +35176,7 @@
       <c r="AH873" s="6"/>
       <c r="AI873" s="6"/>
     </row>
-    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="43"/>
       <c r="B874" s="43"/>
       <c r="C874" s="6"/>
@@ -35179,7 +35213,7 @@
       <c r="AH874" s="6"/>
       <c r="AI874" s="6"/>
     </row>
-    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="43"/>
       <c r="B875" s="43"/>
       <c r="C875" s="6"/>
@@ -35216,7 +35250,7 @@
       <c r="AH875" s="6"/>
       <c r="AI875" s="6"/>
     </row>
-    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="43"/>
       <c r="B876" s="43"/>
       <c r="C876" s="6"/>
@@ -35253,7 +35287,7 @@
       <c r="AH876" s="6"/>
       <c r="AI876" s="6"/>
     </row>
-    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="43"/>
       <c r="B877" s="43"/>
       <c r="C877" s="6"/>
@@ -35290,7 +35324,7 @@
       <c r="AH877" s="6"/>
       <c r="AI877" s="6"/>
     </row>
-    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="43"/>
       <c r="B878" s="43"/>
       <c r="C878" s="6"/>
@@ -35327,7 +35361,7 @@
       <c r="AH878" s="6"/>
       <c r="AI878" s="6"/>
     </row>
-    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="43"/>
       <c r="B879" s="43"/>
       <c r="C879" s="6"/>
@@ -35364,7 +35398,7 @@
       <c r="AH879" s="6"/>
       <c r="AI879" s="6"/>
     </row>
-    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="43"/>
       <c r="B880" s="43"/>
       <c r="C880" s="6"/>
@@ -35401,7 +35435,7 @@
       <c r="AH880" s="6"/>
       <c r="AI880" s="6"/>
     </row>
-    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="43"/>
       <c r="B881" s="43"/>
       <c r="C881" s="6"/>
@@ -35438,7 +35472,7 @@
       <c r="AH881" s="6"/>
       <c r="AI881" s="6"/>
     </row>
-    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="43"/>
       <c r="B882" s="43"/>
       <c r="C882" s="6"/>
@@ -35475,7 +35509,7 @@
       <c r="AH882" s="6"/>
       <c r="AI882" s="6"/>
     </row>
-    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="43"/>
       <c r="B883" s="43"/>
       <c r="C883" s="6"/>
@@ -35512,7 +35546,7 @@
       <c r="AH883" s="6"/>
       <c r="AI883" s="6"/>
     </row>
-    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="43"/>
       <c r="B884" s="43"/>
       <c r="C884" s="6"/>
@@ -35549,7 +35583,7 @@
       <c r="AH884" s="6"/>
       <c r="AI884" s="6"/>
     </row>
-    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="43"/>
       <c r="B885" s="43"/>
       <c r="C885" s="6"/>
@@ -35586,7 +35620,7 @@
       <c r="AH885" s="6"/>
       <c r="AI885" s="6"/>
     </row>
-    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="43"/>
       <c r="B886" s="43"/>
       <c r="C886" s="6"/>
@@ -35623,7 +35657,7 @@
       <c r="AH886" s="6"/>
       <c r="AI886" s="6"/>
     </row>
-    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="43"/>
       <c r="B887" s="43"/>
       <c r="C887" s="6"/>
@@ -35660,7 +35694,7 @@
       <c r="AH887" s="6"/>
       <c r="AI887" s="6"/>
     </row>
-    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="43"/>
       <c r="B888" s="43"/>
       <c r="C888" s="6"/>
@@ -35697,7 +35731,7 @@
       <c r="AH888" s="6"/>
       <c r="AI888" s="6"/>
     </row>
-    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="43"/>
       <c r="B889" s="43"/>
       <c r="C889" s="6"/>
@@ -35734,7 +35768,7 @@
       <c r="AH889" s="6"/>
       <c r="AI889" s="6"/>
     </row>
-    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="43"/>
       <c r="B890" s="43"/>
       <c r="C890" s="6"/>
@@ -35771,7 +35805,7 @@
       <c r="AH890" s="6"/>
       <c r="AI890" s="6"/>
     </row>
-    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="43"/>
       <c r="B891" s="43"/>
       <c r="C891" s="6"/>
@@ -35808,7 +35842,7 @@
       <c r="AH891" s="6"/>
       <c r="AI891" s="6"/>
     </row>
-    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="43"/>
       <c r="B892" s="43"/>
       <c r="C892" s="6"/>
@@ -35845,7 +35879,7 @@
       <c r="AH892" s="6"/>
       <c r="AI892" s="6"/>
     </row>
-    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="43"/>
       <c r="B893" s="43"/>
       <c r="C893" s="6"/>
@@ -35882,7 +35916,7 @@
       <c r="AH893" s="6"/>
       <c r="AI893" s="6"/>
     </row>
-    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="43"/>
       <c r="B894" s="43"/>
       <c r="C894" s="6"/>
@@ -35919,7 +35953,7 @@
       <c r="AH894" s="6"/>
       <c r="AI894" s="6"/>
     </row>
-    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="43"/>
       <c r="B895" s="43"/>
       <c r="C895" s="6"/>
@@ -35956,7 +35990,7 @@
       <c r="AH895" s="6"/>
       <c r="AI895" s="6"/>
     </row>
-    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="43"/>
       <c r="B896" s="43"/>
       <c r="C896" s="6"/>
@@ -35993,7 +36027,7 @@
       <c r="AH896" s="6"/>
       <c r="AI896" s="6"/>
     </row>
-    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="43"/>
       <c r="B897" s="43"/>
       <c r="C897" s="6"/>
@@ -36030,7 +36064,7 @@
       <c r="AH897" s="6"/>
       <c r="AI897" s="6"/>
     </row>
-    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="43"/>
       <c r="B898" s="43"/>
       <c r="C898" s="6"/>
@@ -36067,7 +36101,7 @@
       <c r="AH898" s="6"/>
       <c r="AI898" s="6"/>
     </row>
-    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="43"/>
       <c r="B899" s="43"/>
       <c r="C899" s="6"/>
@@ -36104,7 +36138,7 @@
       <c r="AH899" s="6"/>
       <c r="AI899" s="6"/>
     </row>
-    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="43"/>
       <c r="B900" s="43"/>
       <c r="C900" s="6"/>
@@ -36141,7 +36175,7 @@
       <c r="AH900" s="6"/>
       <c r="AI900" s="6"/>
     </row>
-    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="43"/>
       <c r="B901" s="43"/>
       <c r="C901" s="6"/>
@@ -36178,7 +36212,7 @@
       <c r="AH901" s="6"/>
       <c r="AI901" s="6"/>
     </row>
-    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="43"/>
       <c r="B902" s="43"/>
       <c r="C902" s="6"/>
@@ -36215,7 +36249,7 @@
       <c r="AH902" s="6"/>
       <c r="AI902" s="6"/>
     </row>
-    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="43"/>
       <c r="B903" s="43"/>
       <c r="C903" s="6"/>
@@ -36252,7 +36286,7 @@
       <c r="AH903" s="6"/>
       <c r="AI903" s="6"/>
     </row>
-    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="43"/>
       <c r="B904" s="43"/>
       <c r="C904" s="6"/>
@@ -36289,7 +36323,7 @@
       <c r="AH904" s="6"/>
       <c r="AI904" s="6"/>
     </row>
-    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="43"/>
       <c r="B905" s="43"/>
       <c r="C905" s="6"/>
@@ -36326,7 +36360,7 @@
       <c r="AH905" s="6"/>
       <c r="AI905" s="6"/>
     </row>
-    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="43"/>
       <c r="B906" s="43"/>
       <c r="C906" s="6"/>
@@ -36363,7 +36397,7 @@
       <c r="AH906" s="6"/>
       <c r="AI906" s="6"/>
     </row>
-    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="43"/>
       <c r="B907" s="43"/>
       <c r="C907" s="6"/>
@@ -36400,7 +36434,7 @@
       <c r="AH907" s="6"/>
       <c r="AI907" s="6"/>
     </row>
-    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="43"/>
       <c r="B908" s="43"/>
       <c r="C908" s="6"/>
@@ -36437,7 +36471,7 @@
       <c r="AH908" s="6"/>
       <c r="AI908" s="6"/>
     </row>
-    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="43"/>
       <c r="B909" s="43"/>
       <c r="C909" s="6"/>
@@ -36474,7 +36508,7 @@
       <c r="AH909" s="6"/>
       <c r="AI909" s="6"/>
     </row>
-    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="43"/>
       <c r="B910" s="43"/>
       <c r="C910" s="6"/>
@@ -36511,7 +36545,7 @@
       <c r="AH910" s="6"/>
       <c r="AI910" s="6"/>
     </row>
-    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="43"/>
       <c r="B911" s="43"/>
       <c r="C911" s="6"/>
@@ -36548,7 +36582,7 @@
       <c r="AH911" s="6"/>
       <c r="AI911" s="6"/>
     </row>
-    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="43"/>
       <c r="B912" s="43"/>
       <c r="C912" s="6"/>
@@ -36585,7 +36619,7 @@
       <c r="AH912" s="6"/>
       <c r="AI912" s="6"/>
     </row>
-    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="43"/>
       <c r="B913" s="43"/>
       <c r="C913" s="6"/>
@@ -36622,7 +36656,7 @@
       <c r="AH913" s="6"/>
       <c r="AI913" s="6"/>
     </row>
-    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="43"/>
       <c r="B914" s="43"/>
       <c r="C914" s="6"/>
@@ -36659,7 +36693,7 @@
       <c r="AH914" s="6"/>
       <c r="AI914" s="6"/>
     </row>
-    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="43"/>
       <c r="B915" s="43"/>
       <c r="C915" s="6"/>
@@ -36696,7 +36730,7 @@
       <c r="AH915" s="6"/>
       <c r="AI915" s="6"/>
     </row>
-    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="43"/>
       <c r="B916" s="43"/>
       <c r="C916" s="6"/>
@@ -36733,7 +36767,7 @@
       <c r="AH916" s="6"/>
       <c r="AI916" s="6"/>
     </row>
-    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="43"/>
       <c r="B917" s="43"/>
       <c r="C917" s="6"/>
@@ -36770,7 +36804,7 @@
       <c r="AH917" s="6"/>
       <c r="AI917" s="6"/>
     </row>
-    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="43"/>
       <c r="B918" s="43"/>
       <c r="C918" s="6"/>
@@ -36807,7 +36841,7 @@
       <c r="AH918" s="6"/>
       <c r="AI918" s="6"/>
     </row>
-    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="43"/>
       <c r="B919" s="43"/>
       <c r="C919" s="6"/>
@@ -36844,7 +36878,7 @@
       <c r="AH919" s="6"/>
       <c r="AI919" s="6"/>
     </row>
-    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="43"/>
       <c r="B920" s="43"/>
       <c r="C920" s="6"/>
@@ -36881,7 +36915,7 @@
       <c r="AH920" s="6"/>
       <c r="AI920" s="6"/>
     </row>
-    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="43"/>
       <c r="B921" s="43"/>
       <c r="C921" s="6"/>
@@ -36918,7 +36952,7 @@
       <c r="AH921" s="6"/>
       <c r="AI921" s="6"/>
     </row>
-    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="43"/>
       <c r="B922" s="43"/>
       <c r="C922" s="6"/>
@@ -36955,7 +36989,7 @@
       <c r="AH922" s="6"/>
       <c r="AI922" s="6"/>
     </row>
-    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="43"/>
       <c r="B923" s="43"/>
       <c r="C923" s="6"/>
@@ -36992,7 +37026,7 @@
       <c r="AH923" s="6"/>
       <c r="AI923" s="6"/>
     </row>
-    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="43"/>
       <c r="B924" s="43"/>
       <c r="C924" s="6"/>
@@ -37029,7 +37063,7 @@
       <c r="AH924" s="6"/>
       <c r="AI924" s="6"/>
     </row>
-    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="43"/>
       <c r="B925" s="43"/>
       <c r="C925" s="6"/>
@@ -37066,7 +37100,7 @@
       <c r="AH925" s="6"/>
       <c r="AI925" s="6"/>
     </row>
-    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="43"/>
       <c r="B926" s="43"/>
       <c r="C926" s="6"/>
@@ -37103,7 +37137,7 @@
       <c r="AH926" s="6"/>
       <c r="AI926" s="6"/>
     </row>
-    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="43"/>
       <c r="B927" s="43"/>
       <c r="C927" s="6"/>
@@ -37140,7 +37174,7 @@
       <c r="AH927" s="6"/>
       <c r="AI927" s="6"/>
     </row>
-    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="43"/>
       <c r="B928" s="43"/>
       <c r="C928" s="6"/>
@@ -37177,7 +37211,7 @@
       <c r="AH928" s="6"/>
       <c r="AI928" s="6"/>
     </row>
-    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="43"/>
       <c r="B929" s="43"/>
       <c r="C929" s="6"/>
@@ -37214,7 +37248,7 @@
       <c r="AH929" s="6"/>
       <c r="AI929" s="6"/>
     </row>
-    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="43"/>
       <c r="B930" s="43"/>
       <c r="C930" s="6"/>
@@ -37251,7 +37285,7 @@
       <c r="AH930" s="6"/>
       <c r="AI930" s="6"/>
     </row>
-    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="43"/>
       <c r="B931" s="43"/>
       <c r="C931" s="6"/>
@@ -37288,7 +37322,7 @@
       <c r="AH931" s="6"/>
       <c r="AI931" s="6"/>
     </row>
-    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="43"/>
       <c r="B932" s="43"/>
       <c r="C932" s="6"/>
@@ -37325,7 +37359,7 @@
       <c r="AH932" s="6"/>
       <c r="AI932" s="6"/>
     </row>
-    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="43"/>
       <c r="B933" s="43"/>
       <c r="C933" s="6"/>
@@ -37362,7 +37396,7 @@
       <c r="AH933" s="6"/>
       <c r="AI933" s="6"/>
     </row>
-    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="43"/>
       <c r="B934" s="43"/>
       <c r="C934" s="6"/>
@@ -37399,7 +37433,7 @@
       <c r="AH934" s="6"/>
       <c r="AI934" s="6"/>
     </row>
-    <row r="935" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="43"/>
       <c r="B935" s="43"/>
       <c r="C935" s="6"/>
@@ -37436,7 +37470,7 @@
       <c r="AH935" s="6"/>
       <c r="AI935" s="6"/>
     </row>
-    <row r="936" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="43"/>
       <c r="B936" s="43"/>
       <c r="C936" s="6"/>
@@ -37473,7 +37507,7 @@
       <c r="AH936" s="6"/>
       <c r="AI936" s="6"/>
     </row>
-    <row r="937" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="43"/>
       <c r="B937" s="43"/>
       <c r="C937" s="6"/>
@@ -37510,7 +37544,7 @@
       <c r="AH937" s="6"/>
       <c r="AI937" s="6"/>
     </row>
-    <row r="938" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="43"/>
       <c r="B938" s="43"/>
       <c r="C938" s="6"/>
@@ -37547,7 +37581,7 @@
       <c r="AH938" s="6"/>
       <c r="AI938" s="6"/>
     </row>
-    <row r="939" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="43"/>
       <c r="B939" s="43"/>
       <c r="C939" s="6"/>
@@ -37584,7 +37618,7 @@
       <c r="AH939" s="6"/>
       <c r="AI939" s="6"/>
     </row>
-    <row r="940" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="43"/>
       <c r="B940" s="43"/>
       <c r="C940" s="6"/>
@@ -37621,7 +37655,7 @@
       <c r="AH940" s="6"/>
       <c r="AI940" s="6"/>
     </row>
-    <row r="941" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="43"/>
       <c r="B941" s="43"/>
       <c r="C941" s="6"/>
@@ -37658,7 +37692,7 @@
       <c r="AH941" s="6"/>
       <c r="AI941" s="6"/>
     </row>
-    <row r="942" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="43"/>
       <c r="B942" s="43"/>
       <c r="C942" s="6"/>
@@ -37695,7 +37729,7 @@
       <c r="AH942" s="6"/>
       <c r="AI942" s="6"/>
     </row>
-    <row r="943" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="43"/>
       <c r="B943" s="43"/>
       <c r="C943" s="6"/>
@@ -37732,7 +37766,7 @@
       <c r="AH943" s="6"/>
       <c r="AI943" s="6"/>
     </row>
-    <row r="944" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="43"/>
       <c r="B944" s="43"/>
       <c r="C944" s="6"/>
@@ -37769,7 +37803,7 @@
       <c r="AH944" s="6"/>
       <c r="AI944" s="6"/>
     </row>
-    <row r="945" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="43"/>
       <c r="B945" s="43"/>
       <c r="C945" s="6"/>
@@ -37806,7 +37840,7 @@
       <c r="AH945" s="6"/>
       <c r="AI945" s="6"/>
     </row>
-    <row r="946" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="43"/>
       <c r="B946" s="43"/>
       <c r="C946" s="6"/>
@@ -37843,7 +37877,7 @@
       <c r="AH946" s="6"/>
       <c r="AI946" s="6"/>
     </row>
-    <row r="947" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="43"/>
       <c r="B947" s="43"/>
       <c r="C947" s="6"/>
@@ -37880,7 +37914,7 @@
       <c r="AH947" s="6"/>
       <c r="AI947" s="6"/>
     </row>
-    <row r="948" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="43"/>
       <c r="B948" s="43"/>
       <c r="C948" s="6"/>
@@ -37917,7 +37951,7 @@
       <c r="AH948" s="6"/>
       <c r="AI948" s="6"/>
     </row>
-    <row r="949" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="43"/>
       <c r="B949" s="43"/>
       <c r="C949" s="6"/>
@@ -37954,7 +37988,7 @@
       <c r="AH949" s="6"/>
       <c r="AI949" s="6"/>
     </row>
-    <row r="950" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="43"/>
       <c r="B950" s="43"/>
       <c r="C950" s="6"/>
@@ -37991,7 +38025,7 @@
       <c r="AH950" s="6"/>
       <c r="AI950" s="6"/>
     </row>
-    <row r="951" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="43"/>
       <c r="B951" s="43"/>
       <c r="C951" s="6"/>
@@ -38028,7 +38062,7 @@
       <c r="AH951" s="6"/>
       <c r="AI951" s="6"/>
     </row>
-    <row r="952" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="43"/>
       <c r="B952" s="43"/>
       <c r="C952" s="6"/>
@@ -38065,7 +38099,7 @@
       <c r="AH952" s="6"/>
       <c r="AI952" s="6"/>
     </row>
-    <row r="953" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="43"/>
       <c r="B953" s="43"/>
       <c r="C953" s="6"/>
@@ -38102,7 +38136,7 @@
       <c r="AH953" s="6"/>
       <c r="AI953" s="6"/>
     </row>
-    <row r="954" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="43"/>
       <c r="B954" s="43"/>
       <c r="C954" s="6"/>
@@ -38139,7 +38173,7 @@
       <c r="AH954" s="6"/>
       <c r="AI954" s="6"/>
     </row>
-    <row r="955" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="43"/>
       <c r="B955" s="43"/>
       <c r="C955" s="6"/>
@@ -38176,7 +38210,7 @@
       <c r="AH955" s="6"/>
       <c r="AI955" s="6"/>
     </row>
-    <row r="956" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="43"/>
       <c r="B956" s="43"/>
       <c r="C956" s="6"/>
@@ -38213,7 +38247,7 @@
       <c r="AH956" s="6"/>
       <c r="AI956" s="6"/>
     </row>
-    <row r="957" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="43"/>
       <c r="B957" s="43"/>
       <c r="C957" s="6"/>
@@ -38250,7 +38284,7 @@
       <c r="AH957" s="6"/>
       <c r="AI957" s="6"/>
     </row>
-    <row r="958" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="43"/>
       <c r="B958" s="43"/>
       <c r="C958" s="6"/>
@@ -38287,7 +38321,7 @@
       <c r="AH958" s="6"/>
       <c r="AI958" s="6"/>
     </row>
-    <row r="959" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="43"/>
       <c r="B959" s="43"/>
       <c r="C959" s="6"/>
@@ -38324,7 +38358,7 @@
       <c r="AH959" s="6"/>
       <c r="AI959" s="6"/>
     </row>
-    <row r="960" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="43"/>
       <c r="B960" s="43"/>
       <c r="C960" s="6"/>
@@ -38361,7 +38395,7 @@
       <c r="AH960" s="6"/>
       <c r="AI960" s="6"/>
     </row>
-    <row r="961" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="43"/>
       <c r="B961" s="43"/>
       <c r="C961" s="6"/>
@@ -38398,7 +38432,7 @@
       <c r="AH961" s="6"/>
       <c r="AI961" s="6"/>
     </row>
-    <row r="962" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="43"/>
       <c r="B962" s="43"/>
       <c r="C962" s="6"/>
@@ -38435,7 +38469,7 @@
       <c r="AH962" s="6"/>
       <c r="AI962" s="6"/>
     </row>
-    <row r="963" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="43"/>
       <c r="B963" s="43"/>
       <c r="C963" s="6"/>
@@ -38472,7 +38506,7 @@
       <c r="AH963" s="6"/>
       <c r="AI963" s="6"/>
     </row>
-    <row r="964" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="43"/>
       <c r="B964" s="43"/>
       <c r="C964" s="6"/>
@@ -38509,7 +38543,7 @@
       <c r="AH964" s="6"/>
       <c r="AI964" s="6"/>
     </row>
-    <row r="965" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="43"/>
       <c r="B965" s="43"/>
       <c r="C965" s="6"/>
@@ -38546,7 +38580,7 @@
       <c r="AH965" s="6"/>
       <c r="AI965" s="6"/>
     </row>
-    <row r="966" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="43"/>
       <c r="B966" s="43"/>
       <c r="C966" s="6"/>
@@ -38583,7 +38617,7 @@
       <c r="AH966" s="6"/>
       <c r="AI966" s="6"/>
     </row>
-    <row r="967" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="43"/>
       <c r="B967" s="43"/>
       <c r="C967" s="6"/>
@@ -38620,7 +38654,7 @@
       <c r="AH967" s="6"/>
       <c r="AI967" s="6"/>
     </row>
-    <row r="968" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="43"/>
       <c r="B968" s="43"/>
       <c r="C968" s="6"/>
@@ -38657,7 +38691,7 @@
       <c r="AH968" s="6"/>
       <c r="AI968" s="6"/>
     </row>
-    <row r="969" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="43"/>
       <c r="B969" s="43"/>
       <c r="C969" s="6"/>
@@ -38694,7 +38728,7 @@
       <c r="AH969" s="6"/>
       <c r="AI969" s="6"/>
     </row>
-    <row r="970" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="43"/>
       <c r="B970" s="43"/>
       <c r="C970" s="6"/>
@@ -38731,7 +38765,7 @@
       <c r="AH970" s="6"/>
       <c r="AI970" s="6"/>
     </row>
-    <row r="971" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="43"/>
       <c r="B971" s="43"/>
       <c r="C971" s="6"/>
@@ -38768,7 +38802,7 @@
       <c r="AH971" s="6"/>
       <c r="AI971" s="6"/>
     </row>
-    <row r="972" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="43"/>
       <c r="B972" s="43"/>
       <c r="C972" s="6"/>
@@ -38805,7 +38839,7 @@
       <c r="AH972" s="6"/>
       <c r="AI972" s="6"/>
     </row>
-    <row r="973" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="43"/>
       <c r="B973" s="43"/>
       <c r="C973" s="6"/>
@@ -38842,7 +38876,7 @@
       <c r="AH973" s="6"/>
       <c r="AI973" s="6"/>
     </row>
-    <row r="974" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="43"/>
       <c r="B974" s="43"/>
       <c r="C974" s="6"/>
@@ -38879,7 +38913,7 @@
       <c r="AH974" s="6"/>
       <c r="AI974" s="6"/>
     </row>
-    <row r="975" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="43"/>
       <c r="B975" s="43"/>
       <c r="C975" s="6"/>
@@ -38916,7 +38950,7 @@
       <c r="AH975" s="6"/>
       <c r="AI975" s="6"/>
     </row>
-    <row r="976" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="43"/>
       <c r="B976" s="43"/>
       <c r="C976" s="6"/>
@@ -38953,7 +38987,7 @@
       <c r="AH976" s="6"/>
       <c r="AI976" s="6"/>
     </row>
-    <row r="977" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="43"/>
       <c r="B977" s="43"/>
       <c r="C977" s="6"/>
@@ -38990,7 +39024,7 @@
       <c r="AH977" s="6"/>
       <c r="AI977" s="6"/>
     </row>
-    <row r="978" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="43"/>
       <c r="B978" s="43"/>
       <c r="C978" s="6"/>
@@ -39027,7 +39061,7 @@
       <c r="AH978" s="6"/>
       <c r="AI978" s="6"/>
     </row>
-    <row r="979" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="43"/>
       <c r="B979" s="43"/>
       <c r="C979" s="6"/>
@@ -39064,7 +39098,7 @@
       <c r="AH979" s="6"/>
       <c r="AI979" s="6"/>
     </row>
-    <row r="980" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="43"/>
       <c r="B980" s="43"/>
       <c r="C980" s="6"/>
@@ -39101,7 +39135,7 @@
       <c r="AH980" s="6"/>
       <c r="AI980" s="6"/>
     </row>
-    <row r="981" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="43"/>
       <c r="B981" s="43"/>
       <c r="C981" s="6"/>
@@ -39138,7 +39172,7 @@
       <c r="AH981" s="6"/>
       <c r="AI981" s="6"/>
     </row>
-    <row r="982" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="43"/>
       <c r="B982" s="43"/>
       <c r="C982" s="6"/>
@@ -39175,7 +39209,7 @@
       <c r="AH982" s="6"/>
       <c r="AI982" s="6"/>
     </row>
-    <row r="983" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="43"/>
       <c r="B983" s="43"/>
       <c r="C983" s="6"/>
@@ -39212,7 +39246,7 @@
       <c r="AH983" s="6"/>
       <c r="AI983" s="6"/>
     </row>
-    <row r="984" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="43"/>
       <c r="B984" s="43"/>
       <c r="C984" s="6"/>
@@ -39249,7 +39283,7 @@
       <c r="AH984" s="6"/>
       <c r="AI984" s="6"/>
     </row>
-    <row r="985" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="43"/>
       <c r="B985" s="43"/>
       <c r="C985" s="6"/>
@@ -39286,7 +39320,7 @@
       <c r="AH985" s="6"/>
       <c r="AI985" s="6"/>
     </row>
-    <row r="986" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="43"/>
       <c r="B986" s="43"/>
       <c r="C986" s="6"/>
@@ -39323,7 +39357,7 @@
       <c r="AH986" s="6"/>
       <c r="AI986" s="6"/>
     </row>
-    <row r="987" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="43"/>
       <c r="B987" s="43"/>
       <c r="C987" s="6"/>
@@ -39360,7 +39394,7 @@
       <c r="AH987" s="6"/>
       <c r="AI987" s="6"/>
     </row>
-    <row r="988" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="43"/>
       <c r="B988" s="43"/>
       <c r="C988" s="6"/>
@@ -39397,7 +39431,7 @@
       <c r="AH988" s="6"/>
       <c r="AI988" s="6"/>
     </row>
-    <row r="989" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="43"/>
       <c r="B989" s="43"/>
       <c r="C989" s="6"/>
@@ -39434,7 +39468,7 @@
       <c r="AH989" s="6"/>
       <c r="AI989" s="6"/>
     </row>
-    <row r="990" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="43"/>
       <c r="B990" s="43"/>
       <c r="C990" s="6"/>
@@ -39471,7 +39505,7 @@
       <c r="AH990" s="6"/>
       <c r="AI990" s="6"/>
     </row>
-    <row r="991" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="43"/>
       <c r="B991" s="43"/>
       <c r="C991" s="6"/>
@@ -39508,7 +39542,7 @@
       <c r="AH991" s="6"/>
       <c r="AI991" s="6"/>
     </row>
-    <row r="992" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="43"/>
       <c r="B992" s="43"/>
       <c r="C992" s="6"/>
@@ -39545,7 +39579,7 @@
       <c r="AH992" s="6"/>
       <c r="AI992" s="6"/>
     </row>
-    <row r="993" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="43"/>
       <c r="B993" s="43"/>
       <c r="C993" s="6"/>
@@ -39582,7 +39616,7 @@
       <c r="AH993" s="6"/>
       <c r="AI993" s="6"/>
     </row>
-    <row r="994" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="43"/>
       <c r="B994" s="43"/>
       <c r="C994" s="6"/>
@@ -39619,7 +39653,7 @@
       <c r="AH994" s="6"/>
       <c r="AI994" s="6"/>
     </row>
-    <row r="995" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="43"/>
       <c r="B995" s="43"/>
       <c r="C995" s="6"/>
@@ -39656,7 +39690,7 @@
       <c r="AH995" s="6"/>
       <c r="AI995" s="6"/>
     </row>
-    <row r="996" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="43"/>
       <c r="B996" s="43"/>
       <c r="C996" s="6"/>
@@ -39693,7 +39727,7 @@
       <c r="AH996" s="6"/>
       <c r="AI996" s="6"/>
     </row>
-    <row r="997" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="43"/>
       <c r="B997" s="43"/>
       <c r="C997" s="6"/>
@@ -39730,7 +39764,7 @@
       <c r="AH997" s="6"/>
       <c r="AI997" s="6"/>
     </row>
-    <row r="998" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="43"/>
       <c r="B998" s="43"/>
       <c r="C998" s="6"/>
@@ -39767,7 +39801,7 @@
       <c r="AH998" s="6"/>
       <c r="AI998" s="6"/>
     </row>
-    <row r="999" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="43"/>
       <c r="B999" s="43"/>
       <c r="C999" s="6"/>
@@ -39804,7 +39838,7 @@
       <c r="AH999" s="6"/>
       <c r="AI999" s="6"/>
     </row>
-    <row r="1000" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="43"/>
       <c r="B1000" s="43"/>
       <c r="C1000" s="6"/>

--- a/Surgical_Cases_Master.xlsx
+++ b/Surgical_Cases_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dcode\nov_26\flexsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64872387-EB81-4450-9ED7-083C388E017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0C257E-4181-4D73-B967-DAC67252E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="2580" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllCases" sheetId="1" r:id="rId1"/>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2170,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J10" s="24">
         <v>20</v>

--- a/Surgical_Cases_Master.xlsx
+++ b/Surgical_Cases_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dcode\nov_26\flexsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0C257E-4181-4D73-B967-DAC67252E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9923765-E88A-4DCE-B169-5BA3EF8A0345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2580" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllCases" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="127">
   <si>
     <t>Row#</t>
   </si>
@@ -764,12 +764,6 @@
   <si>
     <t>OR1</t>
   </si>
-  <si>
-    <t>OR2</t>
-  </si>
-  <si>
-    <t>OR3</t>
-  </si>
 </sst>
 </file>
 
@@ -1075,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,34 +1394,34 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="35" width="9.140625" customWidth="1"/>
+    <col min="21" max="35" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1498,7 @@
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="e">
         <f>IF(EXACT(B2,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -1530,9 +1524,7 @@
       <c r="H2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>126</v>
-      </c>
+      <c r="I2" s="29"/>
       <c r="J2" s="24">
         <v>20</v>
       </c>
@@ -1562,9 +1554,7 @@
       <c r="R2" s="27">
         <v>2675</v>
       </c>
-      <c r="S2" s="28">
-        <v>1</v>
-      </c>
+      <c r="S2" s="28"/>
       <c r="T2" s="18">
         <v>0</v>
       </c>
@@ -1584,7 +1574,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="e">
         <f>IF(EXACT(B3,""),"",A2+1)</f>
         <v>#REF!</v>
@@ -1610,9 +1600,7 @@
       <c r="H3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>126</v>
-      </c>
+      <c r="I3" s="29"/>
       <c r="J3" s="24">
         <v>20</v>
       </c>
@@ -1642,9 +1630,7 @@
       <c r="R3" s="27">
         <v>1760</v>
       </c>
-      <c r="S3" s="28">
-        <v>2</v>
-      </c>
+      <c r="S3" s="28"/>
       <c r="T3" s="18">
         <v>0</v>
       </c>
@@ -1664,7 +1650,7 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="e">
         <f t="shared" ref="A4" si="2">IF(EXACT(B4,""),"",A3+1)</f>
         <v>#REF!</v>
@@ -1722,9 +1708,7 @@
       <c r="R4" s="27">
         <v>1883</v>
       </c>
-      <c r="S4" s="28">
-        <v>3</v>
-      </c>
+      <c r="S4" s="28"/>
       <c r="T4" s="18">
         <v>0</v>
       </c>
@@ -1744,7 +1728,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="e">
         <f>IF(EXACT(B5,""),"",A1+1)</f>
         <v>#VALUE!</v>
@@ -1770,9 +1754,7 @@
       <c r="H5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>126</v>
-      </c>
+      <c r="I5" s="29"/>
       <c r="J5" s="24">
         <v>20</v>
       </c>
@@ -1802,9 +1784,7 @@
       <c r="R5" s="27">
         <v>1020</v>
       </c>
-      <c r="S5" s="28">
-        <v>4</v>
-      </c>
+      <c r="S5" s="28"/>
       <c r="T5" s="18">
         <v>0</v>
       </c>
@@ -1824,7 +1804,7 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1849,9 +1829,7 @@
       <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="11">
         <v>20</v>
       </c>
@@ -1881,9 +1859,7 @@
       <c r="R6" s="16">
         <v>1321</v>
       </c>
-      <c r="S6" s="17">
-        <v>5</v>
-      </c>
+      <c r="S6" s="17"/>
       <c r="T6" s="18">
         <v>0</v>
       </c>
@@ -1903,7 +1879,7 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <f t="shared" ref="A7:A36" si="9">IF(EXACT(B7,""),"",A6+1)</f>
         <v>2</v>
@@ -1929,9 +1905,7 @@
       <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="24">
         <v>20</v>
       </c>
@@ -1961,9 +1935,7 @@
       <c r="R7" s="27">
         <v>3116</v>
       </c>
-      <c r="S7" s="28">
-        <v>6</v>
-      </c>
+      <c r="S7" s="28"/>
       <c r="T7" s="18">
         <v>0</v>
       </c>
@@ -1983,7 +1955,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <f t="shared" si="9"/>
         <v>3</v>
@@ -2009,9 +1981,7 @@
       <c r="H8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="I8" s="23"/>
       <c r="J8" s="24">
         <v>20</v>
       </c>
@@ -2041,9 +2011,7 @@
       <c r="R8" s="27">
         <v>1994</v>
       </c>
-      <c r="S8" s="17">
-        <v>7</v>
-      </c>
+      <c r="S8" s="17"/>
       <c r="T8" s="18">
         <v>0</v>
       </c>
@@ -2063,7 +2031,7 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -2089,9 +2057,7 @@
       <c r="H9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>127</v>
-      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="24">
         <v>20</v>
       </c>
@@ -2121,9 +2087,7 @@
       <c r="R9" s="27">
         <v>4005</v>
       </c>
-      <c r="S9" s="28">
-        <v>8</v>
-      </c>
+      <c r="S9" s="28"/>
       <c r="T9" s="18">
         <v>0</v>
       </c>
@@ -2143,7 +2107,7 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -2169,9 +2133,7 @@
       <c r="H10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="24">
         <v>20</v>
       </c>
@@ -2201,9 +2163,7 @@
       <c r="R10" s="27">
         <v>3054</v>
       </c>
-      <c r="S10" s="17">
-        <v>9</v>
-      </c>
+      <c r="S10" s="17"/>
       <c r="T10" s="18">
         <v>0</v>
       </c>
@@ -2223,7 +2183,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -2249,9 +2209,7 @@
       <c r="H11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="24">
         <v>20</v>
       </c>
@@ -2281,9 +2239,7 @@
       <c r="R11" s="27">
         <v>2443</v>
       </c>
-      <c r="S11" s="28">
-        <v>10</v>
-      </c>
+      <c r="S11" s="28"/>
       <c r="T11" s="18">
         <v>0</v>
       </c>
@@ -2303,7 +2259,7 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -2329,9 +2285,7 @@
       <c r="H12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="I12" s="23"/>
       <c r="J12" s="24">
         <v>20</v>
       </c>
@@ -2361,9 +2315,7 @@
       <c r="R12" s="27">
         <v>4134</v>
       </c>
-      <c r="S12" s="17">
-        <v>11</v>
-      </c>
+      <c r="S12" s="17"/>
       <c r="T12" s="18">
         <v>0</v>
       </c>
@@ -2383,7 +2335,7 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="e">
         <f>IF(EXACT(B13,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -2459,7 +2411,7 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2535,7 +2487,7 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2611,7 +2563,7 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2687,7 +2639,7 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2763,7 +2715,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2839,7 +2791,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2915,7 +2867,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -2991,7 +2943,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3067,7 +3019,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3143,7 +3095,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3219,7 +3171,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3295,7 +3247,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
-    <row r="25" spans="1:35" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3371,7 +3323,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="e">
         <f>IF(EXACT(B26,""),"",#REF!+1)</f>
         <v>#REF!</v>
@@ -3447,7 +3399,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3523,7 +3475,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3599,7 +3551,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3675,7 +3627,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3751,7 +3703,7 @@
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3827,7 +3779,7 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3903,7 +3855,7 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
     </row>
-    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -3979,7 +3931,7 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4055,7 +4007,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
     </row>
-    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4131,7 +4083,7 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="e">
         <f t="shared" si="9"/>
         <v>#REF!</v>
@@ -4207,7 +4159,7 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
@@ -4244,7 +4196,7 @@
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
@@ -4281,7 +4233,7 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44"/>
@@ -4318,7 +4270,7 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
@@ -4355,7 +4307,7 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
     </row>
-    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44"/>
@@ -4392,7 +4344,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44"/>
@@ -4429,7 +4381,7 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
@@ -4466,7 +4418,7 @@
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="6"/>
@@ -4503,7 +4455,7 @@
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
     </row>
-    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="6"/>
@@ -4540,7 +4492,7 @@
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="6"/>
@@ -4577,7 +4529,7 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="6"/>
@@ -4614,7 +4566,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
     </row>
-    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="6"/>
@@ -4651,7 +4603,7 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
     </row>
-    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="6"/>
@@ -4688,7 +4640,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="6"/>
@@ -4725,7 +4677,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
     </row>
-    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="6"/>
@@ -4762,7 +4714,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
     </row>
-    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="6"/>
@@ -4799,7 +4751,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
     </row>
-    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="6"/>
@@ -4836,7 +4788,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
     </row>
-    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="6"/>
@@ -4873,7 +4825,7 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
     </row>
-    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="6"/>
@@ -4910,7 +4862,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
     </row>
-    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="6"/>
@@ -4947,7 +4899,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
     </row>
-    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="6"/>
@@ -4984,7 +4936,7 @@
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
     </row>
-    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="6"/>
@@ -5021,7 +4973,7 @@
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
     </row>
-    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="6"/>
@@ -5058,7 +5010,7 @@
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
     </row>
-    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="6"/>
@@ -5095,7 +5047,7 @@
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
     </row>
-    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="6"/>
@@ -5132,7 +5084,7 @@
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
     </row>
-    <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="6"/>
@@ -5169,7 +5121,7 @@
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
     </row>
-    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="6"/>
@@ -5206,7 +5158,7 @@
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
     </row>
-    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="6"/>
@@ -5243,7 +5195,7 @@
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="6"/>
@@ -5280,7 +5232,7 @@
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
     </row>
-    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="6"/>
@@ -5317,7 +5269,7 @@
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
     </row>
-    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="6"/>
@@ -5354,7 +5306,7 @@
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
     </row>
-    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="6"/>
@@ -5391,7 +5343,7 @@
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
     </row>
-    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="6"/>
@@ -5428,7 +5380,7 @@
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
     </row>
-    <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="6"/>
@@ -5465,7 +5417,7 @@
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
     </row>
-    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="6"/>
@@ -5502,7 +5454,7 @@
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
     </row>
-    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="6"/>
@@ -5539,7 +5491,7 @@
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
     </row>
-    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="6"/>
@@ -5576,7 +5528,7 @@
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
     </row>
-    <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="6"/>
@@ -5613,7 +5565,7 @@
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
     </row>
-    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="6"/>
@@ -5650,7 +5602,7 @@
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
     </row>
-    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="6"/>
@@ -5687,7 +5639,7 @@
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
     </row>
-    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="6"/>
@@ -5724,7 +5676,7 @@
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
     </row>
-    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="6"/>
@@ -5761,7 +5713,7 @@
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
     </row>
-    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="6"/>
@@ -5798,7 +5750,7 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
     </row>
-    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="6"/>
@@ -5835,7 +5787,7 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
     </row>
-    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="6"/>
@@ -5872,7 +5824,7 @@
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
     </row>
-    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="6"/>
@@ -5909,7 +5861,7 @@
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
     </row>
-    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="6"/>
@@ -5946,7 +5898,7 @@
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
     </row>
-    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="6"/>
@@ -5983,7 +5935,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
     </row>
-    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="6"/>
@@ -6020,7 +5972,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
     </row>
-    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="6"/>
@@ -6057,7 +6009,7 @@
       <c r="AH86" s="6"/>
       <c r="AI86" s="6"/>
     </row>
-    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="6"/>
@@ -6094,7 +6046,7 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
     </row>
-    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="6"/>
@@ -6131,7 +6083,7 @@
       <c r="AH88" s="6"/>
       <c r="AI88" s="6"/>
     </row>
-    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="6"/>
@@ -6168,7 +6120,7 @@
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
     </row>
-    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="6"/>
@@ -6205,7 +6157,7 @@
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
     </row>
-    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="6"/>
@@ -6242,7 +6194,7 @@
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
     </row>
-    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="6"/>
@@ -6279,7 +6231,7 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
     </row>
-    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="6"/>
@@ -6316,7 +6268,7 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
     </row>
-    <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="6"/>
@@ -6353,7 +6305,7 @@
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
     </row>
-    <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="6"/>
@@ -6390,7 +6342,7 @@
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
     </row>
-    <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="6"/>
@@ -6427,7 +6379,7 @@
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
     </row>
-    <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="6"/>
@@ -6464,7 +6416,7 @@
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
     </row>
-    <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="6"/>
@@ -6501,7 +6453,7 @@
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
     </row>
-    <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="6"/>
@@ -6538,7 +6490,7 @@
       <c r="AH99" s="6"/>
       <c r="AI99" s="6"/>
     </row>
-    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="6"/>
@@ -6575,7 +6527,7 @@
       <c r="AH100" s="6"/>
       <c r="AI100" s="6"/>
     </row>
-    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="6"/>
@@ -6612,7 +6564,7 @@
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
     </row>
-    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="6"/>
@@ -6649,7 +6601,7 @@
       <c r="AH102" s="6"/>
       <c r="AI102" s="6"/>
     </row>
-    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="6"/>
@@ -6686,7 +6638,7 @@
       <c r="AH103" s="6"/>
       <c r="AI103" s="6"/>
     </row>
-    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="6"/>
@@ -6723,7 +6675,7 @@
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
     </row>
-    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="6"/>
@@ -6760,7 +6712,7 @@
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
     </row>
-    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="6"/>
@@ -6797,7 +6749,7 @@
       <c r="AH106" s="6"/>
       <c r="AI106" s="6"/>
     </row>
-    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="6"/>
@@ -6834,7 +6786,7 @@
       <c r="AH107" s="6"/>
       <c r="AI107" s="6"/>
     </row>
-    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="6"/>
@@ -6871,7 +6823,7 @@
       <c r="AH108" s="6"/>
       <c r="AI108" s="6"/>
     </row>
-    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="6"/>
@@ -6908,7 +6860,7 @@
       <c r="AH109" s="6"/>
       <c r="AI109" s="6"/>
     </row>
-    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="6"/>
@@ -6945,7 +6897,7 @@
       <c r="AH110" s="6"/>
       <c r="AI110" s="6"/>
     </row>
-    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="6"/>
@@ -6982,7 +6934,7 @@
       <c r="AH111" s="6"/>
       <c r="AI111" s="6"/>
     </row>
-    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="6"/>
@@ -7019,7 +6971,7 @@
       <c r="AH112" s="6"/>
       <c r="AI112" s="6"/>
     </row>
-    <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="6"/>
@@ -7056,7 +7008,7 @@
       <c r="AH113" s="6"/>
       <c r="AI113" s="6"/>
     </row>
-    <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="6"/>
@@ -7093,7 +7045,7 @@
       <c r="AH114" s="6"/>
       <c r="AI114" s="6"/>
     </row>
-    <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="6"/>
@@ -7130,7 +7082,7 @@
       <c r="AH115" s="6"/>
       <c r="AI115" s="6"/>
     </row>
-    <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="6"/>
@@ -7167,7 +7119,7 @@
       <c r="AH116" s="6"/>
       <c r="AI116" s="6"/>
     </row>
-    <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="6"/>
@@ -7204,7 +7156,7 @@
       <c r="AH117" s="6"/>
       <c r="AI117" s="6"/>
     </row>
-    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="6"/>
@@ -7241,7 +7193,7 @@
       <c r="AH118" s="6"/>
       <c r="AI118" s="6"/>
     </row>
-    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="C119" s="6"/>
@@ -7278,7 +7230,7 @@
       <c r="AH119" s="6"/>
       <c r="AI119" s="6"/>
     </row>
-    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="C120" s="6"/>
@@ -7315,7 +7267,7 @@
       <c r="AH120" s="6"/>
       <c r="AI120" s="6"/>
     </row>
-    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="6"/>
@@ -7352,7 +7304,7 @@
       <c r="AH121" s="6"/>
       <c r="AI121" s="6"/>
     </row>
-    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="6"/>
@@ -7389,7 +7341,7 @@
       <c r="AH122" s="6"/>
       <c r="AI122" s="6"/>
     </row>
-    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="6"/>
@@ -7426,7 +7378,7 @@
       <c r="AH123" s="6"/>
       <c r="AI123" s="6"/>
     </row>
-    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="6"/>
@@ -7463,7 +7415,7 @@
       <c r="AH124" s="6"/>
       <c r="AI124" s="6"/>
     </row>
-    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="6"/>
@@ -7500,7 +7452,7 @@
       <c r="AH125" s="6"/>
       <c r="AI125" s="6"/>
     </row>
-    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="6"/>
@@ -7537,7 +7489,7 @@
       <c r="AH126" s="6"/>
       <c r="AI126" s="6"/>
     </row>
-    <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="6"/>
@@ -7574,7 +7526,7 @@
       <c r="AH127" s="6"/>
       <c r="AI127" s="6"/>
     </row>
-    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="6"/>
@@ -7611,7 +7563,7 @@
       <c r="AH128" s="6"/>
       <c r="AI128" s="6"/>
     </row>
-    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="6"/>
@@ -7648,7 +7600,7 @@
       <c r="AH129" s="6"/>
       <c r="AI129" s="6"/>
     </row>
-    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="43"/>
       <c r="C130" s="6"/>
@@ -7685,7 +7637,7 @@
       <c r="AH130" s="6"/>
       <c r="AI130" s="6"/>
     </row>
-    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="43"/>
       <c r="C131" s="6"/>
@@ -7722,7 +7674,7 @@
       <c r="AH131" s="6"/>
       <c r="AI131" s="6"/>
     </row>
-    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="43"/>
       <c r="C132" s="6"/>
@@ -7759,7 +7711,7 @@
       <c r="AH132" s="6"/>
       <c r="AI132" s="6"/>
     </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="43"/>
       <c r="C133" s="6"/>
@@ -7796,7 +7748,7 @@
       <c r="AH133" s="6"/>
       <c r="AI133" s="6"/>
     </row>
-    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="43"/>
       <c r="C134" s="6"/>
@@ -7833,7 +7785,7 @@
       <c r="AH134" s="6"/>
       <c r="AI134" s="6"/>
     </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
       <c r="C135" s="6"/>
@@ -7870,7 +7822,7 @@
       <c r="AH135" s="6"/>
       <c r="AI135" s="6"/>
     </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="43"/>
       <c r="C136" s="6"/>
@@ -7907,7 +7859,7 @@
       <c r="AH136" s="6"/>
       <c r="AI136" s="6"/>
     </row>
-    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="C137" s="6"/>
@@ -7944,7 +7896,7 @@
       <c r="AH137" s="6"/>
       <c r="AI137" s="6"/>
     </row>
-    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="6"/>
@@ -7981,7 +7933,7 @@
       <c r="AH138" s="6"/>
       <c r="AI138" s="6"/>
     </row>
-    <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
       <c r="C139" s="6"/>
@@ -8018,7 +7970,7 @@
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
     </row>
-    <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="43"/>
       <c r="C140" s="6"/>
@@ -8055,7 +8007,7 @@
       <c r="AH140" s="6"/>
       <c r="AI140" s="6"/>
     </row>
-    <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
       <c r="C141" s="6"/>
@@ -8092,7 +8044,7 @@
       <c r="AH141" s="6"/>
       <c r="AI141" s="6"/>
     </row>
-    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
       <c r="C142" s="6"/>
@@ -8129,7 +8081,7 @@
       <c r="AH142" s="6"/>
       <c r="AI142" s="6"/>
     </row>
-    <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="43"/>
       <c r="C143" s="6"/>
@@ -8166,7 +8118,7 @@
       <c r="AH143" s="6"/>
       <c r="AI143" s="6"/>
     </row>
-    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
       <c r="C144" s="6"/>
@@ -8203,7 +8155,7 @@
       <c r="AH144" s="6"/>
       <c r="AI144" s="6"/>
     </row>
-    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
       <c r="C145" s="6"/>
@@ -8240,7 +8192,7 @@
       <c r="AH145" s="6"/>
       <c r="AI145" s="6"/>
     </row>
-    <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="43"/>
       <c r="C146" s="6"/>
@@ -8277,7 +8229,7 @@
       <c r="AH146" s="6"/>
       <c r="AI146" s="6"/>
     </row>
-    <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="43"/>
       <c r="C147" s="6"/>
@@ -8314,7 +8266,7 @@
       <c r="AH147" s="6"/>
       <c r="AI147" s="6"/>
     </row>
-    <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="43"/>
       <c r="C148" s="6"/>
@@ -8351,7 +8303,7 @@
       <c r="AH148" s="6"/>
       <c r="AI148" s="6"/>
     </row>
-    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="43"/>
       <c r="C149" s="6"/>
@@ -8388,7 +8340,7 @@
       <c r="AH149" s="6"/>
       <c r="AI149" s="6"/>
     </row>
-    <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="43"/>
       <c r="C150" s="6"/>
@@ -8425,7 +8377,7 @@
       <c r="AH150" s="6"/>
       <c r="AI150" s="6"/>
     </row>
-    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
       <c r="B151" s="43"/>
       <c r="C151" s="6"/>
@@ -8462,7 +8414,7 @@
       <c r="AH151" s="6"/>
       <c r="AI151" s="6"/>
     </row>
-    <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
       <c r="B152" s="43"/>
       <c r="C152" s="6"/>
@@ -8499,7 +8451,7 @@
       <c r="AH152" s="6"/>
       <c r="AI152" s="6"/>
     </row>
-    <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
       <c r="B153" s="43"/>
       <c r="C153" s="6"/>
@@ -8536,7 +8488,7 @@
       <c r="AH153" s="6"/>
       <c r="AI153" s="6"/>
     </row>
-    <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
       <c r="B154" s="43"/>
       <c r="C154" s="6"/>
@@ -8573,7 +8525,7 @@
       <c r="AH154" s="6"/>
       <c r="AI154" s="6"/>
     </row>
-    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
       <c r="B155" s="43"/>
       <c r="C155" s="6"/>
@@ -8610,7 +8562,7 @@
       <c r="AH155" s="6"/>
       <c r="AI155" s="6"/>
     </row>
-    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="43"/>
       <c r="C156" s="6"/>
@@ -8647,7 +8599,7 @@
       <c r="AH156" s="6"/>
       <c r="AI156" s="6"/>
     </row>
-    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="43"/>
       <c r="C157" s="6"/>
@@ -8684,7 +8636,7 @@
       <c r="AH157" s="6"/>
       <c r="AI157" s="6"/>
     </row>
-    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="43"/>
       <c r="C158" s="6"/>
@@ -8721,7 +8673,7 @@
       <c r="AH158" s="6"/>
       <c r="AI158" s="6"/>
     </row>
-    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
       <c r="B159" s="43"/>
       <c r="C159" s="6"/>
@@ -8758,7 +8710,7 @@
       <c r="AH159" s="6"/>
       <c r="AI159" s="6"/>
     </row>
-    <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
       <c r="B160" s="43"/>
       <c r="C160" s="6"/>
@@ -8795,7 +8747,7 @@
       <c r="AH160" s="6"/>
       <c r="AI160" s="6"/>
     </row>
-    <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="43"/>
       <c r="C161" s="6"/>
@@ -8832,7 +8784,7 @@
       <c r="AH161" s="6"/>
       <c r="AI161" s="6"/>
     </row>
-    <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
       <c r="B162" s="43"/>
       <c r="C162" s="6"/>
@@ -8869,7 +8821,7 @@
       <c r="AH162" s="6"/>
       <c r="AI162" s="6"/>
     </row>
-    <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="43"/>
       <c r="C163" s="6"/>
@@ -8906,7 +8858,7 @@
       <c r="AH163" s="6"/>
       <c r="AI163" s="6"/>
     </row>
-    <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="43"/>
       <c r="C164" s="6"/>
@@ -8943,7 +8895,7 @@
       <c r="AH164" s="6"/>
       <c r="AI164" s="6"/>
     </row>
-    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
       <c r="B165" s="43"/>
       <c r="C165" s="6"/>
@@ -8980,7 +8932,7 @@
       <c r="AH165" s="6"/>
       <c r="AI165" s="6"/>
     </row>
-    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="43"/>
       <c r="C166" s="6"/>
@@ -9017,7 +8969,7 @@
       <c r="AH166" s="6"/>
       <c r="AI166" s="6"/>
     </row>
-    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
       <c r="B167" s="43"/>
       <c r="C167" s="6"/>
@@ -9054,7 +9006,7 @@
       <c r="AH167" s="6"/>
       <c r="AI167" s="6"/>
     </row>
-    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
       <c r="B168" s="43"/>
       <c r="C168" s="6"/>
@@ -9091,7 +9043,7 @@
       <c r="AH168" s="6"/>
       <c r="AI168" s="6"/>
     </row>
-    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
       <c r="B169" s="43"/>
       <c r="C169" s="6"/>
@@ -9128,7 +9080,7 @@
       <c r="AH169" s="6"/>
       <c r="AI169" s="6"/>
     </row>
-    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
       <c r="B170" s="43"/>
       <c r="C170" s="6"/>
@@ -9165,7 +9117,7 @@
       <c r="AH170" s="6"/>
       <c r="AI170" s="6"/>
     </row>
-    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
       <c r="B171" s="43"/>
       <c r="C171" s="6"/>
@@ -9202,7 +9154,7 @@
       <c r="AH171" s="6"/>
       <c r="AI171" s="6"/>
     </row>
-    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="43"/>
       <c r="B172" s="43"/>
       <c r="C172" s="6"/>
@@ -9239,7 +9191,7 @@
       <c r="AH172" s="6"/>
       <c r="AI172" s="6"/>
     </row>
-    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="43"/>
       <c r="B173" s="43"/>
       <c r="C173" s="6"/>
@@ -9276,7 +9228,7 @@
       <c r="AH173" s="6"/>
       <c r="AI173" s="6"/>
     </row>
-    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="43"/>
       <c r="B174" s="43"/>
       <c r="C174" s="6"/>
@@ -9313,7 +9265,7 @@
       <c r="AH174" s="6"/>
       <c r="AI174" s="6"/>
     </row>
-    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="43"/>
       <c r="B175" s="43"/>
       <c r="C175" s="6"/>
@@ -9350,7 +9302,7 @@
       <c r="AH175" s="6"/>
       <c r="AI175" s="6"/>
     </row>
-    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="43"/>
       <c r="B176" s="43"/>
       <c r="C176" s="6"/>
@@ -9387,7 +9339,7 @@
       <c r="AH176" s="6"/>
       <c r="AI176" s="6"/>
     </row>
-    <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="43"/>
       <c r="B177" s="43"/>
       <c r="C177" s="6"/>
@@ -9424,7 +9376,7 @@
       <c r="AH177" s="6"/>
       <c r="AI177" s="6"/>
     </row>
-    <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="43"/>
       <c r="B178" s="43"/>
       <c r="C178" s="6"/>
@@ -9461,7 +9413,7 @@
       <c r="AH178" s="6"/>
       <c r="AI178" s="6"/>
     </row>
-    <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="43"/>
       <c r="B179" s="43"/>
       <c r="C179" s="6"/>
@@ -9498,7 +9450,7 @@
       <c r="AH179" s="6"/>
       <c r="AI179" s="6"/>
     </row>
-    <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="43"/>
       <c r="B180" s="43"/>
       <c r="C180" s="6"/>
@@ -9535,7 +9487,7 @@
       <c r="AH180" s="6"/>
       <c r="AI180" s="6"/>
     </row>
-    <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="43"/>
       <c r="B181" s="43"/>
       <c r="C181" s="6"/>
@@ -9572,7 +9524,7 @@
       <c r="AH181" s="6"/>
       <c r="AI181" s="6"/>
     </row>
-    <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="43"/>
       <c r="B182" s="43"/>
       <c r="C182" s="6"/>
@@ -9609,7 +9561,7 @@
       <c r="AH182" s="6"/>
       <c r="AI182" s="6"/>
     </row>
-    <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="43"/>
       <c r="B183" s="43"/>
       <c r="C183" s="6"/>
@@ -9646,7 +9598,7 @@
       <c r="AH183" s="6"/>
       <c r="AI183" s="6"/>
     </row>
-    <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="43"/>
       <c r="B184" s="43"/>
       <c r="C184" s="6"/>
@@ -9683,7 +9635,7 @@
       <c r="AH184" s="6"/>
       <c r="AI184" s="6"/>
     </row>
-    <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="43"/>
       <c r="B185" s="43"/>
       <c r="C185" s="6"/>
@@ -9720,7 +9672,7 @@
       <c r="AH185" s="6"/>
       <c r="AI185" s="6"/>
     </row>
-    <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="43"/>
       <c r="B186" s="43"/>
       <c r="C186" s="6"/>
@@ -9757,7 +9709,7 @@
       <c r="AH186" s="6"/>
       <c r="AI186" s="6"/>
     </row>
-    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="43"/>
       <c r="B187" s="43"/>
       <c r="C187" s="6"/>
@@ -9794,7 +9746,7 @@
       <c r="AH187" s="6"/>
       <c r="AI187" s="6"/>
     </row>
-    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="43"/>
       <c r="B188" s="43"/>
       <c r="C188" s="6"/>
@@ -9831,7 +9783,7 @@
       <c r="AH188" s="6"/>
       <c r="AI188" s="6"/>
     </row>
-    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="43"/>
       <c r="B189" s="43"/>
       <c r="C189" s="6"/>
@@ -9868,7 +9820,7 @@
       <c r="AH189" s="6"/>
       <c r="AI189" s="6"/>
     </row>
-    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="C190" s="6"/>
@@ -9905,7 +9857,7 @@
       <c r="AH190" s="6"/>
       <c r="AI190" s="6"/>
     </row>
-    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="43"/>
       <c r="B191" s="43"/>
       <c r="C191" s="6"/>
@@ -9942,7 +9894,7 @@
       <c r="AH191" s="6"/>
       <c r="AI191" s="6"/>
     </row>
-    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="43"/>
       <c r="B192" s="43"/>
       <c r="C192" s="6"/>
@@ -9979,7 +9931,7 @@
       <c r="AH192" s="6"/>
       <c r="AI192" s="6"/>
     </row>
-    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="43"/>
       <c r="B193" s="43"/>
       <c r="C193" s="6"/>
@@ -10016,7 +9968,7 @@
       <c r="AH193" s="6"/>
       <c r="AI193" s="6"/>
     </row>
-    <row r="194" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="43"/>
       <c r="B194" s="43"/>
       <c r="C194" s="6"/>
@@ -10053,7 +10005,7 @@
       <c r="AH194" s="6"/>
       <c r="AI194" s="6"/>
     </row>
-    <row r="195" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="43"/>
       <c r="B195" s="43"/>
       <c r="C195" s="6"/>
@@ -10090,7 +10042,7 @@
       <c r="AH195" s="6"/>
       <c r="AI195" s="6"/>
     </row>
-    <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="C196" s="6"/>
@@ -10127,7 +10079,7 @@
       <c r="AH196" s="6"/>
       <c r="AI196" s="6"/>
     </row>
-    <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="C197" s="6"/>
@@ -10164,7 +10116,7 @@
       <c r="AH197" s="6"/>
       <c r="AI197" s="6"/>
     </row>
-    <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="C198" s="6"/>
@@ -10201,7 +10153,7 @@
       <c r="AH198" s="6"/>
       <c r="AI198" s="6"/>
     </row>
-    <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="C199" s="6"/>
@@ -10238,7 +10190,7 @@
       <c r="AH199" s="6"/>
       <c r="AI199" s="6"/>
     </row>
-    <row r="200" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="6"/>
@@ -10275,7 +10227,7 @@
       <c r="AH200" s="6"/>
       <c r="AI200" s="6"/>
     </row>
-    <row r="201" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="6"/>
@@ -10312,7 +10264,7 @@
       <c r="AH201" s="6"/>
       <c r="AI201" s="6"/>
     </row>
-    <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="C202" s="6"/>
@@ -10349,7 +10301,7 @@
       <c r="AH202" s="6"/>
       <c r="AI202" s="6"/>
     </row>
-    <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="43"/>
       <c r="B203" s="43"/>
       <c r="C203" s="6"/>
@@ -10386,7 +10338,7 @@
       <c r="AH203" s="6"/>
       <c r="AI203" s="6"/>
     </row>
-    <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="43"/>
       <c r="B204" s="43"/>
       <c r="C204" s="6"/>
@@ -10423,7 +10375,7 @@
       <c r="AH204" s="6"/>
       <c r="AI204" s="6"/>
     </row>
-    <row r="205" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="43"/>
       <c r="B205" s="43"/>
       <c r="C205" s="6"/>
@@ -10460,7 +10412,7 @@
       <c r="AH205" s="6"/>
       <c r="AI205" s="6"/>
     </row>
-    <row r="206" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="43"/>
       <c r="B206" s="43"/>
       <c r="C206" s="6"/>
@@ -10497,7 +10449,7 @@
       <c r="AH206" s="6"/>
       <c r="AI206" s="6"/>
     </row>
-    <row r="207" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="43"/>
       <c r="B207" s="43"/>
       <c r="C207" s="6"/>
@@ -10534,7 +10486,7 @@
       <c r="AH207" s="6"/>
       <c r="AI207" s="6"/>
     </row>
-    <row r="208" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="43"/>
       <c r="B208" s="43"/>
       <c r="C208" s="6"/>
@@ -10571,7 +10523,7 @@
       <c r="AH208" s="6"/>
       <c r="AI208" s="6"/>
     </row>
-    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="43"/>
       <c r="B209" s="43"/>
       <c r="C209" s="6"/>
@@ -10608,7 +10560,7 @@
       <c r="AH209" s="6"/>
       <c r="AI209" s="6"/>
     </row>
-    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="43"/>
       <c r="B210" s="43"/>
       <c r="C210" s="6"/>
@@ -10645,7 +10597,7 @@
       <c r="AH210" s="6"/>
       <c r="AI210" s="6"/>
     </row>
-    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="43"/>
       <c r="B211" s="43"/>
       <c r="C211" s="6"/>
@@ -10682,7 +10634,7 @@
       <c r="AH211" s="6"/>
       <c r="AI211" s="6"/>
     </row>
-    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="43"/>
       <c r="B212" s="43"/>
       <c r="C212" s="6"/>
@@ -10719,7 +10671,7 @@
       <c r="AH212" s="6"/>
       <c r="AI212" s="6"/>
     </row>
-    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="43"/>
       <c r="B213" s="43"/>
       <c r="C213" s="6"/>
@@ -10756,7 +10708,7 @@
       <c r="AH213" s="6"/>
       <c r="AI213" s="6"/>
     </row>
-    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="43"/>
       <c r="B214" s="43"/>
       <c r="C214" s="6"/>
@@ -10793,7 +10745,7 @@
       <c r="AH214" s="6"/>
       <c r="AI214" s="6"/>
     </row>
-    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="43"/>
       <c r="B215" s="43"/>
       <c r="C215" s="6"/>
@@ -10830,7 +10782,7 @@
       <c r="AH215" s="6"/>
       <c r="AI215" s="6"/>
     </row>
-    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="43"/>
       <c r="B216" s="43"/>
       <c r="C216" s="6"/>
@@ -10867,7 +10819,7 @@
       <c r="AH216" s="6"/>
       <c r="AI216" s="6"/>
     </row>
-    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="43"/>
       <c r="B217" s="43"/>
       <c r="C217" s="6"/>
@@ -10904,7 +10856,7 @@
       <c r="AH217" s="6"/>
       <c r="AI217" s="6"/>
     </row>
-    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="43"/>
       <c r="B218" s="43"/>
       <c r="C218" s="6"/>
@@ -10941,7 +10893,7 @@
       <c r="AH218" s="6"/>
       <c r="AI218" s="6"/>
     </row>
-    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="43"/>
       <c r="B219" s="43"/>
       <c r="C219" s="6"/>
@@ -10978,7 +10930,7 @@
       <c r="AH219" s="6"/>
       <c r="AI219" s="6"/>
     </row>
-    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="43"/>
       <c r="B220" s="43"/>
       <c r="C220" s="6"/>
@@ -11015,7 +10967,7 @@
       <c r="AH220" s="6"/>
       <c r="AI220" s="6"/>
     </row>
-    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="43"/>
       <c r="B221" s="43"/>
       <c r="C221" s="6"/>
@@ -11052,7 +11004,7 @@
       <c r="AH221" s="6"/>
       <c r="AI221" s="6"/>
     </row>
-    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="43"/>
       <c r="B222" s="43"/>
       <c r="C222" s="6"/>
@@ -11089,7 +11041,7 @@
       <c r="AH222" s="6"/>
       <c r="AI222" s="6"/>
     </row>
-    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="43"/>
       <c r="B223" s="43"/>
       <c r="C223" s="6"/>
@@ -11126,7 +11078,7 @@
       <c r="AH223" s="6"/>
       <c r="AI223" s="6"/>
     </row>
-    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="43"/>
       <c r="B224" s="43"/>
       <c r="C224" s="6"/>
@@ -11163,7 +11115,7 @@
       <c r="AH224" s="6"/>
       <c r="AI224" s="6"/>
     </row>
-    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="43"/>
       <c r="B225" s="43"/>
       <c r="C225" s="6"/>
@@ -11200,7 +11152,7 @@
       <c r="AH225" s="6"/>
       <c r="AI225" s="6"/>
     </row>
-    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="43"/>
       <c r="B226" s="43"/>
       <c r="C226" s="6"/>
@@ -11237,7 +11189,7 @@
       <c r="AH226" s="6"/>
       <c r="AI226" s="6"/>
     </row>
-    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="43"/>
       <c r="B227" s="43"/>
       <c r="C227" s="6"/>
@@ -11274,7 +11226,7 @@
       <c r="AH227" s="6"/>
       <c r="AI227" s="6"/>
     </row>
-    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="43"/>
       <c r="B228" s="43"/>
       <c r="C228" s="6"/>
@@ -11311,7 +11263,7 @@
       <c r="AH228" s="6"/>
       <c r="AI228" s="6"/>
     </row>
-    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="43"/>
       <c r="B229" s="43"/>
       <c r="C229" s="6"/>
@@ -11348,7 +11300,7 @@
       <c r="AH229" s="6"/>
       <c r="AI229" s="6"/>
     </row>
-    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="43"/>
       <c r="B230" s="43"/>
       <c r="C230" s="6"/>
@@ -11385,7 +11337,7 @@
       <c r="AH230" s="6"/>
       <c r="AI230" s="6"/>
     </row>
-    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="43"/>
       <c r="B231" s="43"/>
       <c r="C231" s="6"/>
@@ -11422,7 +11374,7 @@
       <c r="AH231" s="6"/>
       <c r="AI231" s="6"/>
     </row>
-    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="43"/>
       <c r="B232" s="43"/>
       <c r="C232" s="6"/>
@@ -11459,7 +11411,7 @@
       <c r="AH232" s="6"/>
       <c r="AI232" s="6"/>
     </row>
-    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="43"/>
       <c r="B233" s="43"/>
       <c r="C233" s="6"/>
@@ -11496,7 +11448,7 @@
       <c r="AH233" s="6"/>
       <c r="AI233" s="6"/>
     </row>
-    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="43"/>
       <c r="B234" s="43"/>
       <c r="C234" s="6"/>
@@ -11533,7 +11485,7 @@
       <c r="AH234" s="6"/>
       <c r="AI234" s="6"/>
     </row>
-    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="43"/>
       <c r="B235" s="43"/>
       <c r="C235" s="6"/>
@@ -11570,7 +11522,7 @@
       <c r="AH235" s="6"/>
       <c r="AI235" s="6"/>
     </row>
-    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="43"/>
       <c r="B236" s="43"/>
       <c r="C236" s="6"/>
@@ -11607,7 +11559,7 @@
       <c r="AH236" s="6"/>
       <c r="AI236" s="6"/>
     </row>
-    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="43"/>
       <c r="B237" s="43"/>
       <c r="C237" s="6"/>
@@ -11644,7 +11596,7 @@
       <c r="AH237" s="6"/>
       <c r="AI237" s="6"/>
     </row>
-    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="43"/>
       <c r="B238" s="43"/>
       <c r="C238" s="6"/>
@@ -11681,7 +11633,7 @@
       <c r="AH238" s="6"/>
       <c r="AI238" s="6"/>
     </row>
-    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="43"/>
       <c r="B239" s="43"/>
       <c r="C239" s="6"/>
@@ -11718,7 +11670,7 @@
       <c r="AH239" s="6"/>
       <c r="AI239" s="6"/>
     </row>
-    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="43"/>
       <c r="B240" s="43"/>
       <c r="C240" s="6"/>
@@ -11755,7 +11707,7 @@
       <c r="AH240" s="6"/>
       <c r="AI240" s="6"/>
     </row>
-    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="C241" s="6"/>
@@ -11792,7 +11744,7 @@
       <c r="AH241" s="6"/>
       <c r="AI241" s="6"/>
     </row>
-    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="C242" s="6"/>
@@ -11829,7 +11781,7 @@
       <c r="AH242" s="6"/>
       <c r="AI242" s="6"/>
     </row>
-    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="6"/>
@@ -11866,7 +11818,7 @@
       <c r="AH243" s="6"/>
       <c r="AI243" s="6"/>
     </row>
-    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="C244" s="6"/>
@@ -11903,7 +11855,7 @@
       <c r="AH244" s="6"/>
       <c r="AI244" s="6"/>
     </row>
-    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="C245" s="6"/>
@@ -11940,7 +11892,7 @@
       <c r="AH245" s="6"/>
       <c r="AI245" s="6"/>
     </row>
-    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="C246" s="6"/>
@@ -11977,7 +11929,7 @@
       <c r="AH246" s="6"/>
       <c r="AI246" s="6"/>
     </row>
-    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="43"/>
       <c r="B247" s="43"/>
       <c r="C247" s="6"/>
@@ -12014,7 +11966,7 @@
       <c r="AH247" s="6"/>
       <c r="AI247" s="6"/>
     </row>
-    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="43"/>
       <c r="B248" s="43"/>
       <c r="C248" s="6"/>
@@ -12051,7 +12003,7 @@
       <c r="AH248" s="6"/>
       <c r="AI248" s="6"/>
     </row>
-    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="43"/>
       <c r="B249" s="43"/>
       <c r="C249" s="6"/>
@@ -12088,7 +12040,7 @@
       <c r="AH249" s="6"/>
       <c r="AI249" s="6"/>
     </row>
-    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="43"/>
       <c r="B250" s="43"/>
       <c r="C250" s="6"/>
@@ -12125,7 +12077,7 @@
       <c r="AH250" s="6"/>
       <c r="AI250" s="6"/>
     </row>
-    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="43"/>
       <c r="B251" s="43"/>
       <c r="C251" s="6"/>
@@ -12162,7 +12114,7 @@
       <c r="AH251" s="6"/>
       <c r="AI251" s="6"/>
     </row>
-    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="43"/>
       <c r="B252" s="43"/>
       <c r="C252" s="6"/>
@@ -12199,7 +12151,7 @@
       <c r="AH252" s="6"/>
       <c r="AI252" s="6"/>
     </row>
-    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="43"/>
       <c r="B253" s="43"/>
       <c r="C253" s="6"/>
@@ -12236,7 +12188,7 @@
       <c r="AH253" s="6"/>
       <c r="AI253" s="6"/>
     </row>
-    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="43"/>
       <c r="B254" s="43"/>
       <c r="C254" s="6"/>
@@ -12273,7 +12225,7 @@
       <c r="AH254" s="6"/>
       <c r="AI254" s="6"/>
     </row>
-    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="43"/>
       <c r="B255" s="43"/>
       <c r="C255" s="6"/>
@@ -12310,7 +12262,7 @@
       <c r="AH255" s="6"/>
       <c r="AI255" s="6"/>
     </row>
-    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="43"/>
       <c r="B256" s="43"/>
       <c r="C256" s="6"/>
@@ -12347,7 +12299,7 @@
       <c r="AH256" s="6"/>
       <c r="AI256" s="6"/>
     </row>
-    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="43"/>
       <c r="B257" s="43"/>
       <c r="C257" s="6"/>
@@ -12384,7 +12336,7 @@
       <c r="AH257" s="6"/>
       <c r="AI257" s="6"/>
     </row>
-    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="43"/>
       <c r="B258" s="43"/>
       <c r="C258" s="6"/>
@@ -12421,7 +12373,7 @@
       <c r="AH258" s="6"/>
       <c r="AI258" s="6"/>
     </row>
-    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="43"/>
       <c r="B259" s="43"/>
       <c r="C259" s="6"/>
@@ -12458,7 +12410,7 @@
       <c r="AH259" s="6"/>
       <c r="AI259" s="6"/>
     </row>
-    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="43"/>
       <c r="B260" s="43"/>
       <c r="C260" s="6"/>
@@ -12495,7 +12447,7 @@
       <c r="AH260" s="6"/>
       <c r="AI260" s="6"/>
     </row>
-    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="43"/>
       <c r="B261" s="43"/>
       <c r="C261" s="6"/>
@@ -12532,7 +12484,7 @@
       <c r="AH261" s="6"/>
       <c r="AI261" s="6"/>
     </row>
-    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="43"/>
       <c r="B262" s="43"/>
       <c r="C262" s="6"/>
@@ -12569,7 +12521,7 @@
       <c r="AH262" s="6"/>
       <c r="AI262" s="6"/>
     </row>
-    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="43"/>
       <c r="B263" s="43"/>
       <c r="C263" s="6"/>
@@ -12606,7 +12558,7 @@
       <c r="AH263" s="6"/>
       <c r="AI263" s="6"/>
     </row>
-    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="43"/>
       <c r="B264" s="43"/>
       <c r="C264" s="6"/>
@@ -12643,7 +12595,7 @@
       <c r="AH264" s="6"/>
       <c r="AI264" s="6"/>
     </row>
-    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="43"/>
       <c r="B265" s="43"/>
       <c r="C265" s="6"/>
@@ -12680,7 +12632,7 @@
       <c r="AH265" s="6"/>
       <c r="AI265" s="6"/>
     </row>
-    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="43"/>
       <c r="B266" s="43"/>
       <c r="C266" s="6"/>
@@ -12717,7 +12669,7 @@
       <c r="AH266" s="6"/>
       <c r="AI266" s="6"/>
     </row>
-    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="43"/>
       <c r="B267" s="43"/>
       <c r="C267" s="6"/>
@@ -12754,7 +12706,7 @@
       <c r="AH267" s="6"/>
       <c r="AI267" s="6"/>
     </row>
-    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="43"/>
       <c r="B268" s="43"/>
       <c r="C268" s="6"/>
@@ -12791,7 +12743,7 @@
       <c r="AH268" s="6"/>
       <c r="AI268" s="6"/>
     </row>
-    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="43"/>
       <c r="B269" s="43"/>
       <c r="C269" s="6"/>
@@ -12828,7 +12780,7 @@
       <c r="AH269" s="6"/>
       <c r="AI269" s="6"/>
     </row>
-    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="43"/>
       <c r="B270" s="43"/>
       <c r="C270" s="6"/>
@@ -12865,7 +12817,7 @@
       <c r="AH270" s="6"/>
       <c r="AI270" s="6"/>
     </row>
-    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="43"/>
       <c r="B271" s="43"/>
       <c r="C271" s="6"/>
@@ -12902,7 +12854,7 @@
       <c r="AH271" s="6"/>
       <c r="AI271" s="6"/>
     </row>
-    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="43"/>
       <c r="B272" s="43"/>
       <c r="C272" s="6"/>
@@ -12939,7 +12891,7 @@
       <c r="AH272" s="6"/>
       <c r="AI272" s="6"/>
     </row>
-    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="43"/>
       <c r="B273" s="43"/>
       <c r="C273" s="6"/>
@@ -12976,7 +12928,7 @@
       <c r="AH273" s="6"/>
       <c r="AI273" s="6"/>
     </row>
-    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="43"/>
       <c r="B274" s="43"/>
       <c r="C274" s="6"/>
@@ -13013,7 +12965,7 @@
       <c r="AH274" s="6"/>
       <c r="AI274" s="6"/>
     </row>
-    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="43"/>
       <c r="B275" s="43"/>
       <c r="C275" s="6"/>
@@ -13050,7 +13002,7 @@
       <c r="AH275" s="6"/>
       <c r="AI275" s="6"/>
     </row>
-    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="43"/>
       <c r="B276" s="43"/>
       <c r="C276" s="6"/>
@@ -13087,7 +13039,7 @@
       <c r="AH276" s="6"/>
       <c r="AI276" s="6"/>
     </row>
-    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="43"/>
       <c r="B277" s="43"/>
       <c r="C277" s="6"/>
@@ -13124,7 +13076,7 @@
       <c r="AH277" s="6"/>
       <c r="AI277" s="6"/>
     </row>
-    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="43"/>
       <c r="B278" s="43"/>
       <c r="C278" s="6"/>
@@ -13161,7 +13113,7 @@
       <c r="AH278" s="6"/>
       <c r="AI278" s="6"/>
     </row>
-    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="43"/>
       <c r="B279" s="43"/>
       <c r="C279" s="6"/>
@@ -13198,7 +13150,7 @@
       <c r="AH279" s="6"/>
       <c r="AI279" s="6"/>
     </row>
-    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="43"/>
       <c r="B280" s="43"/>
       <c r="C280" s="6"/>
@@ -13235,7 +13187,7 @@
       <c r="AH280" s="6"/>
       <c r="AI280" s="6"/>
     </row>
-    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="43"/>
       <c r="B281" s="43"/>
       <c r="C281" s="6"/>
@@ -13272,7 +13224,7 @@
       <c r="AH281" s="6"/>
       <c r="AI281" s="6"/>
     </row>
-    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="43"/>
       <c r="B282" s="43"/>
       <c r="C282" s="6"/>
@@ -13309,7 +13261,7 @@
       <c r="AH282" s="6"/>
       <c r="AI282" s="6"/>
     </row>
-    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="43"/>
       <c r="B283" s="43"/>
       <c r="C283" s="6"/>
@@ -13346,7 +13298,7 @@
       <c r="AH283" s="6"/>
       <c r="AI283" s="6"/>
     </row>
-    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="43"/>
       <c r="B284" s="43"/>
       <c r="C284" s="6"/>
@@ -13383,7 +13335,7 @@
       <c r="AH284" s="6"/>
       <c r="AI284" s="6"/>
     </row>
-    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="43"/>
       <c r="B285" s="43"/>
       <c r="C285" s="6"/>
@@ -13420,7 +13372,7 @@
       <c r="AH285" s="6"/>
       <c r="AI285" s="6"/>
     </row>
-    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="43"/>
       <c r="B286" s="43"/>
       <c r="C286" s="6"/>
@@ -13457,7 +13409,7 @@
       <c r="AH286" s="6"/>
       <c r="AI286" s="6"/>
     </row>
-    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="43"/>
       <c r="B287" s="43"/>
       <c r="C287" s="6"/>
@@ -13494,7 +13446,7 @@
       <c r="AH287" s="6"/>
       <c r="AI287" s="6"/>
     </row>
-    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="43"/>
       <c r="B288" s="43"/>
       <c r="C288" s="6"/>
@@ -13531,7 +13483,7 @@
       <c r="AH288" s="6"/>
       <c r="AI288" s="6"/>
     </row>
-    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="43"/>
       <c r="B289" s="43"/>
       <c r="C289" s="6"/>
@@ -13568,7 +13520,7 @@
       <c r="AH289" s="6"/>
       <c r="AI289" s="6"/>
     </row>
-    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="43"/>
       <c r="B290" s="43"/>
       <c r="C290" s="6"/>
@@ -13605,7 +13557,7 @@
       <c r="AH290" s="6"/>
       <c r="AI290" s="6"/>
     </row>
-    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="43"/>
       <c r="B291" s="43"/>
       <c r="C291" s="6"/>
@@ -13642,7 +13594,7 @@
       <c r="AH291" s="6"/>
       <c r="AI291" s="6"/>
     </row>
-    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="43"/>
       <c r="B292" s="43"/>
       <c r="C292" s="6"/>
@@ -13679,7 +13631,7 @@
       <c r="AH292" s="6"/>
       <c r="AI292" s="6"/>
     </row>
-    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="43"/>
       <c r="B293" s="43"/>
       <c r="C293" s="6"/>
@@ -13716,7 +13668,7 @@
       <c r="AH293" s="6"/>
       <c r="AI293" s="6"/>
     </row>
-    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="43"/>
       <c r="B294" s="43"/>
       <c r="C294" s="6"/>
@@ -13753,7 +13705,7 @@
       <c r="AH294" s="6"/>
       <c r="AI294" s="6"/>
     </row>
-    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="43"/>
       <c r="B295" s="43"/>
       <c r="C295" s="6"/>
@@ -13790,7 +13742,7 @@
       <c r="AH295" s="6"/>
       <c r="AI295" s="6"/>
     </row>
-    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="43"/>
       <c r="B296" s="43"/>
       <c r="C296" s="6"/>
@@ -13827,7 +13779,7 @@
       <c r="AH296" s="6"/>
       <c r="AI296" s="6"/>
     </row>
-    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="43"/>
       <c r="B297" s="43"/>
       <c r="C297" s="6"/>
@@ -13864,7 +13816,7 @@
       <c r="AH297" s="6"/>
       <c r="AI297" s="6"/>
     </row>
-    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="43"/>
       <c r="B298" s="43"/>
       <c r="C298" s="6"/>
@@ -13901,7 +13853,7 @@
       <c r="AH298" s="6"/>
       <c r="AI298" s="6"/>
     </row>
-    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="43"/>
       <c r="B299" s="43"/>
       <c r="C299" s="6"/>
@@ -13938,7 +13890,7 @@
       <c r="AH299" s="6"/>
       <c r="AI299" s="6"/>
     </row>
-    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="43"/>
       <c r="B300" s="43"/>
       <c r="C300" s="6"/>
@@ -13975,7 +13927,7 @@
       <c r="AH300" s="6"/>
       <c r="AI300" s="6"/>
     </row>
-    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="43"/>
       <c r="B301" s="43"/>
       <c r="C301" s="6"/>
@@ -14012,7 +13964,7 @@
       <c r="AH301" s="6"/>
       <c r="AI301" s="6"/>
     </row>
-    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="43"/>
       <c r="B302" s="43"/>
       <c r="C302" s="6"/>
@@ -14049,7 +14001,7 @@
       <c r="AH302" s="6"/>
       <c r="AI302" s="6"/>
     </row>
-    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="43"/>
       <c r="B303" s="43"/>
       <c r="C303" s="6"/>
@@ -14086,7 +14038,7 @@
       <c r="AH303" s="6"/>
       <c r="AI303" s="6"/>
     </row>
-    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="43"/>
       <c r="B304" s="43"/>
       <c r="C304" s="6"/>
@@ -14123,7 +14075,7 @@
       <c r="AH304" s="6"/>
       <c r="AI304" s="6"/>
     </row>
-    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="43"/>
       <c r="B305" s="43"/>
       <c r="C305" s="6"/>
@@ -14160,7 +14112,7 @@
       <c r="AH305" s="6"/>
       <c r="AI305" s="6"/>
     </row>
-    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="43"/>
       <c r="B306" s="43"/>
       <c r="C306" s="6"/>
@@ -14197,7 +14149,7 @@
       <c r="AH306" s="6"/>
       <c r="AI306" s="6"/>
     </row>
-    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="43"/>
       <c r="B307" s="43"/>
       <c r="C307" s="6"/>
@@ -14234,7 +14186,7 @@
       <c r="AH307" s="6"/>
       <c r="AI307" s="6"/>
     </row>
-    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="43"/>
       <c r="B308" s="43"/>
       <c r="C308" s="6"/>
@@ -14271,7 +14223,7 @@
       <c r="AH308" s="6"/>
       <c r="AI308" s="6"/>
     </row>
-    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="43"/>
       <c r="B309" s="43"/>
       <c r="C309" s="6"/>
@@ -14308,7 +14260,7 @@
       <c r="AH309" s="6"/>
       <c r="AI309" s="6"/>
     </row>
-    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="43"/>
       <c r="B310" s="43"/>
       <c r="C310" s="6"/>
@@ -14345,7 +14297,7 @@
       <c r="AH310" s="6"/>
       <c r="AI310" s="6"/>
     </row>
-    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="43"/>
       <c r="B311" s="43"/>
       <c r="C311" s="6"/>
@@ -14382,7 +14334,7 @@
       <c r="AH311" s="6"/>
       <c r="AI311" s="6"/>
     </row>
-    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="43"/>
       <c r="B312" s="43"/>
       <c r="C312" s="6"/>
@@ -14419,7 +14371,7 @@
       <c r="AH312" s="6"/>
       <c r="AI312" s="6"/>
     </row>
-    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="43"/>
       <c r="B313" s="43"/>
       <c r="C313" s="6"/>
@@ -14456,7 +14408,7 @@
       <c r="AH313" s="6"/>
       <c r="AI313" s="6"/>
     </row>
-    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="43"/>
       <c r="B314" s="43"/>
       <c r="C314" s="6"/>
@@ -14493,7 +14445,7 @@
       <c r="AH314" s="6"/>
       <c r="AI314" s="6"/>
     </row>
-    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="43"/>
       <c r="B315" s="43"/>
       <c r="C315" s="6"/>
@@ -14530,7 +14482,7 @@
       <c r="AH315" s="6"/>
       <c r="AI315" s="6"/>
     </row>
-    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="43"/>
       <c r="B316" s="43"/>
       <c r="C316" s="6"/>
@@ -14567,7 +14519,7 @@
       <c r="AH316" s="6"/>
       <c r="AI316" s="6"/>
     </row>
-    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="43"/>
       <c r="B317" s="43"/>
       <c r="C317" s="6"/>
@@ -14604,7 +14556,7 @@
       <c r="AH317" s="6"/>
       <c r="AI317" s="6"/>
     </row>
-    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="43"/>
       <c r="B318" s="43"/>
       <c r="C318" s="6"/>
@@ -14641,7 +14593,7 @@
       <c r="AH318" s="6"/>
       <c r="AI318" s="6"/>
     </row>
-    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="43"/>
       <c r="B319" s="43"/>
       <c r="C319" s="6"/>
@@ -14678,7 +14630,7 @@
       <c r="AH319" s="6"/>
       <c r="AI319" s="6"/>
     </row>
-    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="43"/>
       <c r="B320" s="43"/>
       <c r="C320" s="6"/>
@@ -14715,7 +14667,7 @@
       <c r="AH320" s="6"/>
       <c r="AI320" s="6"/>
     </row>
-    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="43"/>
       <c r="B321" s="43"/>
       <c r="C321" s="6"/>
@@ -14752,7 +14704,7 @@
       <c r="AH321" s="6"/>
       <c r="AI321" s="6"/>
     </row>
-    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="43"/>
       <c r="B322" s="43"/>
       <c r="C322" s="6"/>
@@ -14789,7 +14741,7 @@
       <c r="AH322" s="6"/>
       <c r="AI322" s="6"/>
     </row>
-    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="43"/>
       <c r="B323" s="43"/>
       <c r="C323" s="6"/>
@@ -14826,7 +14778,7 @@
       <c r="AH323" s="6"/>
       <c r="AI323" s="6"/>
     </row>
-    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="43"/>
       <c r="B324" s="43"/>
       <c r="C324" s="6"/>
@@ -14863,7 +14815,7 @@
       <c r="AH324" s="6"/>
       <c r="AI324" s="6"/>
     </row>
-    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="43"/>
       <c r="B325" s="43"/>
       <c r="C325" s="6"/>
@@ -14900,7 +14852,7 @@
       <c r="AH325" s="6"/>
       <c r="AI325" s="6"/>
     </row>
-    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="43"/>
       <c r="B326" s="43"/>
       <c r="C326" s="6"/>
@@ -14937,7 +14889,7 @@
       <c r="AH326" s="6"/>
       <c r="AI326" s="6"/>
     </row>
-    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="43"/>
       <c r="B327" s="43"/>
       <c r="C327" s="6"/>
@@ -14974,7 +14926,7 @@
       <c r="AH327" s="6"/>
       <c r="AI327" s="6"/>
     </row>
-    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="43"/>
       <c r="B328" s="43"/>
       <c r="C328" s="6"/>
@@ -15011,7 +14963,7 @@
       <c r="AH328" s="6"/>
       <c r="AI328" s="6"/>
     </row>
-    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="43"/>
       <c r="B329" s="43"/>
       <c r="C329" s="6"/>
@@ -15048,7 +15000,7 @@
       <c r="AH329" s="6"/>
       <c r="AI329" s="6"/>
     </row>
-    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="43"/>
       <c r="B330" s="43"/>
       <c r="C330" s="6"/>
@@ -15085,7 +15037,7 @@
       <c r="AH330" s="6"/>
       <c r="AI330" s="6"/>
     </row>
-    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="43"/>
       <c r="B331" s="43"/>
       <c r="C331" s="6"/>
@@ -15122,7 +15074,7 @@
       <c r="AH331" s="6"/>
       <c r="AI331" s="6"/>
     </row>
-    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="43"/>
       <c r="B332" s="43"/>
       <c r="C332" s="6"/>
@@ -15159,7 +15111,7 @@
       <c r="AH332" s="6"/>
       <c r="AI332" s="6"/>
     </row>
-    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="43"/>
       <c r="B333" s="43"/>
       <c r="C333" s="6"/>
@@ -15196,7 +15148,7 @@
       <c r="AH333" s="6"/>
       <c r="AI333" s="6"/>
     </row>
-    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="43"/>
       <c r="B334" s="43"/>
       <c r="C334" s="6"/>
@@ -15233,7 +15185,7 @@
       <c r="AH334" s="6"/>
       <c r="AI334" s="6"/>
     </row>
-    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="43"/>
       <c r="B335" s="43"/>
       <c r="C335" s="6"/>
@@ -15270,7 +15222,7 @@
       <c r="AH335" s="6"/>
       <c r="AI335" s="6"/>
     </row>
-    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="43"/>
       <c r="B336" s="43"/>
       <c r="C336" s="6"/>
@@ -15307,7 +15259,7 @@
       <c r="AH336" s="6"/>
       <c r="AI336" s="6"/>
     </row>
-    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="43"/>
       <c r="B337" s="43"/>
       <c r="C337" s="6"/>
@@ -15344,7 +15296,7 @@
       <c r="AH337" s="6"/>
       <c r="AI337" s="6"/>
     </row>
-    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="43"/>
       <c r="B338" s="43"/>
       <c r="C338" s="6"/>
@@ -15381,7 +15333,7 @@
       <c r="AH338" s="6"/>
       <c r="AI338" s="6"/>
     </row>
-    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="43"/>
       <c r="B339" s="43"/>
       <c r="C339" s="6"/>
@@ -15418,7 +15370,7 @@
       <c r="AH339" s="6"/>
       <c r="AI339" s="6"/>
     </row>
-    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="43"/>
       <c r="B340" s="43"/>
       <c r="C340" s="6"/>
@@ -15455,7 +15407,7 @@
       <c r="AH340" s="6"/>
       <c r="AI340" s="6"/>
     </row>
-    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="43"/>
       <c r="B341" s="43"/>
       <c r="C341" s="6"/>
@@ -15492,7 +15444,7 @@
       <c r="AH341" s="6"/>
       <c r="AI341" s="6"/>
     </row>
-    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="43"/>
       <c r="B342" s="43"/>
       <c r="C342" s="6"/>
@@ -15529,7 +15481,7 @@
       <c r="AH342" s="6"/>
       <c r="AI342" s="6"/>
     </row>
-    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="43"/>
       <c r="B343" s="43"/>
       <c r="C343" s="6"/>
@@ -15566,7 +15518,7 @@
       <c r="AH343" s="6"/>
       <c r="AI343" s="6"/>
     </row>
-    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="43"/>
       <c r="B344" s="43"/>
       <c r="C344" s="6"/>
@@ -15603,7 +15555,7 @@
       <c r="AH344" s="6"/>
       <c r="AI344" s="6"/>
     </row>
-    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="43"/>
       <c r="B345" s="43"/>
       <c r="C345" s="6"/>
@@ -15640,7 +15592,7 @@
       <c r="AH345" s="6"/>
       <c r="AI345" s="6"/>
     </row>
-    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="43"/>
       <c r="B346" s="43"/>
       <c r="C346" s="6"/>
@@ -15677,7 +15629,7 @@
       <c r="AH346" s="6"/>
       <c r="AI346" s="6"/>
     </row>
-    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="43"/>
       <c r="B347" s="43"/>
       <c r="C347" s="6"/>
@@ -15714,7 +15666,7 @@
       <c r="AH347" s="6"/>
       <c r="AI347" s="6"/>
     </row>
-    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="43"/>
       <c r="B348" s="43"/>
       <c r="C348" s="6"/>
@@ -15751,7 +15703,7 @@
       <c r="AH348" s="6"/>
       <c r="AI348" s="6"/>
     </row>
-    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="43"/>
       <c r="B349" s="43"/>
       <c r="C349" s="6"/>
@@ -15788,7 +15740,7 @@
       <c r="AH349" s="6"/>
       <c r="AI349" s="6"/>
     </row>
-    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="43"/>
       <c r="B350" s="43"/>
       <c r="C350" s="6"/>
@@ -15825,7 +15777,7 @@
       <c r="AH350" s="6"/>
       <c r="AI350" s="6"/>
     </row>
-    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="43"/>
       <c r="B351" s="43"/>
       <c r="C351" s="6"/>
@@ -15862,7 +15814,7 @@
       <c r="AH351" s="6"/>
       <c r="AI351" s="6"/>
     </row>
-    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="43"/>
       <c r="B352" s="43"/>
       <c r="C352" s="6"/>
@@ -15899,7 +15851,7 @@
       <c r="AH352" s="6"/>
       <c r="AI352" s="6"/>
     </row>
-    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="43"/>
       <c r="B353" s="43"/>
       <c r="C353" s="6"/>
@@ -15936,7 +15888,7 @@
       <c r="AH353" s="6"/>
       <c r="AI353" s="6"/>
     </row>
-    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="43"/>
       <c r="B354" s="43"/>
       <c r="C354" s="6"/>
@@ -15973,7 +15925,7 @@
       <c r="AH354" s="6"/>
       <c r="AI354" s="6"/>
     </row>
-    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="43"/>
       <c r="B355" s="43"/>
       <c r="C355" s="6"/>
@@ -16010,7 +15962,7 @@
       <c r="AH355" s="6"/>
       <c r="AI355" s="6"/>
     </row>
-    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="43"/>
       <c r="B356" s="43"/>
       <c r="C356" s="6"/>
@@ -16047,7 +15999,7 @@
       <c r="AH356" s="6"/>
       <c r="AI356" s="6"/>
     </row>
-    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="43"/>
       <c r="B357" s="43"/>
       <c r="C357" s="6"/>
@@ -16084,7 +16036,7 @@
       <c r="AH357" s="6"/>
       <c r="AI357" s="6"/>
     </row>
-    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="43"/>
       <c r="B358" s="43"/>
       <c r="C358" s="6"/>
@@ -16121,7 +16073,7 @@
       <c r="AH358" s="6"/>
       <c r="AI358" s="6"/>
     </row>
-    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="43"/>
       <c r="B359" s="43"/>
       <c r="C359" s="6"/>
@@ -16158,7 +16110,7 @@
       <c r="AH359" s="6"/>
       <c r="AI359" s="6"/>
     </row>
-    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="43"/>
       <c r="B360" s="43"/>
       <c r="C360" s="6"/>
@@ -16195,7 +16147,7 @@
       <c r="AH360" s="6"/>
       <c r="AI360" s="6"/>
     </row>
-    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="43"/>
       <c r="B361" s="43"/>
       <c r="C361" s="6"/>
@@ -16232,7 +16184,7 @@
       <c r="AH361" s="6"/>
       <c r="AI361" s="6"/>
     </row>
-    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="43"/>
       <c r="B362" s="43"/>
       <c r="C362" s="6"/>
@@ -16269,7 +16221,7 @@
       <c r="AH362" s="6"/>
       <c r="AI362" s="6"/>
     </row>
-    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="43"/>
       <c r="B363" s="43"/>
       <c r="C363" s="6"/>
@@ -16306,7 +16258,7 @@
       <c r="AH363" s="6"/>
       <c r="AI363" s="6"/>
     </row>
-    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="43"/>
       <c r="B364" s="43"/>
       <c r="C364" s="6"/>
@@ -16343,7 +16295,7 @@
       <c r="AH364" s="6"/>
       <c r="AI364" s="6"/>
     </row>
-    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="43"/>
       <c r="B365" s="43"/>
       <c r="C365" s="6"/>
@@ -16380,7 +16332,7 @@
       <c r="AH365" s="6"/>
       <c r="AI365" s="6"/>
     </row>
-    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="43"/>
       <c r="B366" s="43"/>
       <c r="C366" s="6"/>
@@ -16417,7 +16369,7 @@
       <c r="AH366" s="6"/>
       <c r="AI366" s="6"/>
     </row>
-    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="43"/>
       <c r="B367" s="43"/>
       <c r="C367" s="6"/>
@@ -16454,7 +16406,7 @@
       <c r="AH367" s="6"/>
       <c r="AI367" s="6"/>
     </row>
-    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="43"/>
       <c r="B368" s="43"/>
       <c r="C368" s="6"/>
@@ -16491,7 +16443,7 @@
       <c r="AH368" s="6"/>
       <c r="AI368" s="6"/>
     </row>
-    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="43"/>
       <c r="B369" s="43"/>
       <c r="C369" s="6"/>
@@ -16528,7 +16480,7 @@
       <c r="AH369" s="6"/>
       <c r="AI369" s="6"/>
     </row>
-    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="43"/>
       <c r="B370" s="43"/>
       <c r="C370" s="6"/>
@@ -16565,7 +16517,7 @@
       <c r="AH370" s="6"/>
       <c r="AI370" s="6"/>
     </row>
-    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="43"/>
       <c r="B371" s="43"/>
       <c r="C371" s="6"/>
@@ -16602,7 +16554,7 @@
       <c r="AH371" s="6"/>
       <c r="AI371" s="6"/>
     </row>
-    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="43"/>
       <c r="B372" s="43"/>
       <c r="C372" s="6"/>
@@ -16639,7 +16591,7 @@
       <c r="AH372" s="6"/>
       <c r="AI372" s="6"/>
     </row>
-    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="43"/>
       <c r="B373" s="43"/>
       <c r="C373" s="6"/>
@@ -16676,7 +16628,7 @@
       <c r="AH373" s="6"/>
       <c r="AI373" s="6"/>
     </row>
-    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="43"/>
       <c r="B374" s="43"/>
       <c r="C374" s="6"/>
@@ -16713,7 +16665,7 @@
       <c r="AH374" s="6"/>
       <c r="AI374" s="6"/>
     </row>
-    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="43"/>
       <c r="B375" s="43"/>
       <c r="C375" s="6"/>
@@ -16750,7 +16702,7 @@
       <c r="AH375" s="6"/>
       <c r="AI375" s="6"/>
     </row>
-    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="43"/>
       <c r="B376" s="43"/>
       <c r="C376" s="6"/>
@@ -16787,7 +16739,7 @@
       <c r="AH376" s="6"/>
       <c r="AI376" s="6"/>
     </row>
-    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="43"/>
       <c r="B377" s="43"/>
       <c r="C377" s="6"/>
@@ -16824,7 +16776,7 @@
       <c r="AH377" s="6"/>
       <c r="AI377" s="6"/>
     </row>
-    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="43"/>
       <c r="B378" s="43"/>
       <c r="C378" s="6"/>
@@ -16861,7 +16813,7 @@
       <c r="AH378" s="6"/>
       <c r="AI378" s="6"/>
     </row>
-    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="43"/>
       <c r="B379" s="43"/>
       <c r="C379" s="6"/>
@@ -16898,7 +16850,7 @@
       <c r="AH379" s="6"/>
       <c r="AI379" s="6"/>
     </row>
-    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="43"/>
       <c r="B380" s="43"/>
       <c r="C380" s="6"/>
@@ -16935,7 +16887,7 @@
       <c r="AH380" s="6"/>
       <c r="AI380" s="6"/>
     </row>
-    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="43"/>
       <c r="B381" s="43"/>
       <c r="C381" s="6"/>
@@ -16972,7 +16924,7 @@
       <c r="AH381" s="6"/>
       <c r="AI381" s="6"/>
     </row>
-    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="43"/>
       <c r="B382" s="43"/>
       <c r="C382" s="6"/>
@@ -17009,7 +16961,7 @@
       <c r="AH382" s="6"/>
       <c r="AI382" s="6"/>
     </row>
-    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="43"/>
       <c r="B383" s="43"/>
       <c r="C383" s="6"/>
@@ -17046,7 +16998,7 @@
       <c r="AH383" s="6"/>
       <c r="AI383" s="6"/>
     </row>
-    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="43"/>
       <c r="B384" s="43"/>
       <c r="C384" s="6"/>
@@ -17083,7 +17035,7 @@
       <c r="AH384" s="6"/>
       <c r="AI384" s="6"/>
     </row>
-    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="43"/>
       <c r="B385" s="43"/>
       <c r="C385" s="6"/>
@@ -17120,7 +17072,7 @@
       <c r="AH385" s="6"/>
       <c r="AI385" s="6"/>
     </row>
-    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="43"/>
       <c r="B386" s="43"/>
       <c r="C386" s="6"/>
@@ -17157,7 +17109,7 @@
       <c r="AH386" s="6"/>
       <c r="AI386" s="6"/>
     </row>
-    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="43"/>
       <c r="B387" s="43"/>
       <c r="C387" s="6"/>
@@ -17194,7 +17146,7 @@
       <c r="AH387" s="6"/>
       <c r="AI387" s="6"/>
     </row>
-    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="43"/>
       <c r="B388" s="43"/>
       <c r="C388" s="6"/>
@@ -17231,7 +17183,7 @@
       <c r="AH388" s="6"/>
       <c r="AI388" s="6"/>
     </row>
-    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="43"/>
       <c r="B389" s="43"/>
       <c r="C389" s="6"/>
@@ -17268,7 +17220,7 @@
       <c r="AH389" s="6"/>
       <c r="AI389" s="6"/>
     </row>
-    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="43"/>
       <c r="B390" s="43"/>
       <c r="C390" s="6"/>
@@ -17305,7 +17257,7 @@
       <c r="AH390" s="6"/>
       <c r="AI390" s="6"/>
     </row>
-    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="43"/>
       <c r="B391" s="43"/>
       <c r="C391" s="6"/>
@@ -17342,7 +17294,7 @@
       <c r="AH391" s="6"/>
       <c r="AI391" s="6"/>
     </row>
-    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="43"/>
       <c r="B392" s="43"/>
       <c r="C392" s="6"/>
@@ -17379,7 +17331,7 @@
       <c r="AH392" s="6"/>
       <c r="AI392" s="6"/>
     </row>
-    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="43"/>
       <c r="B393" s="43"/>
       <c r="C393" s="6"/>
@@ -17416,7 +17368,7 @@
       <c r="AH393" s="6"/>
       <c r="AI393" s="6"/>
     </row>
-    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="43"/>
       <c r="B394" s="43"/>
       <c r="C394" s="6"/>
@@ -17453,7 +17405,7 @@
       <c r="AH394" s="6"/>
       <c r="AI394" s="6"/>
     </row>
-    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="43"/>
       <c r="B395" s="43"/>
       <c r="C395" s="6"/>
@@ -17490,7 +17442,7 @@
       <c r="AH395" s="6"/>
       <c r="AI395" s="6"/>
     </row>
-    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="43"/>
       <c r="B396" s="43"/>
       <c r="C396" s="6"/>
@@ -17527,7 +17479,7 @@
       <c r="AH396" s="6"/>
       <c r="AI396" s="6"/>
     </row>
-    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="43"/>
       <c r="B397" s="43"/>
       <c r="C397" s="6"/>
@@ -17564,7 +17516,7 @@
       <c r="AH397" s="6"/>
       <c r="AI397" s="6"/>
     </row>
-    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="43"/>
       <c r="B398" s="43"/>
       <c r="C398" s="6"/>
@@ -17601,7 +17553,7 @@
       <c r="AH398" s="6"/>
       <c r="AI398" s="6"/>
     </row>
-    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="43"/>
       <c r="B399" s="43"/>
       <c r="C399" s="6"/>
@@ -17638,7 +17590,7 @@
       <c r="AH399" s="6"/>
       <c r="AI399" s="6"/>
     </row>
-    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="43"/>
       <c r="B400" s="43"/>
       <c r="C400" s="6"/>
@@ -17675,7 +17627,7 @@
       <c r="AH400" s="6"/>
       <c r="AI400" s="6"/>
     </row>
-    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="43"/>
       <c r="B401" s="43"/>
       <c r="C401" s="6"/>
@@ -17712,7 +17664,7 @@
       <c r="AH401" s="6"/>
       <c r="AI401" s="6"/>
     </row>
-    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="43"/>
       <c r="B402" s="43"/>
       <c r="C402" s="6"/>
@@ -17749,7 +17701,7 @@
       <c r="AH402" s="6"/>
       <c r="AI402" s="6"/>
     </row>
-    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="43"/>
       <c r="B403" s="43"/>
       <c r="C403" s="6"/>
@@ -17786,7 +17738,7 @@
       <c r="AH403" s="6"/>
       <c r="AI403" s="6"/>
     </row>
-    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="43"/>
       <c r="B404" s="43"/>
       <c r="C404" s="6"/>
@@ -17823,7 +17775,7 @@
       <c r="AH404" s="6"/>
       <c r="AI404" s="6"/>
     </row>
-    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="43"/>
       <c r="B405" s="43"/>
       <c r="C405" s="6"/>
@@ -17860,7 +17812,7 @@
       <c r="AH405" s="6"/>
       <c r="AI405" s="6"/>
     </row>
-    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="43"/>
       <c r="B406" s="43"/>
       <c r="C406" s="6"/>
@@ -17897,7 +17849,7 @@
       <c r="AH406" s="6"/>
       <c r="AI406" s="6"/>
     </row>
-    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="43"/>
       <c r="B407" s="43"/>
       <c r="C407" s="6"/>
@@ -17934,7 +17886,7 @@
       <c r="AH407" s="6"/>
       <c r="AI407" s="6"/>
     </row>
-    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="43"/>
       <c r="B408" s="43"/>
       <c r="C408" s="6"/>
@@ -17971,7 +17923,7 @@
       <c r="AH408" s="6"/>
       <c r="AI408" s="6"/>
     </row>
-    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="43"/>
       <c r="B409" s="43"/>
       <c r="C409" s="6"/>
@@ -18008,7 +17960,7 @@
       <c r="AH409" s="6"/>
       <c r="AI409" s="6"/>
     </row>
-    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="43"/>
       <c r="B410" s="43"/>
       <c r="C410" s="6"/>
@@ -18045,7 +17997,7 @@
       <c r="AH410" s="6"/>
       <c r="AI410" s="6"/>
     </row>
-    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="43"/>
       <c r="B411" s="43"/>
       <c r="C411" s="6"/>
@@ -18082,7 +18034,7 @@
       <c r="AH411" s="6"/>
       <c r="AI411" s="6"/>
     </row>
-    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="43"/>
       <c r="B412" s="43"/>
       <c r="C412" s="6"/>
@@ -18119,7 +18071,7 @@
       <c r="AH412" s="6"/>
       <c r="AI412" s="6"/>
     </row>
-    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="43"/>
       <c r="B413" s="43"/>
       <c r="C413" s="6"/>
@@ -18156,7 +18108,7 @@
       <c r="AH413" s="6"/>
       <c r="AI413" s="6"/>
     </row>
-    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="43"/>
       <c r="B414" s="43"/>
       <c r="C414" s="6"/>
@@ -18193,7 +18145,7 @@
       <c r="AH414" s="6"/>
       <c r="AI414" s="6"/>
     </row>
-    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="43"/>
       <c r="B415" s="43"/>
       <c r="C415" s="6"/>
@@ -18230,7 +18182,7 @@
       <c r="AH415" s="6"/>
       <c r="AI415" s="6"/>
     </row>
-    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="43"/>
       <c r="B416" s="43"/>
       <c r="C416" s="6"/>
@@ -18267,7 +18219,7 @@
       <c r="AH416" s="6"/>
       <c r="AI416" s="6"/>
     </row>
-    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="43"/>
       <c r="B417" s="43"/>
       <c r="C417" s="6"/>
@@ -18304,7 +18256,7 @@
       <c r="AH417" s="6"/>
       <c r="AI417" s="6"/>
     </row>
-    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="43"/>
       <c r="B418" s="43"/>
       <c r="C418" s="6"/>
@@ -18341,7 +18293,7 @@
       <c r="AH418" s="6"/>
       <c r="AI418" s="6"/>
     </row>
-    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="43"/>
       <c r="B419" s="43"/>
       <c r="C419" s="6"/>
@@ -18378,7 +18330,7 @@
       <c r="AH419" s="6"/>
       <c r="AI419" s="6"/>
     </row>
-    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="43"/>
       <c r="B420" s="43"/>
       <c r="C420" s="6"/>
@@ -18415,7 +18367,7 @@
       <c r="AH420" s="6"/>
       <c r="AI420" s="6"/>
     </row>
-    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="43"/>
       <c r="B421" s="43"/>
       <c r="C421" s="6"/>
@@ -18452,7 +18404,7 @@
       <c r="AH421" s="6"/>
       <c r="AI421" s="6"/>
     </row>
-    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="43"/>
       <c r="B422" s="43"/>
       <c r="C422" s="6"/>
@@ -18489,7 +18441,7 @@
       <c r="AH422" s="6"/>
       <c r="AI422" s="6"/>
     </row>
-    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="43"/>
       <c r="B423" s="43"/>
       <c r="C423" s="6"/>
@@ -18526,7 +18478,7 @@
       <c r="AH423" s="6"/>
       <c r="AI423" s="6"/>
     </row>
-    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="43"/>
       <c r="B424" s="43"/>
       <c r="C424" s="6"/>
@@ -18563,7 +18515,7 @@
       <c r="AH424" s="6"/>
       <c r="AI424" s="6"/>
     </row>
-    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="43"/>
       <c r="B425" s="43"/>
       <c r="C425" s="6"/>
@@ -18600,7 +18552,7 @@
       <c r="AH425" s="6"/>
       <c r="AI425" s="6"/>
     </row>
-    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="43"/>
       <c r="B426" s="43"/>
       <c r="C426" s="6"/>
@@ -18637,7 +18589,7 @@
       <c r="AH426" s="6"/>
       <c r="AI426" s="6"/>
     </row>
-    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="43"/>
       <c r="B427" s="43"/>
       <c r="C427" s="6"/>
@@ -18674,7 +18626,7 @@
       <c r="AH427" s="6"/>
       <c r="AI427" s="6"/>
     </row>
-    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="43"/>
       <c r="B428" s="43"/>
       <c r="C428" s="6"/>
@@ -18711,7 +18663,7 @@
       <c r="AH428" s="6"/>
       <c r="AI428" s="6"/>
     </row>
-    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="43"/>
       <c r="B429" s="43"/>
       <c r="C429" s="6"/>
@@ -18748,7 +18700,7 @@
       <c r="AH429" s="6"/>
       <c r="AI429" s="6"/>
     </row>
-    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="43"/>
       <c r="B430" s="43"/>
       <c r="C430" s="6"/>
@@ -18785,7 +18737,7 @@
       <c r="AH430" s="6"/>
       <c r="AI430" s="6"/>
     </row>
-    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="43"/>
       <c r="B431" s="43"/>
       <c r="C431" s="6"/>
@@ -18822,7 +18774,7 @@
       <c r="AH431" s="6"/>
       <c r="AI431" s="6"/>
     </row>
-    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="43"/>
       <c r="B432" s="43"/>
       <c r="C432" s="6"/>
@@ -18859,7 +18811,7 @@
       <c r="AH432" s="6"/>
       <c r="AI432" s="6"/>
     </row>
-    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="43"/>
       <c r="B433" s="43"/>
       <c r="C433" s="6"/>
@@ -18896,7 +18848,7 @@
       <c r="AH433" s="6"/>
       <c r="AI433" s="6"/>
     </row>
-    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="43"/>
       <c r="B434" s="43"/>
       <c r="C434" s="6"/>
@@ -18933,7 +18885,7 @@
       <c r="AH434" s="6"/>
       <c r="AI434" s="6"/>
     </row>
-    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="43"/>
       <c r="B435" s="43"/>
       <c r="C435" s="6"/>
@@ -18970,7 +18922,7 @@
       <c r="AH435" s="6"/>
       <c r="AI435" s="6"/>
     </row>
-    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="43"/>
       <c r="B436" s="43"/>
       <c r="C436" s="6"/>
@@ -19007,7 +18959,7 @@
       <c r="AH436" s="6"/>
       <c r="AI436" s="6"/>
     </row>
-    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="43"/>
       <c r="B437" s="43"/>
       <c r="C437" s="6"/>
@@ -19044,7 +18996,7 @@
       <c r="AH437" s="6"/>
       <c r="AI437" s="6"/>
     </row>
-    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="43"/>
       <c r="B438" s="43"/>
       <c r="C438" s="6"/>
@@ -19081,7 +19033,7 @@
       <c r="AH438" s="6"/>
       <c r="AI438" s="6"/>
     </row>
-    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="43"/>
       <c r="B439" s="43"/>
       <c r="C439" s="6"/>
@@ -19118,7 +19070,7 @@
       <c r="AH439" s="6"/>
       <c r="AI439" s="6"/>
     </row>
-    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="43"/>
       <c r="B440" s="43"/>
       <c r="C440" s="6"/>
@@ -19155,7 +19107,7 @@
       <c r="AH440" s="6"/>
       <c r="AI440" s="6"/>
     </row>
-    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="43"/>
       <c r="B441" s="43"/>
       <c r="C441" s="6"/>
@@ -19192,7 +19144,7 @@
       <c r="AH441" s="6"/>
       <c r="AI441" s="6"/>
     </row>
-    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="43"/>
       <c r="B442" s="43"/>
       <c r="C442" s="6"/>
@@ -19229,7 +19181,7 @@
       <c r="AH442" s="6"/>
       <c r="AI442" s="6"/>
     </row>
-    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="43"/>
       <c r="B443" s="43"/>
       <c r="C443" s="6"/>
@@ -19266,7 +19218,7 @@
       <c r="AH443" s="6"/>
       <c r="AI443" s="6"/>
     </row>
-    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="43"/>
       <c r="B444" s="43"/>
       <c r="C444" s="6"/>
@@ -19303,7 +19255,7 @@
       <c r="AH444" s="6"/>
       <c r="AI444" s="6"/>
     </row>
-    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="43"/>
       <c r="B445" s="43"/>
       <c r="C445" s="6"/>
@@ -19340,7 +19292,7 @@
       <c r="AH445" s="6"/>
       <c r="AI445" s="6"/>
     </row>
-    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="43"/>
       <c r="B446" s="43"/>
       <c r="C446" s="6"/>
@@ -19377,7 +19329,7 @@
       <c r="AH446" s="6"/>
       <c r="AI446" s="6"/>
     </row>
-    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="43"/>
       <c r="B447" s="43"/>
       <c r="C447" s="6"/>
@@ -19414,7 +19366,7 @@
       <c r="AH447" s="6"/>
       <c r="AI447" s="6"/>
     </row>
-    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="43"/>
       <c r="B448" s="43"/>
       <c r="C448" s="6"/>
@@ -19451,7 +19403,7 @@
       <c r="AH448" s="6"/>
       <c r="AI448" s="6"/>
     </row>
-    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="43"/>
       <c r="B449" s="43"/>
       <c r="C449" s="6"/>
@@ -19488,7 +19440,7 @@
       <c r="AH449" s="6"/>
       <c r="AI449" s="6"/>
     </row>
-    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="43"/>
       <c r="B450" s="43"/>
       <c r="C450" s="6"/>
@@ -19525,7 +19477,7 @@
       <c r="AH450" s="6"/>
       <c r="AI450" s="6"/>
     </row>
-    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="43"/>
       <c r="B451" s="43"/>
       <c r="C451" s="6"/>
@@ -19562,7 +19514,7 @@
       <c r="AH451" s="6"/>
       <c r="AI451" s="6"/>
     </row>
-    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="43"/>
       <c r="B452" s="43"/>
       <c r="C452" s="6"/>
@@ -19599,7 +19551,7 @@
       <c r="AH452" s="6"/>
       <c r="AI452" s="6"/>
     </row>
-    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="43"/>
       <c r="B453" s="43"/>
       <c r="C453" s="6"/>
@@ -19636,7 +19588,7 @@
       <c r="AH453" s="6"/>
       <c r="AI453" s="6"/>
     </row>
-    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="C454" s="6"/>
@@ -19673,7 +19625,7 @@
       <c r="AH454" s="6"/>
       <c r="AI454" s="6"/>
     </row>
-    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="43"/>
       <c r="B455" s="43"/>
       <c r="C455" s="6"/>
@@ -19710,7 +19662,7 @@
       <c r="AH455" s="6"/>
       <c r="AI455" s="6"/>
     </row>
-    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="43"/>
       <c r="B456" s="43"/>
       <c r="C456" s="6"/>
@@ -19747,7 +19699,7 @@
       <c r="AH456" s="6"/>
       <c r="AI456" s="6"/>
     </row>
-    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="43"/>
       <c r="B457" s="43"/>
       <c r="C457" s="6"/>
@@ -19784,7 +19736,7 @@
       <c r="AH457" s="6"/>
       <c r="AI457" s="6"/>
     </row>
-    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="43"/>
       <c r="B458" s="43"/>
       <c r="C458" s="6"/>
@@ -19821,7 +19773,7 @@
       <c r="AH458" s="6"/>
       <c r="AI458" s="6"/>
     </row>
-    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="43"/>
       <c r="B459" s="43"/>
       <c r="C459" s="6"/>
@@ -19858,7 +19810,7 @@
       <c r="AH459" s="6"/>
       <c r="AI459" s="6"/>
     </row>
-    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="43"/>
       <c r="B460" s="43"/>
       <c r="C460" s="6"/>
@@ -19895,7 +19847,7 @@
       <c r="AH460" s="6"/>
       <c r="AI460" s="6"/>
     </row>
-    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="43"/>
       <c r="B461" s="43"/>
       <c r="C461" s="6"/>
@@ -19932,7 +19884,7 @@
       <c r="AH461" s="6"/>
       <c r="AI461" s="6"/>
     </row>
-    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="43"/>
       <c r="B462" s="43"/>
       <c r="C462" s="6"/>
@@ -19969,7 +19921,7 @@
       <c r="AH462" s="6"/>
       <c r="AI462" s="6"/>
     </row>
-    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="43"/>
       <c r="B463" s="43"/>
       <c r="C463" s="6"/>
@@ -20006,7 +19958,7 @@
       <c r="AH463" s="6"/>
       <c r="AI463" s="6"/>
     </row>
-    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="43"/>
       <c r="B464" s="43"/>
       <c r="C464" s="6"/>
@@ -20043,7 +19995,7 @@
       <c r="AH464" s="6"/>
       <c r="AI464" s="6"/>
     </row>
-    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="43"/>
       <c r="B465" s="43"/>
       <c r="C465" s="6"/>
@@ -20080,7 +20032,7 @@
       <c r="AH465" s="6"/>
       <c r="AI465" s="6"/>
     </row>
-    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="43"/>
       <c r="B466" s="43"/>
       <c r="C466" s="6"/>
@@ -20117,7 +20069,7 @@
       <c r="AH466" s="6"/>
       <c r="AI466" s="6"/>
     </row>
-    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="43"/>
       <c r="B467" s="43"/>
       <c r="C467" s="6"/>
@@ -20154,7 +20106,7 @@
       <c r="AH467" s="6"/>
       <c r="AI467" s="6"/>
     </row>
-    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="43"/>
       <c r="B468" s="43"/>
       <c r="C468" s="6"/>
@@ -20191,7 +20143,7 @@
       <c r="AH468" s="6"/>
       <c r="AI468" s="6"/>
     </row>
-    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="43"/>
       <c r="B469" s="43"/>
       <c r="C469" s="6"/>
@@ -20228,7 +20180,7 @@
       <c r="AH469" s="6"/>
       <c r="AI469" s="6"/>
     </row>
-    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="43"/>
       <c r="B470" s="43"/>
       <c r="C470" s="6"/>
@@ -20265,7 +20217,7 @@
       <c r="AH470" s="6"/>
       <c r="AI470" s="6"/>
     </row>
-    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="43"/>
       <c r="B471" s="43"/>
       <c r="C471" s="6"/>
@@ -20302,7 +20254,7 @@
       <c r="AH471" s="6"/>
       <c r="AI471" s="6"/>
     </row>
-    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="43"/>
       <c r="B472" s="43"/>
       <c r="C472" s="6"/>
@@ -20339,7 +20291,7 @@
       <c r="AH472" s="6"/>
       <c r="AI472" s="6"/>
     </row>
-    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="43"/>
       <c r="B473" s="43"/>
       <c r="C473" s="6"/>
@@ -20376,7 +20328,7 @@
       <c r="AH473" s="6"/>
       <c r="AI473" s="6"/>
     </row>
-    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="43"/>
       <c r="B474" s="43"/>
       <c r="C474" s="6"/>
@@ -20413,7 +20365,7 @@
       <c r="AH474" s="6"/>
       <c r="AI474" s="6"/>
     </row>
-    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="43"/>
       <c r="B475" s="43"/>
       <c r="C475" s="6"/>
@@ -20450,7 +20402,7 @@
       <c r="AH475" s="6"/>
       <c r="AI475" s="6"/>
     </row>
-    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="43"/>
       <c r="B476" s="43"/>
       <c r="C476" s="6"/>
@@ -20487,7 +20439,7 @@
       <c r="AH476" s="6"/>
       <c r="AI476" s="6"/>
     </row>
-    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="43"/>
       <c r="B477" s="43"/>
       <c r="C477" s="6"/>
@@ -20524,7 +20476,7 @@
       <c r="AH477" s="6"/>
       <c r="AI477" s="6"/>
     </row>
-    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="43"/>
       <c r="B478" s="43"/>
       <c r="C478" s="6"/>
@@ -20561,7 +20513,7 @@
       <c r="AH478" s="6"/>
       <c r="AI478" s="6"/>
     </row>
-    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="43"/>
       <c r="B479" s="43"/>
       <c r="C479" s="6"/>
@@ -20598,7 +20550,7 @@
       <c r="AH479" s="6"/>
       <c r="AI479" s="6"/>
     </row>
-    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="43"/>
       <c r="B480" s="43"/>
       <c r="C480" s="6"/>
@@ -20635,7 +20587,7 @@
       <c r="AH480" s="6"/>
       <c r="AI480" s="6"/>
     </row>
-    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="43"/>
       <c r="B481" s="43"/>
       <c r="C481" s="6"/>
@@ -20672,7 +20624,7 @@
       <c r="AH481" s="6"/>
       <c r="AI481" s="6"/>
     </row>
-    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="43"/>
       <c r="B482" s="43"/>
       <c r="C482" s="6"/>
@@ -20709,7 +20661,7 @@
       <c r="AH482" s="6"/>
       <c r="AI482" s="6"/>
     </row>
-    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="43"/>
       <c r="B483" s="43"/>
       <c r="C483" s="6"/>
@@ -20746,7 +20698,7 @@
       <c r="AH483" s="6"/>
       <c r="AI483" s="6"/>
     </row>
-    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="43"/>
       <c r="B484" s="43"/>
       <c r="C484" s="6"/>
@@ -20783,7 +20735,7 @@
       <c r="AH484" s="6"/>
       <c r="AI484" s="6"/>
     </row>
-    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="43"/>
       <c r="B485" s="43"/>
       <c r="C485" s="6"/>
@@ -20820,7 +20772,7 @@
       <c r="AH485" s="6"/>
       <c r="AI485" s="6"/>
     </row>
-    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="43"/>
       <c r="B486" s="43"/>
       <c r="C486" s="6"/>
@@ -20857,7 +20809,7 @@
       <c r="AH486" s="6"/>
       <c r="AI486" s="6"/>
     </row>
-    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="43"/>
       <c r="B487" s="43"/>
       <c r="C487" s="6"/>
@@ -20894,7 +20846,7 @@
       <c r="AH487" s="6"/>
       <c r="AI487" s="6"/>
     </row>
-    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="43"/>
       <c r="B488" s="43"/>
       <c r="C488" s="6"/>
@@ -20931,7 +20883,7 @@
       <c r="AH488" s="6"/>
       <c r="AI488" s="6"/>
     </row>
-    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="43"/>
       <c r="B489" s="43"/>
       <c r="C489" s="6"/>
@@ -20968,7 +20920,7 @@
       <c r="AH489" s="6"/>
       <c r="AI489" s="6"/>
     </row>
-    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="43"/>
       <c r="B490" s="43"/>
       <c r="C490" s="6"/>
@@ -21005,7 +20957,7 @@
       <c r="AH490" s="6"/>
       <c r="AI490" s="6"/>
     </row>
-    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="43"/>
       <c r="B491" s="43"/>
       <c r="C491" s="6"/>
@@ -21042,7 +20994,7 @@
       <c r="AH491" s="6"/>
       <c r="AI491" s="6"/>
     </row>
-    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="43"/>
       <c r="B492" s="43"/>
       <c r="C492" s="6"/>
@@ -21079,7 +21031,7 @@
       <c r="AH492" s="6"/>
       <c r="AI492" s="6"/>
     </row>
-    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="43"/>
       <c r="B493" s="43"/>
       <c r="C493" s="6"/>
@@ -21116,7 +21068,7 @@
       <c r="AH493" s="6"/>
       <c r="AI493" s="6"/>
     </row>
-    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="43"/>
       <c r="B494" s="43"/>
       <c r="C494" s="6"/>
@@ -21153,7 +21105,7 @@
       <c r="AH494" s="6"/>
       <c r="AI494" s="6"/>
     </row>
-    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="43"/>
       <c r="B495" s="43"/>
       <c r="C495" s="6"/>
@@ -21190,7 +21142,7 @@
       <c r="AH495" s="6"/>
       <c r="AI495" s="6"/>
     </row>
-    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="43"/>
       <c r="B496" s="43"/>
       <c r="C496" s="6"/>
@@ -21227,7 +21179,7 @@
       <c r="AH496" s="6"/>
       <c r="AI496" s="6"/>
     </row>
-    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="43"/>
       <c r="B497" s="43"/>
       <c r="C497" s="6"/>
@@ -21264,7 +21216,7 @@
       <c r="AH497" s="6"/>
       <c r="AI497" s="6"/>
     </row>
-    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="43"/>
       <c r="B498" s="43"/>
       <c r="C498" s="6"/>
@@ -21301,7 +21253,7 @@
       <c r="AH498" s="6"/>
       <c r="AI498" s="6"/>
     </row>
-    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="43"/>
       <c r="B499" s="43"/>
       <c r="C499" s="6"/>
@@ -21338,7 +21290,7 @@
       <c r="AH499" s="6"/>
       <c r="AI499" s="6"/>
     </row>
-    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="43"/>
       <c r="B500" s="43"/>
       <c r="C500" s="6"/>
@@ -21375,7 +21327,7 @@
       <c r="AH500" s="6"/>
       <c r="AI500" s="6"/>
     </row>
-    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="43"/>
       <c r="B501" s="43"/>
       <c r="C501" s="6"/>
@@ -21412,7 +21364,7 @@
       <c r="AH501" s="6"/>
       <c r="AI501" s="6"/>
     </row>
-    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="43"/>
       <c r="B502" s="43"/>
       <c r="C502" s="6"/>
@@ -21449,7 +21401,7 @@
       <c r="AH502" s="6"/>
       <c r="AI502" s="6"/>
     </row>
-    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="43"/>
       <c r="B503" s="43"/>
       <c r="C503" s="6"/>
@@ -21486,7 +21438,7 @@
       <c r="AH503" s="6"/>
       <c r="AI503" s="6"/>
     </row>
-    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="43"/>
       <c r="B504" s="43"/>
       <c r="C504" s="6"/>
@@ -21523,7 +21475,7 @@
       <c r="AH504" s="6"/>
       <c r="AI504" s="6"/>
     </row>
-    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="43"/>
       <c r="B505" s="43"/>
       <c r="C505" s="6"/>
@@ -21560,7 +21512,7 @@
       <c r="AH505" s="6"/>
       <c r="AI505" s="6"/>
     </row>
-    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="43"/>
       <c r="B506" s="43"/>
       <c r="C506" s="6"/>
@@ -21597,7 +21549,7 @@
       <c r="AH506" s="6"/>
       <c r="AI506" s="6"/>
     </row>
-    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="43"/>
       <c r="B507" s="43"/>
       <c r="C507" s="6"/>
@@ -21634,7 +21586,7 @@
       <c r="AH507" s="6"/>
       <c r="AI507" s="6"/>
     </row>
-    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="43"/>
       <c r="B508" s="43"/>
       <c r="C508" s="6"/>
@@ -21671,7 +21623,7 @@
       <c r="AH508" s="6"/>
       <c r="AI508" s="6"/>
     </row>
-    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="43"/>
       <c r="B509" s="43"/>
       <c r="C509" s="6"/>
@@ -21708,7 +21660,7 @@
       <c r="AH509" s="6"/>
       <c r="AI509" s="6"/>
     </row>
-    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="43"/>
       <c r="B510" s="43"/>
       <c r="C510" s="6"/>
@@ -21745,7 +21697,7 @@
       <c r="AH510" s="6"/>
       <c r="AI510" s="6"/>
     </row>
-    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="43"/>
       <c r="B511" s="43"/>
       <c r="C511" s="6"/>
@@ -21782,7 +21734,7 @@
       <c r="AH511" s="6"/>
       <c r="AI511" s="6"/>
     </row>
-    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="43"/>
       <c r="B512" s="43"/>
       <c r="C512" s="6"/>
@@ -21819,7 +21771,7 @@
       <c r="AH512" s="6"/>
       <c r="AI512" s="6"/>
     </row>
-    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="43"/>
       <c r="B513" s="43"/>
       <c r="C513" s="6"/>
@@ -21856,7 +21808,7 @@
       <c r="AH513" s="6"/>
       <c r="AI513" s="6"/>
     </row>
-    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="43"/>
       <c r="B514" s="43"/>
       <c r="C514" s="6"/>
@@ -21893,7 +21845,7 @@
       <c r="AH514" s="6"/>
       <c r="AI514" s="6"/>
     </row>
-    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="43"/>
       <c r="B515" s="43"/>
       <c r="C515" s="6"/>
@@ -21930,7 +21882,7 @@
       <c r="AH515" s="6"/>
       <c r="AI515" s="6"/>
     </row>
-    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="43"/>
       <c r="B516" s="43"/>
       <c r="C516" s="6"/>
@@ -21967,7 +21919,7 @@
       <c r="AH516" s="6"/>
       <c r="AI516" s="6"/>
     </row>
-    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="43"/>
       <c r="B517" s="43"/>
       <c r="C517" s="6"/>
@@ -22004,7 +21956,7 @@
       <c r="AH517" s="6"/>
       <c r="AI517" s="6"/>
     </row>
-    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="43"/>
       <c r="B518" s="43"/>
       <c r="C518" s="6"/>
@@ -22041,7 +21993,7 @@
       <c r="AH518" s="6"/>
       <c r="AI518" s="6"/>
     </row>
-    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="43"/>
       <c r="B519" s="43"/>
       <c r="C519" s="6"/>
@@ -22078,7 +22030,7 @@
       <c r="AH519" s="6"/>
       <c r="AI519" s="6"/>
     </row>
-    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="43"/>
       <c r="B520" s="43"/>
       <c r="C520" s="6"/>
@@ -22115,7 +22067,7 @@
       <c r="AH520" s="6"/>
       <c r="AI520" s="6"/>
     </row>
-    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="43"/>
       <c r="B521" s="43"/>
       <c r="C521" s="6"/>
@@ -22152,7 +22104,7 @@
       <c r="AH521" s="6"/>
       <c r="AI521" s="6"/>
     </row>
-    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="43"/>
       <c r="B522" s="43"/>
       <c r="C522" s="6"/>
@@ -22189,7 +22141,7 @@
       <c r="AH522" s="6"/>
       <c r="AI522" s="6"/>
     </row>
-    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="43"/>
       <c r="B523" s="43"/>
       <c r="C523" s="6"/>
@@ -22226,7 +22178,7 @@
       <c r="AH523" s="6"/>
       <c r="AI523" s="6"/>
     </row>
-    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="43"/>
       <c r="B524" s="43"/>
       <c r="C524" s="6"/>
@@ -22263,7 +22215,7 @@
       <c r="AH524" s="6"/>
       <c r="AI524" s="6"/>
     </row>
-    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="43"/>
       <c r="B525" s="43"/>
       <c r="C525" s="6"/>
@@ -22300,7 +22252,7 @@
       <c r="AH525" s="6"/>
       <c r="AI525" s="6"/>
     </row>
-    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="43"/>
       <c r="B526" s="43"/>
       <c r="C526" s="6"/>
@@ -22337,7 +22289,7 @@
       <c r="AH526" s="6"/>
       <c r="AI526" s="6"/>
     </row>
-    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="43"/>
       <c r="B527" s="43"/>
       <c r="C527" s="6"/>
@@ -22374,7 +22326,7 @@
       <c r="AH527" s="6"/>
       <c r="AI527" s="6"/>
     </row>
-    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="43"/>
       <c r="B528" s="43"/>
       <c r="C528" s="6"/>
@@ -22411,7 +22363,7 @@
       <c r="AH528" s="6"/>
       <c r="AI528" s="6"/>
     </row>
-    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="43"/>
       <c r="B529" s="43"/>
       <c r="C529" s="6"/>
@@ -22448,7 +22400,7 @@
       <c r="AH529" s="6"/>
       <c r="AI529" s="6"/>
     </row>
-    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="43"/>
       <c r="B530" s="43"/>
       <c r="C530" s="6"/>
@@ -22485,7 +22437,7 @@
       <c r="AH530" s="6"/>
       <c r="AI530" s="6"/>
     </row>
-    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="43"/>
       <c r="B531" s="43"/>
       <c r="C531" s="6"/>
@@ -22522,7 +22474,7 @@
       <c r="AH531" s="6"/>
       <c r="AI531" s="6"/>
     </row>
-    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="43"/>
       <c r="B532" s="43"/>
       <c r="C532" s="6"/>
@@ -22559,7 +22511,7 @@
       <c r="AH532" s="6"/>
       <c r="AI532" s="6"/>
     </row>
-    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="43"/>
       <c r="B533" s="43"/>
       <c r="C533" s="6"/>
@@ -22596,7 +22548,7 @@
       <c r="AH533" s="6"/>
       <c r="AI533" s="6"/>
     </row>
-    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="43"/>
       <c r="B534" s="43"/>
       <c r="C534" s="6"/>
@@ -22633,7 +22585,7 @@
       <c r="AH534" s="6"/>
       <c r="AI534" s="6"/>
     </row>
-    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="43"/>
       <c r="B535" s="43"/>
       <c r="C535" s="6"/>
@@ -22670,7 +22622,7 @@
       <c r="AH535" s="6"/>
       <c r="AI535" s="6"/>
     </row>
-    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="43"/>
       <c r="B536" s="43"/>
       <c r="C536" s="6"/>
@@ -22707,7 +22659,7 @@
       <c r="AH536" s="6"/>
       <c r="AI536" s="6"/>
     </row>
-    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="43"/>
       <c r="B537" s="43"/>
       <c r="C537" s="6"/>
@@ -22744,7 +22696,7 @@
       <c r="AH537" s="6"/>
       <c r="AI537" s="6"/>
     </row>
-    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="43"/>
       <c r="B538" s="43"/>
       <c r="C538" s="6"/>
@@ -22781,7 +22733,7 @@
       <c r="AH538" s="6"/>
       <c r="AI538" s="6"/>
     </row>
-    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="43"/>
       <c r="B539" s="43"/>
       <c r="C539" s="6"/>
@@ -22818,7 +22770,7 @@
       <c r="AH539" s="6"/>
       <c r="AI539" s="6"/>
     </row>
-    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="43"/>
       <c r="B540" s="43"/>
       <c r="C540" s="6"/>
@@ -22855,7 +22807,7 @@
       <c r="AH540" s="6"/>
       <c r="AI540" s="6"/>
     </row>
-    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="43"/>
       <c r="B541" s="43"/>
       <c r="C541" s="6"/>
@@ -22892,7 +22844,7 @@
       <c r="AH541" s="6"/>
       <c r="AI541" s="6"/>
     </row>
-    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="43"/>
       <c r="B542" s="43"/>
       <c r="C542" s="6"/>
@@ -22929,7 +22881,7 @@
       <c r="AH542" s="6"/>
       <c r="AI542" s="6"/>
     </row>
-    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="43"/>
       <c r="B543" s="43"/>
       <c r="C543" s="6"/>
@@ -22966,7 +22918,7 @@
       <c r="AH543" s="6"/>
       <c r="AI543" s="6"/>
     </row>
-    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="43"/>
       <c r="B544" s="43"/>
       <c r="C544" s="6"/>
@@ -23003,7 +22955,7 @@
       <c r="AH544" s="6"/>
       <c r="AI544" s="6"/>
     </row>
-    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="43"/>
       <c r="B545" s="43"/>
       <c r="C545" s="6"/>
@@ -23040,7 +22992,7 @@
       <c r="AH545" s="6"/>
       <c r="AI545" s="6"/>
     </row>
-    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="43"/>
       <c r="B546" s="43"/>
       <c r="C546" s="6"/>
@@ -23077,7 +23029,7 @@
       <c r="AH546" s="6"/>
       <c r="AI546" s="6"/>
     </row>
-    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="43"/>
       <c r="B547" s="43"/>
       <c r="C547" s="6"/>
@@ -23114,7 +23066,7 @@
       <c r="AH547" s="6"/>
       <c r="AI547" s="6"/>
     </row>
-    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="43"/>
       <c r="B548" s="43"/>
       <c r="C548" s="6"/>
@@ -23151,7 +23103,7 @@
       <c r="AH548" s="6"/>
       <c r="AI548" s="6"/>
     </row>
-    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="43"/>
       <c r="B549" s="43"/>
       <c r="C549" s="6"/>
@@ -23188,7 +23140,7 @@
       <c r="AH549" s="6"/>
       <c r="AI549" s="6"/>
     </row>
-    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="43"/>
       <c r="B550" s="43"/>
       <c r="C550" s="6"/>
@@ -23225,7 +23177,7 @@
       <c r="AH550" s="6"/>
       <c r="AI550" s="6"/>
     </row>
-    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="43"/>
       <c r="B551" s="43"/>
       <c r="C551" s="6"/>
@@ -23262,7 +23214,7 @@
       <c r="AH551" s="6"/>
       <c r="AI551" s="6"/>
     </row>
-    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="43"/>
       <c r="B552" s="43"/>
       <c r="C552" s="6"/>
@@ -23299,7 +23251,7 @@
       <c r="AH552" s="6"/>
       <c r="AI552" s="6"/>
     </row>
-    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="43"/>
       <c r="B553" s="43"/>
       <c r="C553" s="6"/>
@@ -23336,7 +23288,7 @@
       <c r="AH553" s="6"/>
       <c r="AI553" s="6"/>
     </row>
-    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="43"/>
       <c r="B554" s="43"/>
       <c r="C554" s="6"/>
@@ -23373,7 +23325,7 @@
       <c r="AH554" s="6"/>
       <c r="AI554" s="6"/>
     </row>
-    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="43"/>
       <c r="B555" s="43"/>
       <c r="C555" s="6"/>
@@ -23410,7 +23362,7 @@
       <c r="AH555" s="6"/>
       <c r="AI555" s="6"/>
     </row>
-    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="43"/>
       <c r="B556" s="43"/>
       <c r="C556" s="6"/>
@@ -23447,7 +23399,7 @@
       <c r="AH556" s="6"/>
       <c r="AI556" s="6"/>
     </row>
-    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="43"/>
       <c r="B557" s="43"/>
       <c r="C557" s="6"/>
@@ -23484,7 +23436,7 @@
       <c r="AH557" s="6"/>
       <c r="AI557" s="6"/>
     </row>
-    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="43"/>
       <c r="B558" s="43"/>
       <c r="C558" s="6"/>
@@ -23521,7 +23473,7 @@
       <c r="AH558" s="6"/>
       <c r="AI558" s="6"/>
     </row>
-    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="43"/>
       <c r="B559" s="43"/>
       <c r="C559" s="6"/>
@@ -23558,7 +23510,7 @@
       <c r="AH559" s="6"/>
       <c r="AI559" s="6"/>
     </row>
-    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="43"/>
       <c r="B560" s="43"/>
       <c r="C560" s="6"/>
@@ -23595,7 +23547,7 @@
       <c r="AH560" s="6"/>
       <c r="AI560" s="6"/>
     </row>
-    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="43"/>
       <c r="B561" s="43"/>
       <c r="C561" s="6"/>
@@ -23632,7 +23584,7 @@
       <c r="AH561" s="6"/>
       <c r="AI561" s="6"/>
     </row>
-    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="43"/>
       <c r="B562" s="43"/>
       <c r="C562" s="6"/>
@@ -23669,7 +23621,7 @@
       <c r="AH562" s="6"/>
       <c r="AI562" s="6"/>
     </row>
-    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="43"/>
       <c r="B563" s="43"/>
       <c r="C563" s="6"/>
@@ -23706,7 +23658,7 @@
       <c r="AH563" s="6"/>
       <c r="AI563" s="6"/>
     </row>
-    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="43"/>
       <c r="B564" s="43"/>
       <c r="C564" s="6"/>
@@ -23743,7 +23695,7 @@
       <c r="AH564" s="6"/>
       <c r="AI564" s="6"/>
     </row>
-    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="43"/>
       <c r="B565" s="43"/>
       <c r="C565" s="6"/>
@@ -23780,7 +23732,7 @@
       <c r="AH565" s="6"/>
       <c r="AI565" s="6"/>
     </row>
-    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="43"/>
       <c r="B566" s="43"/>
       <c r="C566" s="6"/>
@@ -23817,7 +23769,7 @@
       <c r="AH566" s="6"/>
       <c r="AI566" s="6"/>
     </row>
-    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="43"/>
       <c r="B567" s="43"/>
       <c r="C567" s="6"/>
@@ -23854,7 +23806,7 @@
       <c r="AH567" s="6"/>
       <c r="AI567" s="6"/>
     </row>
-    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="43"/>
       <c r="B568" s="43"/>
       <c r="C568" s="6"/>
@@ -23891,7 +23843,7 @@
       <c r="AH568" s="6"/>
       <c r="AI568" s="6"/>
     </row>
-    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="43"/>
       <c r="B569" s="43"/>
       <c r="C569" s="6"/>
@@ -23928,7 +23880,7 @@
       <c r="AH569" s="6"/>
       <c r="AI569" s="6"/>
     </row>
-    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="43"/>
       <c r="B570" s="43"/>
       <c r="C570" s="6"/>
@@ -23965,7 +23917,7 @@
       <c r="AH570" s="6"/>
       <c r="AI570" s="6"/>
     </row>
-    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="43"/>
       <c r="B571" s="43"/>
       <c r="C571" s="6"/>
@@ -24002,7 +23954,7 @@
       <c r="AH571" s="6"/>
       <c r="AI571" s="6"/>
     </row>
-    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="43"/>
       <c r="B572" s="43"/>
       <c r="C572" s="6"/>
@@ -24039,7 +23991,7 @@
       <c r="AH572" s="6"/>
       <c r="AI572" s="6"/>
     </row>
-    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="43"/>
       <c r="B573" s="43"/>
       <c r="C573" s="6"/>
@@ -24076,7 +24028,7 @@
       <c r="AH573" s="6"/>
       <c r="AI573" s="6"/>
     </row>
-    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="43"/>
       <c r="B574" s="43"/>
       <c r="C574" s="6"/>
@@ -24113,7 +24065,7 @@
       <c r="AH574" s="6"/>
       <c r="AI574" s="6"/>
     </row>
-    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="43"/>
       <c r="B575" s="43"/>
       <c r="C575" s="6"/>
@@ -24150,7 +24102,7 @@
       <c r="AH575" s="6"/>
       <c r="AI575" s="6"/>
     </row>
-    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="43"/>
       <c r="B576" s="43"/>
       <c r="C576" s="6"/>
@@ -24187,7 +24139,7 @@
       <c r="AH576" s="6"/>
       <c r="AI576" s="6"/>
     </row>
-    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="43"/>
       <c r="B577" s="43"/>
       <c r="C577" s="6"/>
@@ -24224,7 +24176,7 @@
       <c r="AH577" s="6"/>
       <c r="AI577" s="6"/>
     </row>
-    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="43"/>
       <c r="B578" s="43"/>
       <c r="C578" s="6"/>
@@ -24261,7 +24213,7 @@
       <c r="AH578" s="6"/>
       <c r="AI578" s="6"/>
     </row>
-    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="43"/>
       <c r="B579" s="43"/>
       <c r="C579" s="6"/>
@@ -24298,7 +24250,7 @@
       <c r="AH579" s="6"/>
       <c r="AI579" s="6"/>
     </row>
-    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="43"/>
       <c r="B580" s="43"/>
       <c r="C580" s="6"/>
@@ -24335,7 +24287,7 @@
       <c r="AH580" s="6"/>
       <c r="AI580" s="6"/>
     </row>
-    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="43"/>
       <c r="B581" s="43"/>
       <c r="C581" s="6"/>
@@ -24372,7 +24324,7 @@
       <c r="AH581" s="6"/>
       <c r="AI581" s="6"/>
     </row>
-    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="43"/>
       <c r="B582" s="43"/>
       <c r="C582" s="6"/>
@@ -24409,7 +24361,7 @@
       <c r="AH582" s="6"/>
       <c r="AI582" s="6"/>
     </row>
-    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="43"/>
       <c r="B583" s="43"/>
       <c r="C583" s="6"/>
@@ -24446,7 +24398,7 @@
       <c r="AH583" s="6"/>
       <c r="AI583" s="6"/>
     </row>
-    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="43"/>
       <c r="B584" s="43"/>
       <c r="C584" s="6"/>
@@ -24483,7 +24435,7 @@
       <c r="AH584" s="6"/>
       <c r="AI584" s="6"/>
     </row>
-    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="43"/>
       <c r="B585" s="43"/>
       <c r="C585" s="6"/>
@@ -24520,7 +24472,7 @@
       <c r="AH585" s="6"/>
       <c r="AI585" s="6"/>
     </row>
-    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="43"/>
       <c r="B586" s="43"/>
       <c r="C586" s="6"/>
@@ -24557,7 +24509,7 @@
       <c r="AH586" s="6"/>
       <c r="AI586" s="6"/>
     </row>
-    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="43"/>
       <c r="B587" s="43"/>
       <c r="C587" s="6"/>
@@ -24594,7 +24546,7 @@
       <c r="AH587" s="6"/>
       <c r="AI587" s="6"/>
     </row>
-    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="43"/>
       <c r="B588" s="43"/>
       <c r="C588" s="6"/>
@@ -24631,7 +24583,7 @@
       <c r="AH588" s="6"/>
       <c r="AI588" s="6"/>
     </row>
-    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="43"/>
       <c r="B589" s="43"/>
       <c r="C589" s="6"/>
@@ -24668,7 +24620,7 @@
       <c r="AH589" s="6"/>
       <c r="AI589" s="6"/>
     </row>
-    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="43"/>
       <c r="B590" s="43"/>
       <c r="C590" s="6"/>
@@ -24705,7 +24657,7 @@
       <c r="AH590" s="6"/>
       <c r="AI590" s="6"/>
     </row>
-    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="43"/>
       <c r="B591" s="43"/>
       <c r="C591" s="6"/>
@@ -24742,7 +24694,7 @@
       <c r="AH591" s="6"/>
       <c r="AI591" s="6"/>
     </row>
-    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="43"/>
       <c r="B592" s="43"/>
       <c r="C592" s="6"/>
@@ -24779,7 +24731,7 @@
       <c r="AH592" s="6"/>
       <c r="AI592" s="6"/>
     </row>
-    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="43"/>
       <c r="B593" s="43"/>
       <c r="C593" s="6"/>
@@ -24816,7 +24768,7 @@
       <c r="AH593" s="6"/>
       <c r="AI593" s="6"/>
     </row>
-    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="43"/>
       <c r="B594" s="43"/>
       <c r="C594" s="6"/>
@@ -24853,7 +24805,7 @@
       <c r="AH594" s="6"/>
       <c r="AI594" s="6"/>
     </row>
-    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="43"/>
       <c r="B595" s="43"/>
       <c r="C595" s="6"/>
@@ -24890,7 +24842,7 @@
       <c r="AH595" s="6"/>
       <c r="AI595" s="6"/>
     </row>
-    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="43"/>
       <c r="B596" s="43"/>
       <c r="C596" s="6"/>
@@ -24927,7 +24879,7 @@
       <c r="AH596" s="6"/>
       <c r="AI596" s="6"/>
     </row>
-    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="43"/>
       <c r="B597" s="43"/>
       <c r="C597" s="6"/>
@@ -24964,7 +24916,7 @@
       <c r="AH597" s="6"/>
       <c r="AI597" s="6"/>
     </row>
-    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="43"/>
       <c r="B598" s="43"/>
       <c r="C598" s="6"/>
@@ -25001,7 +24953,7 @@
       <c r="AH598" s="6"/>
       <c r="AI598" s="6"/>
     </row>
-    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="43"/>
       <c r="B599" s="43"/>
       <c r="C599" s="6"/>
@@ -25038,7 +24990,7 @@
       <c r="AH599" s="6"/>
       <c r="AI599" s="6"/>
     </row>
-    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="43"/>
       <c r="B600" s="43"/>
       <c r="C600" s="6"/>
@@ -25075,7 +25027,7 @@
       <c r="AH600" s="6"/>
       <c r="AI600" s="6"/>
     </row>
-    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="43"/>
       <c r="B601" s="43"/>
       <c r="C601" s="6"/>
@@ -25112,7 +25064,7 @@
       <c r="AH601" s="6"/>
       <c r="AI601" s="6"/>
     </row>
-    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="43"/>
       <c r="B602" s="43"/>
       <c r="C602" s="6"/>
@@ -25149,7 +25101,7 @@
       <c r="AH602" s="6"/>
       <c r="AI602" s="6"/>
     </row>
-    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="43"/>
       <c r="B603" s="43"/>
       <c r="C603" s="6"/>
@@ -25186,7 +25138,7 @@
       <c r="AH603" s="6"/>
       <c r="AI603" s="6"/>
     </row>
-    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="43"/>
       <c r="B604" s="43"/>
       <c r="C604" s="6"/>
@@ -25223,7 +25175,7 @@
       <c r="AH604" s="6"/>
       <c r="AI604" s="6"/>
     </row>
-    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="43"/>
       <c r="B605" s="43"/>
       <c r="C605" s="6"/>
@@ -25260,7 +25212,7 @@
       <c r="AH605" s="6"/>
       <c r="AI605" s="6"/>
     </row>
-    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="43"/>
       <c r="B606" s="43"/>
       <c r="C606" s="6"/>
@@ -25297,7 +25249,7 @@
       <c r="AH606" s="6"/>
       <c r="AI606" s="6"/>
     </row>
-    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="43"/>
       <c r="B607" s="43"/>
       <c r="C607" s="6"/>
@@ -25334,7 +25286,7 @@
       <c r="AH607" s="6"/>
       <c r="AI607" s="6"/>
     </row>
-    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="43"/>
       <c r="B608" s="43"/>
       <c r="C608" s="6"/>
@@ -25371,7 +25323,7 @@
       <c r="AH608" s="6"/>
       <c r="AI608" s="6"/>
     </row>
-    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="43"/>
       <c r="B609" s="43"/>
       <c r="C609" s="6"/>
@@ -25408,7 +25360,7 @@
       <c r="AH609" s="6"/>
       <c r="AI609" s="6"/>
     </row>
-    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="43"/>
       <c r="B610" s="43"/>
       <c r="C610" s="6"/>
@@ -25445,7 +25397,7 @@
       <c r="AH610" s="6"/>
       <c r="AI610" s="6"/>
     </row>
-    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="43"/>
       <c r="B611" s="43"/>
       <c r="C611" s="6"/>
@@ -25482,7 +25434,7 @@
       <c r="AH611" s="6"/>
       <c r="AI611" s="6"/>
     </row>
-    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="43"/>
       <c r="B612" s="43"/>
       <c r="C612" s="6"/>
@@ -25519,7 +25471,7 @@
       <c r="AH612" s="6"/>
       <c r="AI612" s="6"/>
     </row>
-    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="43"/>
       <c r="B613" s="43"/>
       <c r="C613" s="6"/>
@@ -25556,7 +25508,7 @@
       <c r="AH613" s="6"/>
       <c r="AI613" s="6"/>
     </row>
-    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="43"/>
       <c r="B614" s="43"/>
       <c r="C614" s="6"/>
@@ -25593,7 +25545,7 @@
       <c r="AH614" s="6"/>
       <c r="AI614" s="6"/>
     </row>
-    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="43"/>
       <c r="B615" s="43"/>
       <c r="C615" s="6"/>
@@ -25630,7 +25582,7 @@
       <c r="AH615" s="6"/>
       <c r="AI615" s="6"/>
     </row>
-    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="43"/>
       <c r="B616" s="43"/>
       <c r="C616" s="6"/>
@@ -25667,7 +25619,7 @@
       <c r="AH616" s="6"/>
       <c r="AI616" s="6"/>
     </row>
-    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="43"/>
       <c r="B617" s="43"/>
       <c r="C617" s="6"/>
@@ -25704,7 +25656,7 @@
       <c r="AH617" s="6"/>
       <c r="AI617" s="6"/>
     </row>
-    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="43"/>
       <c r="B618" s="43"/>
       <c r="C618" s="6"/>
@@ -25741,7 +25693,7 @@
       <c r="AH618" s="6"/>
       <c r="AI618" s="6"/>
     </row>
-    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="43"/>
       <c r="B619" s="43"/>
       <c r="C619" s="6"/>
@@ -25778,7 +25730,7 @@
       <c r="AH619" s="6"/>
       <c r="AI619" s="6"/>
     </row>
-    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="43"/>
       <c r="B620" s="43"/>
       <c r="C620" s="6"/>
@@ -25815,7 +25767,7 @@
       <c r="AH620" s="6"/>
       <c r="AI620" s="6"/>
     </row>
-    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="43"/>
       <c r="B621" s="43"/>
       <c r="C621" s="6"/>
@@ -25852,7 +25804,7 @@
       <c r="AH621" s="6"/>
       <c r="AI621" s="6"/>
     </row>
-    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="43"/>
       <c r="B622" s="43"/>
       <c r="C622" s="6"/>
@@ -25889,7 +25841,7 @@
       <c r="AH622" s="6"/>
       <c r="AI622" s="6"/>
     </row>
-    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="43"/>
       <c r="B623" s="43"/>
       <c r="C623" s="6"/>
@@ -25926,7 +25878,7 @@
       <c r="AH623" s="6"/>
       <c r="AI623" s="6"/>
     </row>
-    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="43"/>
       <c r="B624" s="43"/>
       <c r="C624" s="6"/>
@@ -25963,7 +25915,7 @@
       <c r="AH624" s="6"/>
       <c r="AI624" s="6"/>
     </row>
-    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="43"/>
       <c r="B625" s="43"/>
       <c r="C625" s="6"/>
@@ -26000,7 +25952,7 @@
       <c r="AH625" s="6"/>
       <c r="AI625" s="6"/>
     </row>
-    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="43"/>
       <c r="B626" s="43"/>
       <c r="C626" s="6"/>
@@ -26037,7 +25989,7 @@
       <c r="AH626" s="6"/>
       <c r="AI626" s="6"/>
     </row>
-    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="43"/>
       <c r="B627" s="43"/>
       <c r="C627" s="6"/>
@@ -26074,7 +26026,7 @@
       <c r="AH627" s="6"/>
       <c r="AI627" s="6"/>
     </row>
-    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="43"/>
       <c r="B628" s="43"/>
       <c r="C628" s="6"/>
@@ -26111,7 +26063,7 @@
       <c r="AH628" s="6"/>
       <c r="AI628" s="6"/>
     </row>
-    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="43"/>
       <c r="B629" s="43"/>
       <c r="C629" s="6"/>
@@ -26148,7 +26100,7 @@
       <c r="AH629" s="6"/>
       <c r="AI629" s="6"/>
     </row>
-    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="43"/>
       <c r="B630" s="43"/>
       <c r="C630" s="6"/>
@@ -26185,7 +26137,7 @@
       <c r="AH630" s="6"/>
       <c r="AI630" s="6"/>
     </row>
-    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="43"/>
       <c r="B631" s="43"/>
       <c r="C631" s="6"/>
@@ -26222,7 +26174,7 @@
       <c r="AH631" s="6"/>
       <c r="AI631" s="6"/>
     </row>
-    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="43"/>
       <c r="B632" s="43"/>
       <c r="C632" s="6"/>
@@ -26259,7 +26211,7 @@
       <c r="AH632" s="6"/>
       <c r="AI632" s="6"/>
     </row>
-    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="43"/>
       <c r="B633" s="43"/>
       <c r="C633" s="6"/>
@@ -26296,7 +26248,7 @@
       <c r="AH633" s="6"/>
       <c r="AI633" s="6"/>
     </row>
-    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="43"/>
       <c r="B634" s="43"/>
       <c r="C634" s="6"/>
@@ -26333,7 +26285,7 @@
       <c r="AH634" s="6"/>
       <c r="AI634" s="6"/>
     </row>
-    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="43"/>
       <c r="B635" s="43"/>
       <c r="C635" s="6"/>
@@ -26370,7 +26322,7 @@
       <c r="AH635" s="6"/>
       <c r="AI635" s="6"/>
     </row>
-    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="43"/>
       <c r="B636" s="43"/>
       <c r="C636" s="6"/>
@@ -26407,7 +26359,7 @@
       <c r="AH636" s="6"/>
       <c r="AI636" s="6"/>
     </row>
-    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="43"/>
       <c r="B637" s="43"/>
       <c r="C637" s="6"/>
@@ -26444,7 +26396,7 @@
       <c r="AH637" s="6"/>
       <c r="AI637" s="6"/>
     </row>
-    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="43"/>
       <c r="B638" s="43"/>
       <c r="C638" s="6"/>
@@ -26481,7 +26433,7 @@
       <c r="AH638" s="6"/>
       <c r="AI638" s="6"/>
     </row>
-    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="43"/>
       <c r="B639" s="43"/>
       <c r="C639" s="6"/>
@@ -26518,7 +26470,7 @@
       <c r="AH639" s="6"/>
       <c r="AI639" s="6"/>
     </row>
-    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="43"/>
       <c r="B640" s="43"/>
       <c r="C640" s="6"/>
@@ -26555,7 +26507,7 @@
       <c r="AH640" s="6"/>
       <c r="AI640" s="6"/>
     </row>
-    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="43"/>
       <c r="B641" s="43"/>
       <c r="C641" s="6"/>
@@ -26592,7 +26544,7 @@
       <c r="AH641" s="6"/>
       <c r="AI641" s="6"/>
     </row>
-    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="43"/>
       <c r="B642" s="43"/>
       <c r="C642" s="6"/>
@@ -26629,7 +26581,7 @@
       <c r="AH642" s="6"/>
       <c r="AI642" s="6"/>
     </row>
-    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="43"/>
       <c r="B643" s="43"/>
       <c r="C643" s="6"/>
@@ -26666,7 +26618,7 @@
       <c r="AH643" s="6"/>
       <c r="AI643" s="6"/>
     </row>
-    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="43"/>
       <c r="B644" s="43"/>
       <c r="C644" s="6"/>
@@ -26703,7 +26655,7 @@
       <c r="AH644" s="6"/>
       <c r="AI644" s="6"/>
     </row>
-    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="43"/>
       <c r="B645" s="43"/>
       <c r="C645" s="6"/>
@@ -26740,7 +26692,7 @@
       <c r="AH645" s="6"/>
       <c r="AI645" s="6"/>
     </row>
-    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="43"/>
       <c r="B646" s="43"/>
       <c r="C646" s="6"/>
@@ -26777,7 +26729,7 @@
       <c r="AH646" s="6"/>
       <c r="AI646" s="6"/>
     </row>
-    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="43"/>
       <c r="B647" s="43"/>
       <c r="C647" s="6"/>
@@ -26814,7 +26766,7 @@
       <c r="AH647" s="6"/>
       <c r="AI647" s="6"/>
     </row>
-    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="43"/>
       <c r="B648" s="43"/>
       <c r="C648" s="6"/>
@@ -26851,7 +26803,7 @@
       <c r="AH648" s="6"/>
       <c r="AI648" s="6"/>
     </row>
-    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="43"/>
       <c r="B649" s="43"/>
       <c r="C649" s="6"/>
@@ -26888,7 +26840,7 @@
       <c r="AH649" s="6"/>
       <c r="AI649" s="6"/>
     </row>
-    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="43"/>
       <c r="B650" s="43"/>
       <c r="C650" s="6"/>
@@ -26925,7 +26877,7 @@
       <c r="AH650" s="6"/>
       <c r="AI650" s="6"/>
     </row>
-    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="43"/>
       <c r="B651" s="43"/>
       <c r="C651" s="6"/>
@@ -26962,7 +26914,7 @@
       <c r="AH651" s="6"/>
       <c r="AI651" s="6"/>
     </row>
-    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="43"/>
       <c r="B652" s="43"/>
       <c r="C652" s="6"/>
@@ -26999,7 +26951,7 @@
       <c r="AH652" s="6"/>
       <c r="AI652" s="6"/>
     </row>
-    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="43"/>
       <c r="B653" s="43"/>
       <c r="C653" s="6"/>
@@ -27036,7 +26988,7 @@
       <c r="AH653" s="6"/>
       <c r="AI653" s="6"/>
     </row>
-    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="43"/>
       <c r="B654" s="43"/>
       <c r="C654" s="6"/>
@@ -27073,7 +27025,7 @@
       <c r="AH654" s="6"/>
       <c r="AI654" s="6"/>
     </row>
-    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="43"/>
       <c r="B655" s="43"/>
       <c r="C655" s="6"/>
@@ -27110,7 +27062,7 @@
       <c r="AH655" s="6"/>
       <c r="AI655" s="6"/>
     </row>
-    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="43"/>
       <c r="B656" s="43"/>
       <c r="C656" s="6"/>
@@ -27147,7 +27099,7 @@
       <c r="AH656" s="6"/>
       <c r="AI656" s="6"/>
     </row>
-    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="43"/>
       <c r="B657" s="43"/>
       <c r="C657" s="6"/>
@@ -27184,7 +27136,7 @@
       <c r="AH657" s="6"/>
       <c r="AI657" s="6"/>
     </row>
-    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="43"/>
       <c r="B658" s="43"/>
       <c r="C658" s="6"/>
@@ -27221,7 +27173,7 @@
       <c r="AH658" s="6"/>
       <c r="AI658" s="6"/>
     </row>
-    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="43"/>
       <c r="B659" s="43"/>
       <c r="C659" s="6"/>
@@ -27258,7 +27210,7 @@
       <c r="AH659" s="6"/>
       <c r="AI659" s="6"/>
     </row>
-    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="43"/>
       <c r="B660" s="43"/>
       <c r="C660" s="6"/>
@@ -27295,7 +27247,7 @@
       <c r="AH660" s="6"/>
       <c r="AI660" s="6"/>
     </row>
-    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="43"/>
       <c r="B661" s="43"/>
       <c r="C661" s="6"/>
@@ -27332,7 +27284,7 @@
       <c r="AH661" s="6"/>
       <c r="AI661" s="6"/>
     </row>
-    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="43"/>
       <c r="B662" s="43"/>
       <c r="C662" s="6"/>
@@ -27369,7 +27321,7 @@
       <c r="AH662" s="6"/>
       <c r="AI662" s="6"/>
     </row>
-    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="43"/>
       <c r="B663" s="43"/>
       <c r="C663" s="6"/>
@@ -27406,7 +27358,7 @@
       <c r="AH663" s="6"/>
       <c r="AI663" s="6"/>
     </row>
-    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="43"/>
       <c r="B664" s="43"/>
       <c r="C664" s="6"/>
@@ -27443,7 +27395,7 @@
       <c r="AH664" s="6"/>
       <c r="AI664" s="6"/>
     </row>
-    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="43"/>
       <c r="B665" s="43"/>
       <c r="C665" s="6"/>
@@ -27480,7 +27432,7 @@
       <c r="AH665" s="6"/>
       <c r="AI665" s="6"/>
     </row>
-    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="43"/>
       <c r="B666" s="43"/>
       <c r="C666" s="6"/>
@@ -27517,7 +27469,7 @@
       <c r="AH666" s="6"/>
       <c r="AI666" s="6"/>
     </row>
-    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="43"/>
       <c r="B667" s="43"/>
       <c r="C667" s="6"/>
@@ -27554,7 +27506,7 @@
       <c r="AH667" s="6"/>
       <c r="AI667" s="6"/>
     </row>
-    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="43"/>
       <c r="B668" s="43"/>
       <c r="C668" s="6"/>
@@ -27591,7 +27543,7 @@
       <c r="AH668" s="6"/>
       <c r="AI668" s="6"/>
     </row>
-    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="43"/>
       <c r="B669" s="43"/>
       <c r="C669" s="6"/>
@@ -27628,7 +27580,7 @@
       <c r="AH669" s="6"/>
       <c r="AI669" s="6"/>
     </row>
-    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="43"/>
       <c r="B670" s="43"/>
       <c r="C670" s="6"/>
@@ -27665,7 +27617,7 @@
       <c r="AH670" s="6"/>
       <c r="AI670" s="6"/>
     </row>
-    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="43"/>
       <c r="B671" s="43"/>
       <c r="C671" s="6"/>
@@ -27702,7 +27654,7 @@
       <c r="AH671" s="6"/>
       <c r="AI671" s="6"/>
     </row>
-    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="43"/>
       <c r="B672" s="43"/>
       <c r="C672" s="6"/>
@@ -27739,7 +27691,7 @@
       <c r="AH672" s="6"/>
       <c r="AI672" s="6"/>
     </row>
-    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="43"/>
       <c r="B673" s="43"/>
       <c r="C673" s="6"/>
@@ -27776,7 +27728,7 @@
       <c r="AH673" s="6"/>
       <c r="AI673" s="6"/>
     </row>
-    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="43"/>
       <c r="B674" s="43"/>
       <c r="C674" s="6"/>
@@ -27813,7 +27765,7 @@
       <c r="AH674" s="6"/>
       <c r="AI674" s="6"/>
     </row>
-    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="43"/>
       <c r="B675" s="43"/>
       <c r="C675" s="6"/>
@@ -27850,7 +27802,7 @@
       <c r="AH675" s="6"/>
       <c r="AI675" s="6"/>
     </row>
-    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="43"/>
       <c r="B676" s="43"/>
       <c r="C676" s="6"/>
@@ -27887,7 +27839,7 @@
       <c r="AH676" s="6"/>
       <c r="AI676" s="6"/>
     </row>
-    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="43"/>
       <c r="B677" s="43"/>
       <c r="C677" s="6"/>
@@ -27924,7 +27876,7 @@
       <c r="AH677" s="6"/>
       <c r="AI677" s="6"/>
     </row>
-    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="43"/>
       <c r="B678" s="43"/>
       <c r="C678" s="6"/>
@@ -27961,7 +27913,7 @@
       <c r="AH678" s="6"/>
       <c r="AI678" s="6"/>
     </row>
-    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="43"/>
       <c r="B679" s="43"/>
       <c r="C679" s="6"/>
@@ -27998,7 +27950,7 @@
       <c r="AH679" s="6"/>
       <c r="AI679" s="6"/>
     </row>
-    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="43"/>
       <c r="B680" s="43"/>
       <c r="C680" s="6"/>
@@ -28035,7 +27987,7 @@
       <c r="AH680" s="6"/>
       <c r="AI680" s="6"/>
     </row>
-    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="43"/>
       <c r="B681" s="43"/>
       <c r="C681" s="6"/>
@@ -28072,7 +28024,7 @@
       <c r="AH681" s="6"/>
       <c r="AI681" s="6"/>
     </row>
-    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="43"/>
       <c r="B682" s="43"/>
       <c r="C682" s="6"/>
@@ -28109,7 +28061,7 @@
       <c r="AH682" s="6"/>
       <c r="AI682" s="6"/>
     </row>
-    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="43"/>
       <c r="B683" s="43"/>
       <c r="C683" s="6"/>
@@ -28146,7 +28098,7 @@
       <c r="AH683" s="6"/>
       <c r="AI683" s="6"/>
     </row>
-    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="43"/>
       <c r="B684" s="43"/>
       <c r="C684" s="6"/>
@@ -28183,7 +28135,7 @@
       <c r="AH684" s="6"/>
       <c r="AI684" s="6"/>
     </row>
-    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="43"/>
       <c r="B685" s="43"/>
       <c r="C685" s="6"/>
@@ -28220,7 +28172,7 @@
       <c r="AH685" s="6"/>
       <c r="AI685" s="6"/>
     </row>
-    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="43"/>
       <c r="B686" s="43"/>
       <c r="C686" s="6"/>
@@ -28257,7 +28209,7 @@
       <c r="AH686" s="6"/>
       <c r="AI686" s="6"/>
     </row>
-    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="43"/>
       <c r="B687" s="43"/>
       <c r="C687" s="6"/>
@@ -28294,7 +28246,7 @@
       <c r="AH687" s="6"/>
       <c r="AI687" s="6"/>
     </row>
-    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="43"/>
       <c r="B688" s="43"/>
       <c r="C688" s="6"/>
@@ -28331,7 +28283,7 @@
       <c r="AH688" s="6"/>
       <c r="AI688" s="6"/>
     </row>
-    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="43"/>
       <c r="B689" s="43"/>
       <c r="C689" s="6"/>
@@ -28368,7 +28320,7 @@
       <c r="AH689" s="6"/>
       <c r="AI689" s="6"/>
     </row>
-    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="43"/>
       <c r="B690" s="43"/>
       <c r="C690" s="6"/>
@@ -28405,7 +28357,7 @@
       <c r="AH690" s="6"/>
       <c r="AI690" s="6"/>
     </row>
-    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="43"/>
       <c r="B691" s="43"/>
       <c r="C691" s="6"/>
@@ -28442,7 +28394,7 @@
       <c r="AH691" s="6"/>
       <c r="AI691" s="6"/>
     </row>
-    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="43"/>
       <c r="B692" s="43"/>
       <c r="C692" s="6"/>
@@ -28479,7 +28431,7 @@
       <c r="AH692" s="6"/>
       <c r="AI692" s="6"/>
     </row>
-    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="43"/>
       <c r="B693" s="43"/>
       <c r="C693" s="6"/>
@@ -28516,7 +28468,7 @@
       <c r="AH693" s="6"/>
       <c r="AI693" s="6"/>
     </row>
-    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="43"/>
       <c r="B694" s="43"/>
       <c r="C694" s="6"/>
@@ -28553,7 +28505,7 @@
       <c r="AH694" s="6"/>
       <c r="AI694" s="6"/>
     </row>
-    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="43"/>
       <c r="B695" s="43"/>
       <c r="C695" s="6"/>
@@ -28590,7 +28542,7 @@
       <c r="AH695" s="6"/>
       <c r="AI695" s="6"/>
     </row>
-    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="43"/>
       <c r="B696" s="43"/>
       <c r="C696" s="6"/>
@@ -28627,7 +28579,7 @@
       <c r="AH696" s="6"/>
       <c r="AI696" s="6"/>
     </row>
-    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="43"/>
       <c r="B697" s="43"/>
       <c r="C697" s="6"/>
@@ -28664,7 +28616,7 @@
       <c r="AH697" s="6"/>
       <c r="AI697" s="6"/>
     </row>
-    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="43"/>
       <c r="B698" s="43"/>
       <c r="C698" s="6"/>
@@ -28701,7 +28653,7 @@
       <c r="AH698" s="6"/>
       <c r="AI698" s="6"/>
     </row>
-    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="43"/>
       <c r="B699" s="43"/>
       <c r="C699" s="6"/>
@@ -28738,7 +28690,7 @@
       <c r="AH699" s="6"/>
       <c r="AI699" s="6"/>
     </row>
-    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="43"/>
       <c r="B700" s="43"/>
       <c r="C700" s="6"/>
@@ -28775,7 +28727,7 @@
       <c r="AH700" s="6"/>
       <c r="AI700" s="6"/>
     </row>
-    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="43"/>
       <c r="B701" s="43"/>
       <c r="C701" s="6"/>
@@ -28812,7 +28764,7 @@
       <c r="AH701" s="6"/>
       <c r="AI701" s="6"/>
     </row>
-    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="43"/>
       <c r="B702" s="43"/>
       <c r="C702" s="6"/>
@@ -28849,7 +28801,7 @@
       <c r="AH702" s="6"/>
       <c r="AI702" s="6"/>
     </row>
-    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="43"/>
       <c r="B703" s="43"/>
       <c r="C703" s="6"/>
@@ -28886,7 +28838,7 @@
       <c r="AH703" s="6"/>
       <c r="AI703" s="6"/>
     </row>
-    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="43"/>
       <c r="B704" s="43"/>
       <c r="C704" s="6"/>
@@ -28923,7 +28875,7 @@
       <c r="AH704" s="6"/>
       <c r="AI704" s="6"/>
     </row>
-    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="43"/>
       <c r="B705" s="43"/>
       <c r="C705" s="6"/>
@@ -28960,7 +28912,7 @@
       <c r="AH705" s="6"/>
       <c r="AI705" s="6"/>
     </row>
-    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="43"/>
       <c r="B706" s="43"/>
       <c r="C706" s="6"/>
@@ -28997,7 +28949,7 @@
       <c r="AH706" s="6"/>
       <c r="AI706" s="6"/>
     </row>
-    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="43"/>
       <c r="B707" s="43"/>
       <c r="C707" s="6"/>
@@ -29034,7 +28986,7 @@
       <c r="AH707" s="6"/>
       <c r="AI707" s="6"/>
     </row>
-    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="43"/>
       <c r="B708" s="43"/>
       <c r="C708" s="6"/>
@@ -29071,7 +29023,7 @@
       <c r="AH708" s="6"/>
       <c r="AI708" s="6"/>
     </row>
-    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="43"/>
       <c r="B709" s="43"/>
       <c r="C709" s="6"/>
@@ -29108,7 +29060,7 @@
       <c r="AH709" s="6"/>
       <c r="AI709" s="6"/>
     </row>
-    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="43"/>
       <c r="B710" s="43"/>
       <c r="C710" s="6"/>
@@ -29145,7 +29097,7 @@
       <c r="AH710" s="6"/>
       <c r="AI710" s="6"/>
     </row>
-    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="43"/>
       <c r="B711" s="43"/>
       <c r="C711" s="6"/>
@@ -29182,7 +29134,7 @@
       <c r="AH711" s="6"/>
       <c r="AI711" s="6"/>
     </row>
-    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="43"/>
       <c r="B712" s="43"/>
       <c r="C712" s="6"/>
@@ -29219,7 +29171,7 @@
       <c r="AH712" s="6"/>
       <c r="AI712" s="6"/>
     </row>
-    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="43"/>
       <c r="B713" s="43"/>
       <c r="C713" s="6"/>
@@ -29256,7 +29208,7 @@
       <c r="AH713" s="6"/>
       <c r="AI713" s="6"/>
     </row>
-    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="43"/>
       <c r="B714" s="43"/>
       <c r="C714" s="6"/>
@@ -29293,7 +29245,7 @@
       <c r="AH714" s="6"/>
       <c r="AI714" s="6"/>
     </row>
-    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="43"/>
       <c r="B715" s="43"/>
       <c r="C715" s="6"/>
@@ -29330,7 +29282,7 @@
       <c r="AH715" s="6"/>
       <c r="AI715" s="6"/>
     </row>
-    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="43"/>
       <c r="B716" s="43"/>
       <c r="C716" s="6"/>
@@ -29367,7 +29319,7 @@
       <c r="AH716" s="6"/>
       <c r="AI716" s="6"/>
     </row>
-    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="43"/>
       <c r="B717" s="43"/>
       <c r="C717" s="6"/>
@@ -29404,7 +29356,7 @@
       <c r="AH717" s="6"/>
       <c r="AI717" s="6"/>
     </row>
-    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="43"/>
       <c r="B718" s="43"/>
       <c r="C718" s="6"/>
@@ -29441,7 +29393,7 @@
       <c r="AH718" s="6"/>
       <c r="AI718" s="6"/>
     </row>
-    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="43"/>
       <c r="B719" s="43"/>
       <c r="C719" s="6"/>
@@ -29478,7 +29430,7 @@
       <c r="AH719" s="6"/>
       <c r="AI719" s="6"/>
     </row>
-    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="43"/>
       <c r="B720" s="43"/>
       <c r="C720" s="6"/>
@@ -29515,7 +29467,7 @@
       <c r="AH720" s="6"/>
       <c r="AI720" s="6"/>
     </row>
-    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="43"/>
       <c r="B721" s="43"/>
       <c r="C721" s="6"/>
@@ -29552,7 +29504,7 @@
       <c r="AH721" s="6"/>
       <c r="AI721" s="6"/>
     </row>
-    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="43"/>
       <c r="B722" s="43"/>
       <c r="C722" s="6"/>
@@ -29589,7 +29541,7 @@
       <c r="AH722" s="6"/>
       <c r="AI722" s="6"/>
     </row>
-    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="43"/>
       <c r="B723" s="43"/>
       <c r="C723" s="6"/>
@@ -29626,7 +29578,7 @@
       <c r="AH723" s="6"/>
       <c r="AI723" s="6"/>
     </row>
-    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="43"/>
       <c r="B724" s="43"/>
       <c r="C724" s="6"/>
@@ -29663,7 +29615,7 @@
       <c r="AH724" s="6"/>
       <c r="AI724" s="6"/>
     </row>
-    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="43"/>
       <c r="B725" s="43"/>
       <c r="C725" s="6"/>
@@ -29700,7 +29652,7 @@
       <c r="AH725" s="6"/>
       <c r="AI725" s="6"/>
     </row>
-    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="43"/>
       <c r="B726" s="43"/>
       <c r="C726" s="6"/>
@@ -29737,7 +29689,7 @@
       <c r="AH726" s="6"/>
       <c r="AI726" s="6"/>
     </row>
-    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="43"/>
       <c r="B727" s="43"/>
       <c r="C727" s="6"/>
@@ -29774,7 +29726,7 @@
       <c r="AH727" s="6"/>
       <c r="AI727" s="6"/>
     </row>
-    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="43"/>
       <c r="B728" s="43"/>
       <c r="C728" s="6"/>
@@ -29811,7 +29763,7 @@
       <c r="AH728" s="6"/>
       <c r="AI728" s="6"/>
     </row>
-    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="43"/>
       <c r="B729" s="43"/>
       <c r="C729" s="6"/>
@@ -29848,7 +29800,7 @@
       <c r="AH729" s="6"/>
       <c r="AI729" s="6"/>
     </row>
-    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="43"/>
       <c r="B730" s="43"/>
       <c r="C730" s="6"/>
@@ -29885,7 +29837,7 @@
       <c r="AH730" s="6"/>
       <c r="AI730" s="6"/>
     </row>
-    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="43"/>
       <c r="B731" s="43"/>
       <c r="C731" s="6"/>
@@ -29922,7 +29874,7 @@
       <c r="AH731" s="6"/>
       <c r="AI731" s="6"/>
     </row>
-    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="43"/>
       <c r="B732" s="43"/>
       <c r="C732" s="6"/>
@@ -29959,7 +29911,7 @@
       <c r="AH732" s="6"/>
       <c r="AI732" s="6"/>
     </row>
-    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="43"/>
       <c r="B733" s="43"/>
       <c r="C733" s="6"/>
@@ -29996,7 +29948,7 @@
       <c r="AH733" s="6"/>
       <c r="AI733" s="6"/>
     </row>
-    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="43"/>
       <c r="B734" s="43"/>
       <c r="C734" s="6"/>
@@ -30033,7 +29985,7 @@
       <c r="AH734" s="6"/>
       <c r="AI734" s="6"/>
     </row>
-    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="43"/>
       <c r="B735" s="43"/>
       <c r="C735" s="6"/>
@@ -30070,7 +30022,7 @@
       <c r="AH735" s="6"/>
       <c r="AI735" s="6"/>
     </row>
-    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="43"/>
       <c r="B736" s="43"/>
       <c r="C736" s="6"/>
@@ -30107,7 +30059,7 @@
       <c r="AH736" s="6"/>
       <c r="AI736" s="6"/>
     </row>
-    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="43"/>
       <c r="B737" s="43"/>
       <c r="C737" s="6"/>
@@ -30144,7 +30096,7 @@
       <c r="AH737" s="6"/>
       <c r="AI737" s="6"/>
     </row>
-    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="43"/>
       <c r="B738" s="43"/>
       <c r="C738" s="6"/>
@@ -30181,7 +30133,7 @@
       <c r="AH738" s="6"/>
       <c r="AI738" s="6"/>
     </row>
-    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="43"/>
       <c r="B739" s="43"/>
       <c r="C739" s="6"/>
@@ -30218,7 +30170,7 @@
       <c r="AH739" s="6"/>
       <c r="AI739" s="6"/>
     </row>
-    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="43"/>
       <c r="B740" s="43"/>
       <c r="C740" s="6"/>
@@ -30255,7 +30207,7 @@
       <c r="AH740" s="6"/>
       <c r="AI740" s="6"/>
     </row>
-    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="43"/>
       <c r="B741" s="43"/>
       <c r="C741" s="6"/>
@@ -30292,7 +30244,7 @@
       <c r="AH741" s="6"/>
       <c r="AI741" s="6"/>
     </row>
-    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="43"/>
       <c r="B742" s="43"/>
       <c r="C742" s="6"/>
@@ -30329,7 +30281,7 @@
       <c r="AH742" s="6"/>
       <c r="AI742" s="6"/>
     </row>
-    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="43"/>
       <c r="B743" s="43"/>
       <c r="C743" s="6"/>
@@ -30366,7 +30318,7 @@
       <c r="AH743" s="6"/>
       <c r="AI743" s="6"/>
     </row>
-    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="43"/>
       <c r="B744" s="43"/>
       <c r="C744" s="6"/>
@@ -30403,7 +30355,7 @@
       <c r="AH744" s="6"/>
       <c r="AI744" s="6"/>
     </row>
-    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="43"/>
       <c r="B745" s="43"/>
       <c r="C745" s="6"/>
@@ -30440,7 +30392,7 @@
       <c r="AH745" s="6"/>
       <c r="AI745" s="6"/>
     </row>
-    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="43"/>
       <c r="B746" s="43"/>
       <c r="C746" s="6"/>
@@ -30477,7 +30429,7 @@
       <c r="AH746" s="6"/>
       <c r="AI746" s="6"/>
     </row>
-    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="43"/>
       <c r="B747" s="43"/>
       <c r="C747" s="6"/>
@@ -30514,7 +30466,7 @@
       <c r="AH747" s="6"/>
       <c r="AI747" s="6"/>
     </row>
-    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="43"/>
       <c r="B748" s="43"/>
       <c r="C748" s="6"/>
@@ -30551,7 +30503,7 @@
       <c r="AH748" s="6"/>
       <c r="AI748" s="6"/>
     </row>
-    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="43"/>
       <c r="B749" s="43"/>
       <c r="C749" s="6"/>
@@ -30588,7 +30540,7 @@
       <c r="AH749" s="6"/>
       <c r="AI749" s="6"/>
     </row>
-    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="43"/>
       <c r="B750" s="43"/>
       <c r="C750" s="6"/>
@@ -30625,7 +30577,7 @@
       <c r="AH750" s="6"/>
       <c r="AI750" s="6"/>
     </row>
-    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="43"/>
       <c r="B751" s="43"/>
       <c r="C751" s="6"/>
@@ -30662,7 +30614,7 @@
       <c r="AH751" s="6"/>
       <c r="AI751" s="6"/>
     </row>
-    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="43"/>
       <c r="B752" s="43"/>
       <c r="C752" s="6"/>
@@ -30699,7 +30651,7 @@
       <c r="AH752" s="6"/>
       <c r="AI752" s="6"/>
     </row>
-    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="43"/>
       <c r="B753" s="43"/>
       <c r="C753" s="6"/>
@@ -30736,7 +30688,7 @@
       <c r="AH753" s="6"/>
       <c r="AI753" s="6"/>
     </row>
-    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="43"/>
       <c r="B754" s="43"/>
       <c r="C754" s="6"/>
@@ -30773,7 +30725,7 @@
       <c r="AH754" s="6"/>
       <c r="AI754" s="6"/>
     </row>
-    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="43"/>
       <c r="B755" s="43"/>
       <c r="C755" s="6"/>
@@ -30810,7 +30762,7 @@
       <c r="AH755" s="6"/>
       <c r="AI755" s="6"/>
     </row>
-    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="43"/>
       <c r="B756" s="43"/>
       <c r="C756" s="6"/>
@@ -30847,7 +30799,7 @@
       <c r="AH756" s="6"/>
       <c r="AI756" s="6"/>
     </row>
-    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="43"/>
       <c r="B757" s="43"/>
       <c r="C757" s="6"/>
@@ -30884,7 +30836,7 @@
       <c r="AH757" s="6"/>
       <c r="AI757" s="6"/>
     </row>
-    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="43"/>
       <c r="B758" s="43"/>
       <c r="C758" s="6"/>
@@ -30921,7 +30873,7 @@
       <c r="AH758" s="6"/>
       <c r="AI758" s="6"/>
     </row>
-    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="43"/>
       <c r="B759" s="43"/>
       <c r="C759" s="6"/>
@@ -30958,7 +30910,7 @@
       <c r="AH759" s="6"/>
       <c r="AI759" s="6"/>
     </row>
-    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="43"/>
       <c r="B760" s="43"/>
       <c r="C760" s="6"/>
@@ -30995,7 +30947,7 @@
       <c r="AH760" s="6"/>
       <c r="AI760" s="6"/>
     </row>
-    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="43"/>
       <c r="B761" s="43"/>
       <c r="C761" s="6"/>
@@ -31032,7 +30984,7 @@
       <c r="AH761" s="6"/>
       <c r="AI761" s="6"/>
     </row>
-    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="43"/>
       <c r="B762" s="43"/>
       <c r="C762" s="6"/>
@@ -31069,7 +31021,7 @@
       <c r="AH762" s="6"/>
       <c r="AI762" s="6"/>
     </row>
-    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="43"/>
       <c r="B763" s="43"/>
       <c r="C763" s="6"/>
@@ -31106,7 +31058,7 @@
       <c r="AH763" s="6"/>
       <c r="AI763" s="6"/>
     </row>
-    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="43"/>
       <c r="B764" s="43"/>
       <c r="C764" s="6"/>
@@ -31143,7 +31095,7 @@
       <c r="AH764" s="6"/>
       <c r="AI764" s="6"/>
     </row>
-    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="43"/>
       <c r="B765" s="43"/>
       <c r="C765" s="6"/>
@@ -31180,7 +31132,7 @@
       <c r="AH765" s="6"/>
       <c r="AI765" s="6"/>
     </row>
-    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="43"/>
       <c r="B766" s="43"/>
       <c r="C766" s="6"/>
@@ -31217,7 +31169,7 @@
       <c r="AH766" s="6"/>
       <c r="AI766" s="6"/>
     </row>
-    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="43"/>
       <c r="B767" s="43"/>
       <c r="C767" s="6"/>
@@ -31254,7 +31206,7 @@
       <c r="AH767" s="6"/>
       <c r="AI767" s="6"/>
     </row>
-    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="43"/>
       <c r="B768" s="43"/>
       <c r="C768" s="6"/>
@@ -31291,7 +31243,7 @@
       <c r="AH768" s="6"/>
       <c r="AI768" s="6"/>
     </row>
-    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="43"/>
       <c r="B769" s="43"/>
       <c r="C769" s="6"/>
@@ -31328,7 +31280,7 @@
       <c r="AH769" s="6"/>
       <c r="AI769" s="6"/>
     </row>
-    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="43"/>
       <c r="B770" s="43"/>
       <c r="C770" s="6"/>
@@ -31365,7 +31317,7 @@
       <c r="AH770" s="6"/>
       <c r="AI770" s="6"/>
     </row>
-    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="43"/>
       <c r="B771" s="43"/>
       <c r="C771" s="6"/>
@@ -31402,7 +31354,7 @@
       <c r="AH771" s="6"/>
       <c r="AI771" s="6"/>
     </row>
-    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="43"/>
       <c r="B772" s="43"/>
       <c r="C772" s="6"/>
@@ -31439,7 +31391,7 @@
       <c r="AH772" s="6"/>
       <c r="AI772" s="6"/>
     </row>
-    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="43"/>
       <c r="B773" s="43"/>
       <c r="C773" s="6"/>
@@ -31476,7 +31428,7 @@
       <c r="AH773" s="6"/>
       <c r="AI773" s="6"/>
     </row>
-    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="43"/>
       <c r="B774" s="43"/>
       <c r="C774" s="6"/>
@@ -31513,7 +31465,7 @@
       <c r="AH774" s="6"/>
       <c r="AI774" s="6"/>
     </row>
-    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="43"/>
       <c r="B775" s="43"/>
       <c r="C775" s="6"/>
@@ -31550,7 +31502,7 @@
       <c r="AH775" s="6"/>
       <c r="AI775" s="6"/>
     </row>
-    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="43"/>
       <c r="B776" s="43"/>
       <c r="C776" s="6"/>
@@ -31587,7 +31539,7 @@
       <c r="AH776" s="6"/>
       <c r="AI776" s="6"/>
     </row>
-    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="43"/>
       <c r="B777" s="43"/>
       <c r="C777" s="6"/>
@@ -31624,7 +31576,7 @@
       <c r="AH777" s="6"/>
       <c r="AI777" s="6"/>
     </row>
-    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="43"/>
       <c r="B778" s="43"/>
       <c r="C778" s="6"/>
@@ -31661,7 +31613,7 @@
       <c r="AH778" s="6"/>
       <c r="AI778" s="6"/>
     </row>
-    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="43"/>
       <c r="B779" s="43"/>
       <c r="C779" s="6"/>
@@ -31698,7 +31650,7 @@
       <c r="AH779" s="6"/>
       <c r="AI779" s="6"/>
     </row>
-    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="43"/>
       <c r="B780" s="43"/>
       <c r="C780" s="6"/>
@@ -31735,7 +31687,7 @@
       <c r="AH780" s="6"/>
       <c r="AI780" s="6"/>
     </row>
-    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="43"/>
       <c r="B781" s="43"/>
       <c r="C781" s="6"/>
@@ -31772,7 +31724,7 @@
       <c r="AH781" s="6"/>
       <c r="AI781" s="6"/>
     </row>
-    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="43"/>
       <c r="B782" s="43"/>
       <c r="C782" s="6"/>
@@ -31809,7 +31761,7 @@
       <c r="AH782" s="6"/>
       <c r="AI782" s="6"/>
     </row>
-    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="43"/>
       <c r="B783" s="43"/>
       <c r="C783" s="6"/>
@@ -31846,7 +31798,7 @@
       <c r="AH783" s="6"/>
       <c r="AI783" s="6"/>
     </row>
-    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="43"/>
       <c r="B784" s="43"/>
       <c r="C784" s="6"/>
@@ -31883,7 +31835,7 @@
       <c r="AH784" s="6"/>
       <c r="AI784" s="6"/>
     </row>
-    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="43"/>
       <c r="B785" s="43"/>
       <c r="C785" s="6"/>
@@ -31920,7 +31872,7 @@
       <c r="AH785" s="6"/>
       <c r="AI785" s="6"/>
     </row>
-    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="43"/>
       <c r="B786" s="43"/>
       <c r="C786" s="6"/>
@@ -31957,7 +31909,7 @@
       <c r="AH786" s="6"/>
       <c r="AI786" s="6"/>
     </row>
-    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="43"/>
       <c r="B787" s="43"/>
       <c r="C787" s="6"/>
@@ -31994,7 +31946,7 @@
       <c r="AH787" s="6"/>
       <c r="AI787" s="6"/>
     </row>
-    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="43"/>
       <c r="B788" s="43"/>
       <c r="C788" s="6"/>
@@ -32031,7 +31983,7 @@
       <c r="AH788" s="6"/>
       <c r="AI788" s="6"/>
     </row>
-    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="43"/>
       <c r="B789" s="43"/>
       <c r="C789" s="6"/>
@@ -32068,7 +32020,7 @@
       <c r="AH789" s="6"/>
       <c r="AI789" s="6"/>
     </row>
-    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="43"/>
       <c r="B790" s="43"/>
       <c r="C790" s="6"/>
@@ -32105,7 +32057,7 @@
       <c r="AH790" s="6"/>
       <c r="AI790" s="6"/>
     </row>
-    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="43"/>
       <c r="B791" s="43"/>
       <c r="C791" s="6"/>
@@ -32142,7 +32094,7 @@
       <c r="AH791" s="6"/>
       <c r="AI791" s="6"/>
     </row>
-    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="43"/>
       <c r="B792" s="43"/>
       <c r="C792" s="6"/>
@@ -32179,7 +32131,7 @@
       <c r="AH792" s="6"/>
       <c r="AI792" s="6"/>
     </row>
-    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="43"/>
       <c r="B793" s="43"/>
       <c r="C793" s="6"/>
@@ -32216,7 +32168,7 @@
       <c r="AH793" s="6"/>
       <c r="AI793" s="6"/>
     </row>
-    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="43"/>
       <c r="B794" s="43"/>
       <c r="C794" s="6"/>
@@ -32253,7 +32205,7 @@
       <c r="AH794" s="6"/>
       <c r="AI794" s="6"/>
     </row>
-    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="43"/>
       <c r="B795" s="43"/>
       <c r="C795" s="6"/>
@@ -32290,7 +32242,7 @@
       <c r="AH795" s="6"/>
       <c r="AI795" s="6"/>
     </row>
-    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="43"/>
       <c r="B796" s="43"/>
       <c r="C796" s="6"/>
@@ -32327,7 +32279,7 @@
       <c r="AH796" s="6"/>
       <c r="AI796" s="6"/>
     </row>
-    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="43"/>
       <c r="B797" s="43"/>
       <c r="C797" s="6"/>
@@ -32364,7 +32316,7 @@
       <c r="AH797" s="6"/>
       <c r="AI797" s="6"/>
     </row>
-    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="43"/>
       <c r="B798" s="43"/>
       <c r="C798" s="6"/>
@@ -32401,7 +32353,7 @@
       <c r="AH798" s="6"/>
       <c r="AI798" s="6"/>
     </row>
-    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="43"/>
       <c r="B799" s="43"/>
       <c r="C799" s="6"/>
@@ -32438,7 +32390,7 @@
       <c r="AH799" s="6"/>
       <c r="AI799" s="6"/>
     </row>
-    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="43"/>
       <c r="B800" s="43"/>
       <c r="C800" s="6"/>
@@ -32475,7 +32427,7 @@
       <c r="AH800" s="6"/>
       <c r="AI800" s="6"/>
     </row>
-    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="43"/>
       <c r="B801" s="43"/>
       <c r="C801" s="6"/>
@@ -32512,7 +32464,7 @@
       <c r="AH801" s="6"/>
       <c r="AI801" s="6"/>
     </row>
-    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="43"/>
       <c r="B802" s="43"/>
       <c r="C802" s="6"/>
@@ -32549,7 +32501,7 @@
       <c r="AH802" s="6"/>
       <c r="AI802" s="6"/>
     </row>
-    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="43"/>
       <c r="B803" s="43"/>
       <c r="C803" s="6"/>
@@ -32586,7 +32538,7 @@
       <c r="AH803" s="6"/>
       <c r="AI803" s="6"/>
     </row>
-    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="43"/>
       <c r="B804" s="43"/>
       <c r="C804" s="6"/>
@@ -32623,7 +32575,7 @@
       <c r="AH804" s="6"/>
       <c r="AI804" s="6"/>
     </row>
-    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="43"/>
       <c r="B805" s="43"/>
       <c r="C805" s="6"/>
@@ -32660,7 +32612,7 @@
       <c r="AH805" s="6"/>
       <c r="AI805" s="6"/>
     </row>
-    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="43"/>
       <c r="B806" s="43"/>
       <c r="C806" s="6"/>
@@ -32697,7 +32649,7 @@
       <c r="AH806" s="6"/>
       <c r="AI806" s="6"/>
     </row>
-    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="43"/>
       <c r="B807" s="43"/>
       <c r="C807" s="6"/>
@@ -32734,7 +32686,7 @@
       <c r="AH807" s="6"/>
       <c r="AI807" s="6"/>
     </row>
-    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="43"/>
       <c r="B808" s="43"/>
       <c r="C808" s="6"/>
@@ -32771,7 +32723,7 @@
       <c r="AH808" s="6"/>
       <c r="AI808" s="6"/>
     </row>
-    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="43"/>
       <c r="B809" s="43"/>
       <c r="C809" s="6"/>
@@ -32808,7 +32760,7 @@
       <c r="AH809" s="6"/>
       <c r="AI809" s="6"/>
     </row>
-    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="43"/>
       <c r="B810" s="43"/>
       <c r="C810" s="6"/>
@@ -32845,7 +32797,7 @@
       <c r="AH810" s="6"/>
       <c r="AI810" s="6"/>
     </row>
-    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="43"/>
       <c r="B811" s="43"/>
       <c r="C811" s="6"/>
@@ -32882,7 +32834,7 @@
       <c r="AH811" s="6"/>
       <c r="AI811" s="6"/>
     </row>
-    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="43"/>
       <c r="B812" s="43"/>
       <c r="C812" s="6"/>
@@ -32919,7 +32871,7 @@
       <c r="AH812" s="6"/>
       <c r="AI812" s="6"/>
     </row>
-    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="43"/>
       <c r="B813" s="43"/>
       <c r="C813" s="6"/>
@@ -32956,7 +32908,7 @@
       <c r="AH813" s="6"/>
       <c r="AI813" s="6"/>
     </row>
-    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="43"/>
       <c r="B814" s="43"/>
       <c r="C814" s="6"/>
@@ -32993,7 +32945,7 @@
       <c r="AH814" s="6"/>
       <c r="AI814" s="6"/>
     </row>
-    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="43"/>
       <c r="B815" s="43"/>
       <c r="C815" s="6"/>
@@ -33030,7 +32982,7 @@
       <c r="AH815" s="6"/>
       <c r="AI815" s="6"/>
     </row>
-    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="43"/>
       <c r="B816" s="43"/>
       <c r="C816" s="6"/>
@@ -33067,7 +33019,7 @@
       <c r="AH816" s="6"/>
       <c r="AI816" s="6"/>
     </row>
-    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="43"/>
       <c r="B817" s="43"/>
       <c r="C817" s="6"/>
@@ -33104,7 +33056,7 @@
       <c r="AH817" s="6"/>
       <c r="AI817" s="6"/>
     </row>
-    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="43"/>
       <c r="B818" s="43"/>
       <c r="C818" s="6"/>
@@ -33141,7 +33093,7 @@
       <c r="AH818" s="6"/>
       <c r="AI818" s="6"/>
     </row>
-    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="43"/>
       <c r="B819" s="43"/>
       <c r="C819" s="6"/>
@@ -33178,7 +33130,7 @@
       <c r="AH819" s="6"/>
       <c r="AI819" s="6"/>
     </row>
-    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="43"/>
       <c r="B820" s="43"/>
       <c r="C820" s="6"/>
@@ -33215,7 +33167,7 @@
       <c r="AH820" s="6"/>
       <c r="AI820" s="6"/>
     </row>
-    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="43"/>
       <c r="B821" s="43"/>
       <c r="C821" s="6"/>
@@ -33252,7 +33204,7 @@
       <c r="AH821" s="6"/>
       <c r="AI821" s="6"/>
     </row>
-    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="43"/>
       <c r="B822" s="43"/>
       <c r="C822" s="6"/>
@@ -33289,7 +33241,7 @@
       <c r="AH822" s="6"/>
       <c r="AI822" s="6"/>
     </row>
-    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="43"/>
       <c r="B823" s="43"/>
       <c r="C823" s="6"/>
@@ -33326,7 +33278,7 @@
       <c r="AH823" s="6"/>
       <c r="AI823" s="6"/>
     </row>
-    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="43"/>
       <c r="B824" s="43"/>
       <c r="C824" s="6"/>
@@ -33363,7 +33315,7 @@
       <c r="AH824" s="6"/>
       <c r="AI824" s="6"/>
     </row>
-    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="43"/>
       <c r="B825" s="43"/>
       <c r="C825" s="6"/>
@@ -33400,7 +33352,7 @@
       <c r="AH825" s="6"/>
       <c r="AI825" s="6"/>
     </row>
-    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="43"/>
       <c r="B826" s="43"/>
       <c r="C826" s="6"/>
@@ -33437,7 +33389,7 @@
       <c r="AH826" s="6"/>
       <c r="AI826" s="6"/>
     </row>
-    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="43"/>
       <c r="B827" s="43"/>
       <c r="C827" s="6"/>
@@ -33474,7 +33426,7 @@
       <c r="AH827" s="6"/>
       <c r="AI827" s="6"/>
     </row>
-    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="43"/>
       <c r="B828" s="43"/>
       <c r="C828" s="6"/>
@@ -33511,7 +33463,7 @@
       <c r="AH828" s="6"/>
       <c r="AI828" s="6"/>
     </row>
-    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="43"/>
       <c r="B829" s="43"/>
       <c r="C829" s="6"/>
@@ -33548,7 +33500,7 @@
       <c r="AH829" s="6"/>
       <c r="AI829" s="6"/>
     </row>
-    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="43"/>
       <c r="B830" s="43"/>
       <c r="C830" s="6"/>
@@ -33585,7 +33537,7 @@
       <c r="AH830" s="6"/>
       <c r="AI830" s="6"/>
     </row>
-    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="43"/>
       <c r="B831" s="43"/>
       <c r="C831" s="6"/>
@@ -33622,7 +33574,7 @@
       <c r="AH831" s="6"/>
       <c r="AI831" s="6"/>
     </row>
-    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="43"/>
       <c r="B832" s="43"/>
       <c r="C832" s="6"/>
@@ -33659,7 +33611,7 @@
       <c r="AH832" s="6"/>
       <c r="AI832" s="6"/>
     </row>
-    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="43"/>
       <c r="B833" s="43"/>
       <c r="C833" s="6"/>
@@ -33696,7 +33648,7 @@
       <c r="AH833" s="6"/>
       <c r="AI833" s="6"/>
     </row>
-    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="43"/>
       <c r="B834" s="43"/>
       <c r="C834" s="6"/>
@@ -33733,7 +33685,7 @@
       <c r="AH834" s="6"/>
       <c r="AI834" s="6"/>
     </row>
-    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="43"/>
       <c r="B835" s="43"/>
       <c r="C835" s="6"/>
@@ -33770,7 +33722,7 @@
       <c r="AH835" s="6"/>
       <c r="AI835" s="6"/>
     </row>
-    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="43"/>
       <c r="B836" s="43"/>
       <c r="C836" s="6"/>
@@ -33807,7 +33759,7 @@
       <c r="AH836" s="6"/>
       <c r="AI836" s="6"/>
     </row>
-    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="43"/>
       <c r="B837" s="43"/>
       <c r="C837" s="6"/>
@@ -33844,7 +33796,7 @@
       <c r="AH837" s="6"/>
       <c r="AI837" s="6"/>
     </row>
-    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="43"/>
       <c r="B838" s="43"/>
       <c r="C838" s="6"/>
@@ -33881,7 +33833,7 @@
       <c r="AH838" s="6"/>
       <c r="AI838" s="6"/>
     </row>
-    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="43"/>
       <c r="B839" s="43"/>
       <c r="C839" s="6"/>
@@ -33918,7 +33870,7 @@
       <c r="AH839" s="6"/>
       <c r="AI839" s="6"/>
     </row>
-    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="43"/>
       <c r="B840" s="43"/>
       <c r="C840" s="6"/>
@@ -33955,7 +33907,7 @@
       <c r="AH840" s="6"/>
       <c r="AI840" s="6"/>
     </row>
-    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="43"/>
       <c r="B841" s="43"/>
       <c r="C841" s="6"/>
@@ -33992,7 +33944,7 @@
       <c r="AH841" s="6"/>
       <c r="AI841" s="6"/>
     </row>
-    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="43"/>
       <c r="B842" s="43"/>
       <c r="C842" s="6"/>
@@ -34029,7 +33981,7 @@
       <c r="AH842" s="6"/>
       <c r="AI842" s="6"/>
     </row>
-    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="43"/>
       <c r="B843" s="43"/>
       <c r="C843" s="6"/>
@@ -34066,7 +34018,7 @@
       <c r="AH843" s="6"/>
       <c r="AI843" s="6"/>
     </row>
-    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="43"/>
       <c r="B844" s="43"/>
       <c r="C844" s="6"/>
@@ -34103,7 +34055,7 @@
       <c r="AH844" s="6"/>
       <c r="AI844" s="6"/>
     </row>
-    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="43"/>
       <c r="B845" s="43"/>
       <c r="C845" s="6"/>
@@ -34140,7 +34092,7 @@
       <c r="AH845" s="6"/>
       <c r="AI845" s="6"/>
     </row>
-    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="43"/>
       <c r="B846" s="43"/>
       <c r="C846" s="6"/>
@@ -34177,7 +34129,7 @@
       <c r="AH846" s="6"/>
       <c r="AI846" s="6"/>
     </row>
-    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="43"/>
       <c r="B847" s="43"/>
       <c r="C847" s="6"/>
@@ -34214,7 +34166,7 @@
       <c r="AH847" s="6"/>
       <c r="AI847" s="6"/>
     </row>
-    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="43"/>
       <c r="B848" s="43"/>
       <c r="C848" s="6"/>
@@ -34251,7 +34203,7 @@
       <c r="AH848" s="6"/>
       <c r="AI848" s="6"/>
     </row>
-    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="43"/>
       <c r="B849" s="43"/>
       <c r="C849" s="6"/>
@@ -34288,7 +34240,7 @@
       <c r="AH849" s="6"/>
       <c r="AI849" s="6"/>
     </row>
-    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="43"/>
       <c r="B850" s="43"/>
       <c r="C850" s="6"/>
@@ -34325,7 +34277,7 @@
       <c r="AH850" s="6"/>
       <c r="AI850" s="6"/>
     </row>
-    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="43"/>
       <c r="B851" s="43"/>
       <c r="C851" s="6"/>
@@ -34362,7 +34314,7 @@
       <c r="AH851" s="6"/>
       <c r="AI851" s="6"/>
     </row>
-    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="43"/>
       <c r="B852" s="43"/>
       <c r="C852" s="6"/>
@@ -34399,7 +34351,7 @@
       <c r="AH852" s="6"/>
       <c r="AI852" s="6"/>
     </row>
-    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="43"/>
       <c r="B853" s="43"/>
       <c r="C853" s="6"/>
@@ -34436,7 +34388,7 @@
       <c r="AH853" s="6"/>
       <c r="AI853" s="6"/>
     </row>
-    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="43"/>
       <c r="B854" s="43"/>
       <c r="C854" s="6"/>
@@ -34473,7 +34425,7 @@
       <c r="AH854" s="6"/>
       <c r="AI854" s="6"/>
     </row>
-    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="43"/>
       <c r="B855" s="43"/>
       <c r="C855" s="6"/>
@@ -34510,7 +34462,7 @@
       <c r="AH855" s="6"/>
       <c r="AI855" s="6"/>
     </row>
-    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="43"/>
       <c r="B856" s="43"/>
       <c r="C856" s="6"/>
@@ -34547,7 +34499,7 @@
       <c r="AH856" s="6"/>
       <c r="AI856" s="6"/>
     </row>
-    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="43"/>
       <c r="B857" s="43"/>
       <c r="C857" s="6"/>
@@ -34584,7 +34536,7 @@
       <c r="AH857" s="6"/>
       <c r="AI857" s="6"/>
     </row>
-    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="43"/>
       <c r="B858" s="43"/>
       <c r="C858" s="6"/>
@@ -34621,7 +34573,7 @@
       <c r="AH858" s="6"/>
       <c r="AI858" s="6"/>
     </row>
-    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="43"/>
       <c r="B859" s="43"/>
       <c r="C859" s="6"/>
@@ -34658,7 +34610,7 @@
       <c r="AH859" s="6"/>
       <c r="AI859" s="6"/>
     </row>
-    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="43"/>
       <c r="B860" s="43"/>
       <c r="C860" s="6"/>
@@ -34695,7 +34647,7 @@
       <c r="AH860" s="6"/>
       <c r="AI860" s="6"/>
     </row>
-    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="43"/>
       <c r="B861" s="43"/>
       <c r="C861" s="6"/>
@@ -34732,7 +34684,7 @@
       <c r="AH861" s="6"/>
       <c r="AI861" s="6"/>
     </row>
-    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="43"/>
       <c r="B862" s="43"/>
       <c r="C862" s="6"/>
@@ -34769,7 +34721,7 @@
       <c r="AH862" s="6"/>
       <c r="AI862" s="6"/>
     </row>
-    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="43"/>
       <c r="B863" s="43"/>
       <c r="C863" s="6"/>
@@ -34806,7 +34758,7 @@
       <c r="AH863" s="6"/>
       <c r="AI863" s="6"/>
     </row>
-    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="43"/>
       <c r="B864" s="43"/>
       <c r="C864" s="6"/>
@@ -34843,7 +34795,7 @@
       <c r="AH864" s="6"/>
       <c r="AI864" s="6"/>
     </row>
-    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="43"/>
       <c r="B865" s="43"/>
       <c r="C865" s="6"/>
@@ -34880,7 +34832,7 @@
       <c r="AH865" s="6"/>
       <c r="AI865" s="6"/>
     </row>
-    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="43"/>
       <c r="B866" s="43"/>
       <c r="C866" s="6"/>
@@ -34917,7 +34869,7 @@
       <c r="AH866" s="6"/>
       <c r="AI866" s="6"/>
     </row>
-    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="43"/>
       <c r="B867" s="43"/>
       <c r="C867" s="6"/>
@@ -34954,7 +34906,7 @@
       <c r="AH867" s="6"/>
       <c r="AI867" s="6"/>
     </row>
-    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="43"/>
       <c r="B868" s="43"/>
       <c r="C868" s="6"/>
@@ -34991,7 +34943,7 @@
       <c r="AH868" s="6"/>
       <c r="AI868" s="6"/>
     </row>
-    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="43"/>
       <c r="B869" s="43"/>
       <c r="C869" s="6"/>
@@ -35028,7 +34980,7 @@
       <c r="AH869" s="6"/>
       <c r="AI869" s="6"/>
     </row>
-    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="43"/>
       <c r="B870" s="43"/>
       <c r="C870" s="6"/>
@@ -35065,7 +35017,7 @@
       <c r="AH870" s="6"/>
       <c r="AI870" s="6"/>
     </row>
-    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="43"/>
       <c r="B871" s="43"/>
       <c r="C871" s="6"/>
@@ -35102,7 +35054,7 @@
       <c r="AH871" s="6"/>
       <c r="AI871" s="6"/>
     </row>
-    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="43"/>
       <c r="B872" s="43"/>
       <c r="C872" s="6"/>
@@ -35139,7 +35091,7 @@
       <c r="AH872" s="6"/>
       <c r="AI872" s="6"/>
     </row>
-    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="43"/>
       <c r="B873" s="43"/>
       <c r="C873" s="6"/>
@@ -35176,7 +35128,7 @@
       <c r="AH873" s="6"/>
       <c r="AI873" s="6"/>
     </row>
-    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="43"/>
       <c r="B874" s="43"/>
       <c r="C874" s="6"/>
@@ -35213,7 +35165,7 @@
       <c r="AH874" s="6"/>
       <c r="AI874" s="6"/>
     </row>
-    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="43"/>
       <c r="B875" s="43"/>
       <c r="C875" s="6"/>
@@ -35250,7 +35202,7 @@
       <c r="AH875" s="6"/>
       <c r="AI875" s="6"/>
     </row>
-    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="43"/>
       <c r="B876" s="43"/>
       <c r="C876" s="6"/>
@@ -35287,7 +35239,7 @@
       <c r="AH876" s="6"/>
       <c r="AI876" s="6"/>
     </row>
-    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="43"/>
       <c r="B877" s="43"/>
       <c r="C877" s="6"/>
@@ -35324,7 +35276,7 @@
       <c r="AH877" s="6"/>
       <c r="AI877" s="6"/>
     </row>
-    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="43"/>
       <c r="B878" s="43"/>
       <c r="C878" s="6"/>
@@ -35361,7 +35313,7 @@
       <c r="AH878" s="6"/>
       <c r="AI878" s="6"/>
     </row>
-    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="43"/>
       <c r="B879" s="43"/>
       <c r="C879" s="6"/>
@@ -35398,7 +35350,7 @@
       <c r="AH879" s="6"/>
       <c r="AI879" s="6"/>
     </row>
-    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="43"/>
       <c r="B880" s="43"/>
       <c r="C880" s="6"/>
@@ -35435,7 +35387,7 @@
       <c r="AH880" s="6"/>
       <c r="AI880" s="6"/>
     </row>
-    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="43"/>
       <c r="B881" s="43"/>
       <c r="C881" s="6"/>
@@ -35472,7 +35424,7 @@
       <c r="AH881" s="6"/>
       <c r="AI881" s="6"/>
     </row>
-    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="43"/>
       <c r="B882" s="43"/>
       <c r="C882" s="6"/>
@@ -35509,7 +35461,7 @@
       <c r="AH882" s="6"/>
       <c r="AI882" s="6"/>
     </row>
-    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="43"/>
       <c r="B883" s="43"/>
       <c r="C883" s="6"/>
@@ -35546,7 +35498,7 @@
       <c r="AH883" s="6"/>
       <c r="AI883" s="6"/>
     </row>
-    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="43"/>
       <c r="B884" s="43"/>
       <c r="C884" s="6"/>
@@ -35583,7 +35535,7 @@
       <c r="AH884" s="6"/>
       <c r="AI884" s="6"/>
     </row>
-    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="43"/>
       <c r="B885" s="43"/>
       <c r="C885" s="6"/>
@@ -35620,7 +35572,7 @@
       <c r="AH885" s="6"/>
       <c r="AI885" s="6"/>
     </row>
-    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="43"/>
       <c r="B886" s="43"/>
       <c r="C886" s="6"/>
@@ -35657,7 +35609,7 @@
       <c r="AH886" s="6"/>
       <c r="AI886" s="6"/>
     </row>
-    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="43"/>
       <c r="B887" s="43"/>
       <c r="C887" s="6"/>
@@ -35694,7 +35646,7 @@
       <c r="AH887" s="6"/>
       <c r="AI887" s="6"/>
     </row>
-    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="43"/>
       <c r="B888" s="43"/>
       <c r="C888" s="6"/>
@@ -35731,7 +35683,7 @@
       <c r="AH888" s="6"/>
       <c r="AI888" s="6"/>
     </row>
-    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="43"/>
       <c r="B889" s="43"/>
       <c r="C889" s="6"/>
@@ -35768,7 +35720,7 @@
       <c r="AH889" s="6"/>
       <c r="AI889" s="6"/>
     </row>
-    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="43"/>
       <c r="B890" s="43"/>
       <c r="C890" s="6"/>
@@ -35805,7 +35757,7 @@
       <c r="AH890" s="6"/>
       <c r="AI890" s="6"/>
     </row>
-    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="43"/>
       <c r="B891" s="43"/>
       <c r="C891" s="6"/>
@@ -35842,7 +35794,7 @@
       <c r="AH891" s="6"/>
       <c r="AI891" s="6"/>
     </row>
-    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="43"/>
       <c r="B892" s="43"/>
       <c r="C892" s="6"/>
@@ -35879,7 +35831,7 @@
       <c r="AH892" s="6"/>
       <c r="AI892" s="6"/>
     </row>
-    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="43"/>
       <c r="B893" s="43"/>
       <c r="C893" s="6"/>
@@ -35916,7 +35868,7 @@
       <c r="AH893" s="6"/>
       <c r="AI893" s="6"/>
     </row>
-    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="43"/>
       <c r="B894" s="43"/>
       <c r="C894" s="6"/>
@@ -35953,7 +35905,7 @@
       <c r="AH894" s="6"/>
       <c r="AI894" s="6"/>
     </row>
-    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="43"/>
       <c r="B895" s="43"/>
       <c r="C895" s="6"/>
@@ -35990,7 +35942,7 @@
       <c r="AH895" s="6"/>
       <c r="AI895" s="6"/>
     </row>
-    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="43"/>
       <c r="B896" s="43"/>
       <c r="C896" s="6"/>
@@ -36027,7 +35979,7 @@
       <c r="AH896" s="6"/>
       <c r="AI896" s="6"/>
     </row>
-    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="43"/>
       <c r="B897" s="43"/>
       <c r="C897" s="6"/>
@@ -36064,7 +36016,7 @@
       <c r="AH897" s="6"/>
       <c r="AI897" s="6"/>
     </row>
-    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="43"/>
       <c r="B898" s="43"/>
       <c r="C898" s="6"/>
@@ -36101,7 +36053,7 @@
       <c r="AH898" s="6"/>
       <c r="AI898" s="6"/>
     </row>
-    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="43"/>
       <c r="B899" s="43"/>
       <c r="C899" s="6"/>
@@ -36138,7 +36090,7 @@
       <c r="AH899" s="6"/>
       <c r="AI899" s="6"/>
     </row>
-    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="43"/>
       <c r="B900" s="43"/>
       <c r="C900" s="6"/>
@@ -36175,7 +36127,7 @@
       <c r="AH900" s="6"/>
       <c r="AI900" s="6"/>
     </row>
-    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="43"/>
       <c r="B901" s="43"/>
       <c r="C901" s="6"/>
@@ -36212,7 +36164,7 @@
       <c r="AH901" s="6"/>
       <c r="AI901" s="6"/>
     </row>
-    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="43"/>
       <c r="B902" s="43"/>
       <c r="C902" s="6"/>
@@ -36249,7 +36201,7 @@
       <c r="AH902" s="6"/>
       <c r="AI902" s="6"/>
     </row>
-    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="43"/>
       <c r="B903" s="43"/>
       <c r="C903" s="6"/>
@@ -36286,7 +36238,7 @@
       <c r="AH903" s="6"/>
       <c r="AI903" s="6"/>
     </row>
-    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="43"/>
       <c r="B904" s="43"/>
       <c r="C904" s="6"/>
@@ -36323,7 +36275,7 @@
       <c r="AH904" s="6"/>
       <c r="AI904" s="6"/>
     </row>
-    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="43"/>
       <c r="B905" s="43"/>
       <c r="C905" s="6"/>
@@ -36360,7 +36312,7 @@
       <c r="AH905" s="6"/>
       <c r="AI905" s="6"/>
     </row>
-    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="43"/>
       <c r="B906" s="43"/>
       <c r="C906" s="6"/>
@@ -36397,7 +36349,7 @@
       <c r="AH906" s="6"/>
       <c r="AI906" s="6"/>
     </row>
-    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="43"/>
       <c r="B907" s="43"/>
       <c r="C907" s="6"/>
@@ -36434,7 +36386,7 @@
       <c r="AH907" s="6"/>
       <c r="AI907" s="6"/>
     </row>
-    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="43"/>
       <c r="B908" s="43"/>
       <c r="C908" s="6"/>
@@ -36471,7 +36423,7 @@
       <c r="AH908" s="6"/>
       <c r="AI908" s="6"/>
     </row>
-    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="43"/>
       <c r="B909" s="43"/>
       <c r="C909" s="6"/>
@@ -36508,7 +36460,7 @@
       <c r="AH909" s="6"/>
       <c r="AI909" s="6"/>
     </row>
-    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="43"/>
       <c r="B910" s="43"/>
       <c r="C910" s="6"/>
@@ -36545,7 +36497,7 @@
       <c r="AH910" s="6"/>
       <c r="AI910" s="6"/>
     </row>
-    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="43"/>
       <c r="B911" s="43"/>
       <c r="C911" s="6"/>
@@ -36582,7 +36534,7 @@
       <c r="AH911" s="6"/>
       <c r="AI911" s="6"/>
     </row>
-    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="43"/>
       <c r="B912" s="43"/>
       <c r="C912" s="6"/>
@@ -36619,7 +36571,7 @@
       <c r="AH912" s="6"/>
       <c r="AI912" s="6"/>
     </row>
-    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="43"/>
       <c r="B913" s="43"/>
       <c r="C913" s="6"/>
@@ -36656,7 +36608,7 @@
       <c r="AH913" s="6"/>
       <c r="AI913" s="6"/>
     </row>
-    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="43"/>
       <c r="B914" s="43"/>
       <c r="C914" s="6"/>
@@ -36693,7 +36645,7 @@
       <c r="AH914" s="6"/>
       <c r="AI914" s="6"/>
     </row>
-    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="43"/>
       <c r="B915" s="43"/>
       <c r="C915" s="6"/>
@@ -36730,7 +36682,7 @@
       <c r="AH915" s="6"/>
       <c r="AI915" s="6"/>
     </row>
-    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="43"/>
       <c r="B916" s="43"/>
       <c r="C916" s="6"/>
@@ -36767,7 +36719,7 @@
       <c r="AH916" s="6"/>
       <c r="AI916" s="6"/>
     </row>
-    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="43"/>
       <c r="B917" s="43"/>
       <c r="C917" s="6"/>
@@ -36804,7 +36756,7 @@
       <c r="AH917" s="6"/>
       <c r="AI917" s="6"/>
     </row>
-    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="43"/>
       <c r="B918" s="43"/>
       <c r="C918" s="6"/>
@@ -36841,7 +36793,7 @@
       <c r="AH918" s="6"/>
       <c r="AI918" s="6"/>
     </row>
-    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="43"/>
       <c r="B919" s="43"/>
       <c r="C919" s="6"/>
@@ -36878,7 +36830,7 @@
       <c r="AH919" s="6"/>
       <c r="AI919" s="6"/>
     </row>
-    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="43"/>
       <c r="B920" s="43"/>
       <c r="C920" s="6"/>
@@ -36915,7 +36867,7 @@
       <c r="AH920" s="6"/>
       <c r="AI920" s="6"/>
     </row>
-    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="43"/>
       <c r="B921" s="43"/>
       <c r="C921" s="6"/>
@@ -36952,7 +36904,7 @@
       <c r="AH921" s="6"/>
       <c r="AI921" s="6"/>
     </row>
-    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="43"/>
       <c r="B922" s="43"/>
       <c r="C922" s="6"/>
@@ -36989,7 +36941,7 @@
       <c r="AH922" s="6"/>
       <c r="AI922" s="6"/>
     </row>
-    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="43"/>
       <c r="B923" s="43"/>
       <c r="C923" s="6"/>
@@ -37026,7 +36978,7 @@
       <c r="AH923" s="6"/>
       <c r="AI923" s="6"/>
     </row>
-    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="43"/>
       <c r="B924" s="43"/>
       <c r="C924" s="6"/>
@@ -37063,7 +37015,7 @@
       <c r="AH924" s="6"/>
       <c r="AI924" s="6"/>
     </row>
-    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="43"/>
       <c r="B925" s="43"/>
       <c r="C925" s="6"/>
@@ -37100,7 +37052,7 @@
       <c r="AH925" s="6"/>
       <c r="AI925" s="6"/>
     </row>
-    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="43"/>
       <c r="B926" s="43"/>
       <c r="C926" s="6"/>
@@ -37137,7 +37089,7 @@
       <c r="AH926" s="6"/>
       <c r="AI926" s="6"/>
     </row>
-    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="43"/>
       <c r="B927" s="43"/>
       <c r="C927" s="6"/>
@@ -37174,7 +37126,7 @@
       <c r="AH927" s="6"/>
       <c r="AI927" s="6"/>
     </row>
-    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="43"/>
       <c r="B928" s="43"/>
       <c r="C928" s="6"/>
@@ -37211,7 +37163,7 @@
       <c r="AH928" s="6"/>
       <c r="AI928" s="6"/>
     </row>
-    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="43"/>
       <c r="B929" s="43"/>
       <c r="C929" s="6"/>
@@ -37248,7 +37200,7 @@
       <c r="AH929" s="6"/>
       <c r="AI929" s="6"/>
     </row>
-    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="43"/>
       <c r="B930" s="43"/>
       <c r="C930" s="6"/>
@@ -37285,7 +37237,7 @@
       <c r="AH930" s="6"/>
       <c r="AI930" s="6"/>
     </row>
-    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="43"/>
       <c r="B931" s="43"/>
       <c r="C931" s="6"/>
@@ -37322,7 +37274,7 @@
       <c r="AH931" s="6"/>
       <c r="AI931" s="6"/>
     </row>
-    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="43"/>
       <c r="B932" s="43"/>
       <c r="C932" s="6"/>
@@ -37359,7 +37311,7 @@
       <c r="AH932" s="6"/>
       <c r="AI932" s="6"/>
     </row>
-    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="43"/>
       <c r="B933" s="43"/>
       <c r="C933" s="6"/>
@@ -37396,7 +37348,7 @@
       <c r="AH933" s="6"/>
       <c r="AI933" s="6"/>
     </row>
-    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="43"/>
       <c r="B934" s="43"/>
       <c r="C934" s="6"/>
@@ -37433,7 +37385,7 @@
       <c r="AH934" s="6"/>
       <c r="AI934" s="6"/>
     </row>
-    <row r="935" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="43"/>
       <c r="B935" s="43"/>
       <c r="C935" s="6"/>
@@ -37470,7 +37422,7 @@
       <c r="AH935" s="6"/>
       <c r="AI935" s="6"/>
     </row>
-    <row r="936" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="43"/>
       <c r="B936" s="43"/>
       <c r="C936" s="6"/>
@@ -37507,7 +37459,7 @@
       <c r="AH936" s="6"/>
       <c r="AI936" s="6"/>
     </row>
-    <row r="937" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="43"/>
       <c r="B937" s="43"/>
       <c r="C937" s="6"/>
@@ -37544,7 +37496,7 @@
       <c r="AH937" s="6"/>
       <c r="AI937" s="6"/>
     </row>
-    <row r="938" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="43"/>
       <c r="B938" s="43"/>
       <c r="C938" s="6"/>
@@ -37581,7 +37533,7 @@
       <c r="AH938" s="6"/>
       <c r="AI938" s="6"/>
     </row>
-    <row r="939" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="43"/>
       <c r="B939" s="43"/>
       <c r="C939" s="6"/>
@@ -37618,7 +37570,7 @@
       <c r="AH939" s="6"/>
       <c r="AI939" s="6"/>
     </row>
-    <row r="940" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="43"/>
       <c r="B940" s="43"/>
       <c r="C940" s="6"/>
@@ -37655,7 +37607,7 @@
       <c r="AH940" s="6"/>
       <c r="AI940" s="6"/>
     </row>
-    <row r="941" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="43"/>
       <c r="B941" s="43"/>
       <c r="C941" s="6"/>
@@ -37692,7 +37644,7 @@
       <c r="AH941" s="6"/>
       <c r="AI941" s="6"/>
     </row>
-    <row r="942" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="43"/>
       <c r="B942" s="43"/>
       <c r="C942" s="6"/>
@@ -37729,7 +37681,7 @@
       <c r="AH942" s="6"/>
       <c r="AI942" s="6"/>
     </row>
-    <row r="943" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="43"/>
       <c r="B943" s="43"/>
       <c r="C943" s="6"/>
@@ -37766,7 +37718,7 @@
       <c r="AH943" s="6"/>
       <c r="AI943" s="6"/>
     </row>
-    <row r="944" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="43"/>
       <c r="B944" s="43"/>
       <c r="C944" s="6"/>
@@ -37803,7 +37755,7 @@
       <c r="AH944" s="6"/>
       <c r="AI944" s="6"/>
     </row>
-    <row r="945" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="43"/>
       <c r="B945" s="43"/>
       <c r="C945" s="6"/>
@@ -37840,7 +37792,7 @@
       <c r="AH945" s="6"/>
       <c r="AI945" s="6"/>
     </row>
-    <row r="946" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="43"/>
       <c r="B946" s="43"/>
       <c r="C946" s="6"/>
@@ -37877,7 +37829,7 @@
       <c r="AH946" s="6"/>
       <c r="AI946" s="6"/>
     </row>
-    <row r="947" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="43"/>
       <c r="B947" s="43"/>
       <c r="C947" s="6"/>
@@ -37914,7 +37866,7 @@
       <c r="AH947" s="6"/>
       <c r="AI947" s="6"/>
     </row>
-    <row r="948" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="43"/>
       <c r="B948" s="43"/>
       <c r="C948" s="6"/>
@@ -37951,7 +37903,7 @@
       <c r="AH948" s="6"/>
       <c r="AI948" s="6"/>
     </row>
-    <row r="949" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="43"/>
       <c r="B949" s="43"/>
       <c r="C949" s="6"/>
@@ -37988,7 +37940,7 @@
       <c r="AH949" s="6"/>
       <c r="AI949" s="6"/>
     </row>
-    <row r="950" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="43"/>
       <c r="B950" s="43"/>
       <c r="C950" s="6"/>
@@ -38025,7 +37977,7 @@
       <c r="AH950" s="6"/>
       <c r="AI950" s="6"/>
     </row>
-    <row r="951" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="43"/>
       <c r="B951" s="43"/>
       <c r="C951" s="6"/>
@@ -38062,7 +38014,7 @@
       <c r="AH951" s="6"/>
       <c r="AI951" s="6"/>
     </row>
-    <row r="952" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="43"/>
       <c r="B952" s="43"/>
       <c r="C952" s="6"/>
@@ -38099,7 +38051,7 @@
       <c r="AH952" s="6"/>
       <c r="AI952" s="6"/>
     </row>
-    <row r="953" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="43"/>
       <c r="B953" s="43"/>
       <c r="C953" s="6"/>
@@ -38136,7 +38088,7 @@
       <c r="AH953" s="6"/>
       <c r="AI953" s="6"/>
     </row>
-    <row r="954" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="43"/>
       <c r="B954" s="43"/>
       <c r="C954" s="6"/>
@@ -38173,7 +38125,7 @@
       <c r="AH954" s="6"/>
       <c r="AI954" s="6"/>
     </row>
-    <row r="955" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="43"/>
       <c r="B955" s="43"/>
       <c r="C955" s="6"/>
@@ -38210,7 +38162,7 @@
       <c r="AH955" s="6"/>
       <c r="AI955" s="6"/>
     </row>
-    <row r="956" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="43"/>
       <c r="B956" s="43"/>
       <c r="C956" s="6"/>
@@ -38247,7 +38199,7 @@
       <c r="AH956" s="6"/>
       <c r="AI956" s="6"/>
     </row>
-    <row r="957" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="43"/>
       <c r="B957" s="43"/>
       <c r="C957" s="6"/>
@@ -38284,7 +38236,7 @@
       <c r="AH957" s="6"/>
       <c r="AI957" s="6"/>
     </row>
-    <row r="958" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="43"/>
       <c r="B958" s="43"/>
       <c r="C958" s="6"/>
@@ -38321,7 +38273,7 @@
       <c r="AH958" s="6"/>
       <c r="AI958" s="6"/>
     </row>
-    <row r="959" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="43"/>
       <c r="B959" s="43"/>
       <c r="C959" s="6"/>
@@ -38358,7 +38310,7 @@
       <c r="AH959" s="6"/>
       <c r="AI959" s="6"/>
     </row>
-    <row r="960" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="43"/>
       <c r="B960" s="43"/>
       <c r="C960" s="6"/>
@@ -38395,7 +38347,7 @@
       <c r="AH960" s="6"/>
       <c r="AI960" s="6"/>
     </row>
-    <row r="961" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="43"/>
       <c r="B961" s="43"/>
       <c r="C961" s="6"/>
@@ -38432,7 +38384,7 @@
       <c r="AH961" s="6"/>
       <c r="AI961" s="6"/>
     </row>
-    <row r="962" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="43"/>
       <c r="B962" s="43"/>
       <c r="C962" s="6"/>
@@ -38469,7 +38421,7 @@
       <c r="AH962" s="6"/>
       <c r="AI962" s="6"/>
     </row>
-    <row r="963" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="43"/>
       <c r="B963" s="43"/>
       <c r="C963" s="6"/>
@@ -38506,7 +38458,7 @@
       <c r="AH963" s="6"/>
       <c r="AI963" s="6"/>
     </row>
-    <row r="964" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="43"/>
       <c r="B964" s="43"/>
       <c r="C964" s="6"/>
@@ -38543,7 +38495,7 @@
       <c r="AH964" s="6"/>
       <c r="AI964" s="6"/>
     </row>
-    <row r="965" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="43"/>
       <c r="B965" s="43"/>
       <c r="C965" s="6"/>
@@ -38580,7 +38532,7 @@
       <c r="AH965" s="6"/>
       <c r="AI965" s="6"/>
     </row>
-    <row r="966" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="43"/>
       <c r="B966" s="43"/>
       <c r="C966" s="6"/>
@@ -38617,7 +38569,7 @@
       <c r="AH966" s="6"/>
       <c r="AI966" s="6"/>
     </row>
-    <row r="967" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="43"/>
       <c r="B967" s="43"/>
       <c r="C967" s="6"/>
@@ -38654,7 +38606,7 @@
       <c r="AH967" s="6"/>
       <c r="AI967" s="6"/>
     </row>
-    <row r="968" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="43"/>
       <c r="B968" s="43"/>
       <c r="C968" s="6"/>
@@ -38691,7 +38643,7 @@
       <c r="AH968" s="6"/>
       <c r="AI968" s="6"/>
     </row>
-    <row r="969" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="43"/>
       <c r="B969" s="43"/>
       <c r="C969" s="6"/>
@@ -38728,7 +38680,7 @@
       <c r="AH969" s="6"/>
       <c r="AI969" s="6"/>
     </row>
-    <row r="970" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="43"/>
       <c r="B970" s="43"/>
       <c r="C970" s="6"/>
@@ -38765,7 +38717,7 @@
       <c r="AH970" s="6"/>
       <c r="AI970" s="6"/>
     </row>
-    <row r="971" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="43"/>
       <c r="B971" s="43"/>
       <c r="C971" s="6"/>
@@ -38802,7 +38754,7 @@
       <c r="AH971" s="6"/>
       <c r="AI971" s="6"/>
     </row>
-    <row r="972" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="43"/>
       <c r="B972" s="43"/>
       <c r="C972" s="6"/>
@@ -38839,7 +38791,7 @@
       <c r="AH972" s="6"/>
       <c r="AI972" s="6"/>
     </row>
-    <row r="973" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="43"/>
       <c r="B973" s="43"/>
       <c r="C973" s="6"/>
@@ -38876,7 +38828,7 @@
       <c r="AH973" s="6"/>
       <c r="AI973" s="6"/>
     </row>
-    <row r="974" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="43"/>
       <c r="B974" s="43"/>
       <c r="C974" s="6"/>
@@ -38913,7 +38865,7 @@
       <c r="AH974" s="6"/>
       <c r="AI974" s="6"/>
     </row>
-    <row r="975" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="43"/>
       <c r="B975" s="43"/>
       <c r="C975" s="6"/>
@@ -38950,7 +38902,7 @@
       <c r="AH975" s="6"/>
       <c r="AI975" s="6"/>
     </row>
-    <row r="976" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="43"/>
       <c r="B976" s="43"/>
       <c r="C976" s="6"/>
@@ -38987,7 +38939,7 @@
       <c r="AH976" s="6"/>
       <c r="AI976" s="6"/>
     </row>
-    <row r="977" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="43"/>
       <c r="B977" s="43"/>
       <c r="C977" s="6"/>
@@ -39024,7 +38976,7 @@
       <c r="AH977" s="6"/>
       <c r="AI977" s="6"/>
     </row>
-    <row r="978" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="43"/>
       <c r="B978" s="43"/>
       <c r="C978" s="6"/>
@@ -39061,7 +39013,7 @@
       <c r="AH978" s="6"/>
       <c r="AI978" s="6"/>
     </row>
-    <row r="979" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="43"/>
       <c r="B979" s="43"/>
       <c r="C979" s="6"/>
@@ -39098,7 +39050,7 @@
       <c r="AH979" s="6"/>
       <c r="AI979" s="6"/>
     </row>
-    <row r="980" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="43"/>
       <c r="B980" s="43"/>
       <c r="C980" s="6"/>
@@ -39135,7 +39087,7 @@
       <c r="AH980" s="6"/>
       <c r="AI980" s="6"/>
     </row>
-    <row r="981" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="43"/>
       <c r="B981" s="43"/>
       <c r="C981" s="6"/>
@@ -39172,7 +39124,7 @@
       <c r="AH981" s="6"/>
       <c r="AI981" s="6"/>
     </row>
-    <row r="982" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="43"/>
       <c r="B982" s="43"/>
       <c r="C982" s="6"/>
@@ -39209,7 +39161,7 @@
       <c r="AH982" s="6"/>
       <c r="AI982" s="6"/>
     </row>
-    <row r="983" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="43"/>
       <c r="B983" s="43"/>
       <c r="C983" s="6"/>
@@ -39246,7 +39198,7 @@
       <c r="AH983" s="6"/>
       <c r="AI983" s="6"/>
     </row>
-    <row r="984" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="43"/>
       <c r="B984" s="43"/>
       <c r="C984" s="6"/>
@@ -39283,7 +39235,7 @@
       <c r="AH984" s="6"/>
       <c r="AI984" s="6"/>
     </row>
-    <row r="985" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="43"/>
       <c r="B985" s="43"/>
       <c r="C985" s="6"/>
@@ -39320,7 +39272,7 @@
       <c r="AH985" s="6"/>
       <c r="AI985" s="6"/>
     </row>
-    <row r="986" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="43"/>
       <c r="B986" s="43"/>
       <c r="C986" s="6"/>
@@ -39357,7 +39309,7 @@
       <c r="AH986" s="6"/>
       <c r="AI986" s="6"/>
     </row>
-    <row r="987" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="43"/>
       <c r="B987" s="43"/>
       <c r="C987" s="6"/>
@@ -39394,7 +39346,7 @@
       <c r="AH987" s="6"/>
       <c r="AI987" s="6"/>
     </row>
-    <row r="988" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="43"/>
       <c r="B988" s="43"/>
       <c r="C988" s="6"/>
@@ -39431,7 +39383,7 @@
       <c r="AH988" s="6"/>
       <c r="AI988" s="6"/>
     </row>
-    <row r="989" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="43"/>
       <c r="B989" s="43"/>
       <c r="C989" s="6"/>
@@ -39468,7 +39420,7 @@
       <c r="AH989" s="6"/>
       <c r="AI989" s="6"/>
     </row>
-    <row r="990" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="43"/>
       <c r="B990" s="43"/>
       <c r="C990" s="6"/>
@@ -39505,7 +39457,7 @@
       <c r="AH990" s="6"/>
       <c r="AI990" s="6"/>
     </row>
-    <row r="991" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="43"/>
       <c r="B991" s="43"/>
       <c r="C991" s="6"/>
@@ -39542,7 +39494,7 @@
       <c r="AH991" s="6"/>
       <c r="AI991" s="6"/>
     </row>
-    <row r="992" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="43"/>
       <c r="B992" s="43"/>
       <c r="C992" s="6"/>
@@ -39579,7 +39531,7 @@
       <c r="AH992" s="6"/>
       <c r="AI992" s="6"/>
     </row>
-    <row r="993" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="43"/>
       <c r="B993" s="43"/>
       <c r="C993" s="6"/>
@@ -39616,7 +39568,7 @@
       <c r="AH993" s="6"/>
       <c r="AI993" s="6"/>
     </row>
-    <row r="994" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="43"/>
       <c r="B994" s="43"/>
       <c r="C994" s="6"/>
@@ -39653,7 +39605,7 @@
       <c r="AH994" s="6"/>
       <c r="AI994" s="6"/>
     </row>
-    <row r="995" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="43"/>
       <c r="B995" s="43"/>
       <c r="C995" s="6"/>
@@ -39690,7 +39642,7 @@
       <c r="AH995" s="6"/>
       <c r="AI995" s="6"/>
     </row>
-    <row r="996" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="43"/>
       <c r="B996" s="43"/>
       <c r="C996" s="6"/>
@@ -39727,7 +39679,7 @@
       <c r="AH996" s="6"/>
       <c r="AI996" s="6"/>
     </row>
-    <row r="997" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="43"/>
       <c r="B997" s="43"/>
       <c r="C997" s="6"/>
@@ -39764,7 +39716,7 @@
       <c r="AH997" s="6"/>
       <c r="AI997" s="6"/>
     </row>
-    <row r="998" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="43"/>
       <c r="B998" s="43"/>
       <c r="C998" s="6"/>
@@ -39801,7 +39753,7 @@
       <c r="AH998" s="6"/>
       <c r="AI998" s="6"/>
     </row>
-    <row r="999" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="43"/>
       <c r="B999" s="43"/>
       <c r="C999" s="6"/>
@@ -39838,7 +39790,7 @@
       <c r="AH999" s="6"/>
       <c r="AI999" s="6"/>
     </row>
-    <row r="1000" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="43"/>
       <c r="B1000" s="43"/>
       <c r="C1000" s="6"/>
